--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec6\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A278386-3116-4AC1-9AB5-27B2FB3A0DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19FA347-0570-4BA8-9E1D-2F075F00B2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
   <sheets>
     <sheet name="warm" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="pictures" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$151:$C$239</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$346</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$347:$C$347</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$348</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="870">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -227,9 +227,6 @@
     <t xml:space="preserve">No ibamos deprisa cuando ocurrió </t>
   </si>
   <si>
-    <t>We werent going fast when it happend</t>
-  </si>
-  <si>
     <t>Me las arreglo gracias a una herencia, me las apaño, voy tirando...</t>
   </si>
   <si>
@@ -314,15 +311,9 @@
     <t>Es un apena que no sepa reparar la maquina, ojala supiera ...reparar la maquina</t>
   </si>
   <si>
-    <t>Its a pity he doesnt know how to repare the machine. I wish he knew how to repare the machine.</t>
-  </si>
-  <si>
     <t>Es una pena que no puediera ir a la fiesta, ojala hubiera podido ir a la fiesta</t>
   </si>
   <si>
-    <t>It's a  pity he coouldn't go the party, I wish he had been able to go to the party</t>
-  </si>
-  <si>
     <t>Me di cuenta de quien era despues de haber hablado con el durante 10 minutos.</t>
   </si>
   <si>
@@ -407,9 +398,6 @@
     <t>Lo hagas como lo hagas, estara bien</t>
   </si>
   <si>
-    <t>Hables con quien hables...</t>
-  </si>
-  <si>
     <t xml:space="preserve">No matter who you talk to, he'll be friendly, whoever you talk to, he'll be friendly </t>
   </si>
   <si>
@@ -692,9 +680,6 @@
     <t>shall</t>
   </si>
   <si>
-    <t>may</t>
-  </si>
-  <si>
     <t>much less/ni mucho menos</t>
   </si>
   <si>
@@ -710,9 +695,6 @@
     <t>You have to do it on your own, You've to do it by your self</t>
   </si>
   <si>
-    <t>puede que/may</t>
-  </si>
-  <si>
     <t>debe de ..(posibilidad)/must</t>
   </si>
   <si>
@@ -767,12 +749,6 @@
     <t>I haven't driven the car you drove yesterday</t>
   </si>
   <si>
-    <t>If this house were mine I would enlarge it</t>
-  </si>
-  <si>
-    <t>If they didn't need money they wouldn't be here</t>
-  </si>
-  <si>
     <t>if</t>
   </si>
   <si>
@@ -788,9 +764,6 @@
     <t>Si está casa fuera mía la ampliaría</t>
   </si>
   <si>
-    <t>If mine were like yours everything would be diferent</t>
-  </si>
-  <si>
     <t>Por favor, puede alguien ordenar este desorden</t>
   </si>
   <si>
@@ -1007,9 +980,6 @@
     <t>when it comes to/ en lo que se refiere/en cuanto a/</t>
   </si>
   <si>
-    <t>When it comes to company policy, i'd rather not get invloved.</t>
-  </si>
-  <si>
     <t>How many of you are there?</t>
   </si>
   <si>
@@ -1088,12 +1058,6 @@
     <t>They may have seen him, but i dont know</t>
   </si>
   <si>
-    <t>He may have broken the record but I don´t know</t>
-  </si>
-  <si>
-    <t>He could've flown to new york but he did'nt</t>
-  </si>
-  <si>
     <t>Puede que haya/may have</t>
   </si>
   <si>
@@ -1184,9 +1148,6 @@
     <t>this one is bigger than the other one</t>
   </si>
   <si>
-    <t>what other people do you know</t>
-  </si>
-  <si>
     <t xml:space="preserve">Puede que se lo haya dado a el, pero no se </t>
   </si>
   <si>
@@ -1214,12 +1175,6 @@
     <t>Puede que haya elegido al candidato, pero no lo se</t>
   </si>
   <si>
-    <t>He may have gone there but i doint know</t>
-  </si>
-  <si>
-    <t>I may have kept the money but I'm not sure</t>
-  </si>
-  <si>
     <t>Puede que haya guardado el dinero, pero no estoy seguro.</t>
   </si>
   <si>
@@ -1238,9 +1193,6 @@
     <t>Podría haber atrapado la pelota pero no lo hizo.</t>
   </si>
   <si>
-    <t>He could've thought about the problen but he didn't</t>
-  </si>
-  <si>
     <t>Podría haber pensado sobre el problema pero no lo hizo</t>
   </si>
   <si>
@@ -1262,9 +1214,6 @@
     <t>I have a strange feeling</t>
   </si>
   <si>
-    <t>I don want this one i want another one</t>
-  </si>
-  <si>
     <t>I'll have another glass of wine</t>
   </si>
   <si>
@@ -1313,9 +1262,6 @@
     <t>Lo que es peor</t>
   </si>
   <si>
-    <t>You'd better be more carful nex time</t>
-  </si>
-  <si>
     <t>mas te vale/harás bien/You'd better</t>
   </si>
   <si>
@@ -1400,12 +1346,6 @@
     <t>reported</t>
   </si>
   <si>
-    <t>Anna said that she had seen it from the air, but she had never driven trought it.</t>
-  </si>
-  <si>
-    <t>Karl asked her when she was plannig to go to stturgart again.</t>
-  </si>
-  <si>
     <t>Anna said that she would love to see it, but she said she did't have any time time right then.( at that time)</t>
   </si>
   <si>
@@ -1454,9 +1394,6 @@
     <t>Lo mas importante por ahora es empezar</t>
   </si>
   <si>
-    <t>lo mas dificil/ the most difficult</t>
-  </si>
-  <si>
     <t>Me pica el hombro</t>
   </si>
   <si>
@@ -1490,21 +1427,12 @@
     <t>conseguir hacer algo/manage</t>
   </si>
   <si>
-    <t>it will break if you bend it to much.</t>
-  </si>
-  <si>
     <t>The general manager's secretary</t>
   </si>
   <si>
     <t>la secretaria del director general</t>
   </si>
   <si>
-    <t>She types very well</t>
-  </si>
-  <si>
-    <t>it's sound good</t>
-  </si>
-  <si>
     <t>suena bien</t>
   </si>
   <si>
@@ -1523,15 +1451,6 @@
     <t>Ojala hubieran vendio ayer</t>
   </si>
   <si>
-    <t>I wish this lis weren´t so long</t>
-  </si>
-  <si>
-    <t>Se rompeá si lo doblas demasiado</t>
-  </si>
-  <si>
-    <t>If I knew her name I'd invited to the party</t>
-  </si>
-  <si>
     <t>Si supiera su nombre lo invitaría a la fiesta</t>
   </si>
   <si>
@@ -1547,9 +1466,6 @@
     <t>Si fuera chino hablaria chino</t>
   </si>
   <si>
-    <t>Escribe muy bien a maquina</t>
-  </si>
-  <si>
     <t>Es una buena mecanógrafa</t>
   </si>
   <si>
@@ -1571,21 +1487,12 @@
     <t>por que no habia una entrdada para mi?</t>
   </si>
   <si>
-    <t>Quiero saber por que no había un aentrada para mi.</t>
-  </si>
-  <si>
     <t>why isn't he interested in finding a job?</t>
   </si>
   <si>
     <t>Por que no está interesedo en buscar un trabajo?</t>
   </si>
   <si>
-    <t>Por que no necesita un trabajo?</t>
-  </si>
-  <si>
-    <t>Quiero sabe por que no necesita un trabajo</t>
-  </si>
-  <si>
     <t>Por que no has hablado con ella esta semana?</t>
   </si>
   <si>
@@ -1616,15 +1523,6 @@
     <t>Karl: Have you ever visited the Black forest?</t>
   </si>
   <si>
-    <t>Ana: I'd love to see it, but i don't have any time right now.</t>
-  </si>
-  <si>
-    <t>Ana: I don't know it depends on your technical department.</t>
-  </si>
-  <si>
-    <t>Karl: When are you planning to come up to Stuttgart again?</t>
-  </si>
-  <si>
     <t>Karl: I'll get in touch with them and then get back to you.</t>
   </si>
   <si>
@@ -1652,9 +1550,6 @@
     <t>Andre:  The whole family will be there</t>
   </si>
   <si>
-    <t>Natasha:  You make me fell like a foreign dignitary.</t>
-  </si>
-  <si>
     <t>Andre:  We're all looking forward to seeing you.</t>
   </si>
   <si>
@@ -1676,9 +1571,6 @@
     <t>estuve con ellos ayer.</t>
   </si>
   <si>
-    <t>Were were you born?</t>
-  </si>
-  <si>
     <t>Donde naciste?</t>
   </si>
   <si>
@@ -1706,9 +1598,6 @@
     <t>estos verbos me están violviendo loco</t>
   </si>
   <si>
-    <t>This verbs ar driving me crazy</t>
-  </si>
-  <si>
     <t>Can someone go an get some milk?</t>
   </si>
   <si>
@@ -1721,9 +1610,6 @@
     <t>Donde conseguiste ese libro?</t>
   </si>
   <si>
-    <t>La semana pasada recibí un carta d emi hermano</t>
-  </si>
-  <si>
     <t>Te puedo invitar a un cerveza</t>
   </si>
   <si>
@@ -1760,9 +1646,6 @@
     <t>Llegué a la reunión antes que ellos</t>
   </si>
   <si>
-    <t>Legar a aquí</t>
-  </si>
-  <si>
     <t>Karl asked Ana if she had ever visited the Black Forest.</t>
   </si>
   <si>
@@ -1772,12 +1655,6 @@
     <t>Karl: I have a house there. Would you like to visit the area?</t>
   </si>
   <si>
-    <t>lats week i got a letter from my broder</t>
-  </si>
-  <si>
-    <t>Were were you?</t>
-  </si>
-  <si>
     <t>No andes tan rápido</t>
   </si>
   <si>
@@ -2030,27 +1907,15 @@
     <t>Puede que haya roto el record, pero no los se</t>
   </si>
   <si>
-    <t>It may have cost the same but I'm not sure</t>
-  </si>
-  <si>
     <t>Podría haberle visto, pero no lo vió.</t>
   </si>
   <si>
-    <t>She could've seen him but he didn´t</t>
-  </si>
-  <si>
-    <t>She could´ve done it but she didn´t</t>
-  </si>
-  <si>
     <t>Podría haber creado el programa, pero no lo hizo.</t>
   </si>
   <si>
     <t>He could've created the progarm, but he didn't</t>
   </si>
   <si>
-    <t>He could've cought the ball but he didn't</t>
-  </si>
-  <si>
     <t>He must have read a lot of books</t>
   </si>
   <si>
@@ -2129,9 +1994,6 @@
     <t>I usually manage to see some friend on the week end</t>
   </si>
   <si>
-    <t>I I were chinese I wolud speak chinese</t>
-  </si>
-  <si>
     <t>Ojala vengan mas a menudo</t>
   </si>
   <si>
@@ -2144,9 +2006,6 @@
     <t>Why wasn't there a ticket for me?</t>
   </si>
   <si>
-    <t>I want to know why ther wasn't a ticket for me</t>
-  </si>
-  <si>
     <t>why doesn't he need to work?</t>
   </si>
   <si>
@@ -2303,15 +2162,9 @@
     <t>otro/another/other/anotherone</t>
   </si>
   <si>
-    <t xml:space="preserve">Ojala no tuviera tanto </t>
-  </si>
-  <si>
     <t>You need to quiqken the pace to cath up with them</t>
   </si>
   <si>
-    <t>i wish i didnt have so much backlog to catch up on</t>
-  </si>
-  <si>
     <t>we'll meet again in the near future</t>
   </si>
   <si>
@@ -2381,9 +2234,6 @@
     <t>No, no lo hice pero me gustaría</t>
   </si>
   <si>
-    <t>We'll call you as sonn as we receive it</t>
-  </si>
-  <si>
     <t>Te llamaremos tan pronto como lo recibamos</t>
   </si>
   <si>
@@ -2393,9 +2243,6 @@
     <t>They're running a race/he's trying to cath up with him</t>
   </si>
   <si>
-    <t>You'll get over the illnesss</t>
-  </si>
-  <si>
     <t>It took me 10 days to get over covid</t>
   </si>
   <si>
@@ -2405,9 +2252,6 @@
     <t>Me irrité cuando lo oí</t>
   </si>
   <si>
-    <t>I got irritated when i heard it</t>
-  </si>
-  <si>
     <t>a diferencia de/unlike</t>
   </si>
   <si>
@@ -2426,9 +2270,6 @@
     <t>He's interested in whatever she does</t>
   </si>
   <si>
-    <t>Le interesa cualquier cosa que hace</t>
-  </si>
-  <si>
     <t>You can dress however you want</t>
   </si>
   <si>
@@ -2441,12 +2282,6 @@
     <t>You can visit me whenever you like</t>
   </si>
   <si>
-    <t>de repente</t>
-  </si>
-  <si>
-    <t>all of a sudden</t>
-  </si>
-  <si>
     <t>de repente/all of a sudden</t>
   </si>
   <si>
@@ -2459,51 +2294,18 @@
     <t>I'm almost always right</t>
   </si>
   <si>
-    <t>when will we see each other again</t>
-  </si>
-  <si>
     <t>tiene bicicleta?</t>
   </si>
   <si>
     <t>Casi siempre tengo razón</t>
   </si>
   <si>
-    <t>Cuando nose veremos otra vez?</t>
-  </si>
-  <si>
-    <t>wich way is the right way</t>
-  </si>
-  <si>
-    <t>i woudn't do it that way</t>
-  </si>
-  <si>
-    <t>there're many ways to improve your engligh</t>
-  </si>
-  <si>
-    <t>i can't find the way out</t>
-  </si>
-  <si>
-    <t>we still have a long way to go</t>
-  </si>
-  <si>
-    <t>todavia nos queda un largo camino</t>
-  </si>
-  <si>
-    <t>get out of the way</t>
-  </si>
-  <si>
-    <t>i'm on my way</t>
-  </si>
-  <si>
     <t>voy en camino</t>
   </si>
   <si>
     <t>quita de en medio</t>
   </si>
   <si>
-    <t>i moved my car out of the way</t>
-  </si>
-  <si>
     <t>tokyo is way bigger than mostoles</t>
   </si>
   <si>
@@ -2513,18 +2315,9 @@
     <t>Es demasido caro</t>
   </si>
   <si>
-    <t>it's way too expensive</t>
-  </si>
-  <si>
     <t>Quité mi coche de en medio</t>
   </si>
   <si>
-    <t>estas seguro que vamos por el buen camino?</t>
-  </si>
-  <si>
-    <t>are you sure we're going the right way?</t>
-  </si>
-  <si>
     <t>No puedo encontrar la salida</t>
   </si>
   <si>
@@ -2555,34 +2348,319 @@
     <t>What would you like?</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>how much money</t>
-  </si>
-  <si>
-    <t>whose fault was it?</t>
-  </si>
-  <si>
     <t>How much</t>
   </si>
   <si>
     <t>Whose</t>
   </si>
   <si>
-    <t>How long does he think we should wait</t>
-  </si>
-  <si>
-    <t>what time</t>
-  </si>
-  <si>
     <t>What time</t>
   </si>
   <si>
-    <t>Wich car</t>
-  </si>
-  <si>
     <t>Wich</t>
+  </si>
+  <si>
+    <t>What does she do?</t>
+  </si>
+  <si>
+    <t>She works as an architec.</t>
+  </si>
+  <si>
+    <t>how much money did he spend?</t>
+  </si>
+  <si>
+    <t>He spent 1.000 dollars</t>
+  </si>
+  <si>
+    <t>It was her fault.</t>
+  </si>
+  <si>
+    <t>How long does he think we should wait?</t>
+  </si>
+  <si>
+    <t>I moved my car out of the way</t>
+  </si>
+  <si>
+    <t>I'm on my way</t>
+  </si>
+  <si>
+    <t>Get out of the way</t>
+  </si>
+  <si>
+    <t>We still have a long way to go</t>
+  </si>
+  <si>
+    <t>Todavia nos queda un largo camino</t>
+  </si>
+  <si>
+    <t>Estas seguro que vamos por el buen camino?</t>
+  </si>
+  <si>
+    <t>Are you sure we're going the right way?</t>
+  </si>
+  <si>
+    <t>I can't find the way out</t>
+  </si>
+  <si>
+    <t>there're many ways to improve your english</t>
+  </si>
+  <si>
+    <t>I woudn't do it that way</t>
+  </si>
+  <si>
+    <t>wich way is the right way?</t>
+  </si>
+  <si>
+    <t>Cuando nos veremos otra vez?</t>
+  </si>
+  <si>
+    <t>when will we see each other again?</t>
+  </si>
+  <si>
+    <t>de repente se puso enfermo</t>
+  </si>
+  <si>
+    <t>Le interesa cualquier cosa que ella hace</t>
+  </si>
+  <si>
+    <t>I got irritated when I heard it</t>
+  </si>
+  <si>
+    <t>supraras la enfermedad</t>
+  </si>
+  <si>
+    <t>You'll get over the illness</t>
+  </si>
+  <si>
+    <t>We'll call you as son as we receive it</t>
+  </si>
+  <si>
+    <t>Legar aquí</t>
+  </si>
+  <si>
+    <t>Cuanto tiempo tardas en llegar a casa?</t>
+  </si>
+  <si>
+    <t>How long does it take you to get home?</t>
+  </si>
+  <si>
+    <t>lats week I got a letter from my brother</t>
+  </si>
+  <si>
+    <t>La semana pasada recibí un carta de mi hermano</t>
+  </si>
+  <si>
+    <t>Quiero saber por que no necesita trabajar</t>
+  </si>
+  <si>
+    <t>Por que no necesita trabajar?</t>
+  </si>
+  <si>
+    <t>Quiero saber por que no había una entrada para mi.</t>
+  </si>
+  <si>
+    <t>I want to know why there wasn't a ticket for me</t>
+  </si>
+  <si>
+    <t>I wish this list weren't so long</t>
+  </si>
+  <si>
+    <t>it sounds good</t>
+  </si>
+  <si>
+    <t>Escribe muy bien a maquina, escribe muy bien a maquina</t>
+  </si>
+  <si>
+    <t>She types very well, She is a good typist</t>
+  </si>
+  <si>
+    <t>I I were chinese, I would speak chinese</t>
+  </si>
+  <si>
+    <t>If I knew her name, I'd invited to the party</t>
+  </si>
+  <si>
+    <t>Se romperá si lo doblas demasiado</t>
+  </si>
+  <si>
+    <t>It will break if you bend it to much.</t>
+  </si>
+  <si>
+    <t>lo mas dificil/ the most difficult thing</t>
+  </si>
+  <si>
+    <t>I don want this one, i want another one</t>
+  </si>
+  <si>
+    <t>what other people do you know?</t>
+  </si>
+  <si>
+    <t>He could've thought about the problem,  but he didn't</t>
+  </si>
+  <si>
+    <t>He could've cought the ball,  but he didn't</t>
+  </si>
+  <si>
+    <t>He could've flown to new york, but he did'nt</t>
+  </si>
+  <si>
+    <t>She could've done it but she didn't</t>
+  </si>
+  <si>
+    <t>She could've seen him but he didn't</t>
+  </si>
+  <si>
+    <t>It may have cost the same but, I'm not sure</t>
+  </si>
+  <si>
+    <t>puedo/may</t>
+  </si>
+  <si>
+    <t>He may have gone there, but i dom't know</t>
+  </si>
+  <si>
+    <t>He may have broken the record, but I don´t know</t>
+  </si>
+  <si>
+    <t>I may have kept the money, but I'm not sure</t>
+  </si>
+  <si>
+    <t>Hables con quien hables será amable</t>
+  </si>
+  <si>
+    <t>You'd better be more careful nex time</t>
+  </si>
+  <si>
+    <t>Ojala no tuviera tanto retraso que recuperar</t>
+  </si>
+  <si>
+    <t>I wish I didn't have so much backlog to catch up on</t>
+  </si>
+  <si>
+    <t>It's way too expensive</t>
+  </si>
+  <si>
+    <t>all of a sudden, he got sick</t>
+  </si>
+  <si>
+    <t>Which way you want to doit?</t>
+  </si>
+  <si>
+    <t>De que manera lo quieres hacer?</t>
+  </si>
+  <si>
+    <t>I'd like to go home</t>
+  </si>
+  <si>
+    <t>What would you like to do?</t>
+  </si>
+  <si>
+    <t>I'd like 20 euros.</t>
+  </si>
+  <si>
+    <t>How much money would you like?</t>
+  </si>
+  <si>
+    <t>It was your idea</t>
+  </si>
+  <si>
+    <t>Whose idea was it?</t>
+  </si>
+  <si>
+    <t>You have to open the door?</t>
+  </si>
+  <si>
+    <t>What do I have to do?</t>
+  </si>
+  <si>
+    <t>What were they doing when I called</t>
+  </si>
+  <si>
+    <t>They were having lunch when you called</t>
+  </si>
+  <si>
+    <t>What time does she think we should leave?</t>
+  </si>
+  <si>
+    <t>Whose fault was it?</t>
+  </si>
+  <si>
+    <t>Wich car does he think we should take?</t>
+  </si>
+  <si>
+    <t>she thinks we should leave at 5 pm.</t>
+  </si>
+  <si>
+    <t>He thinks we should take the small car</t>
+  </si>
+  <si>
+    <t>he thinks we should go to the hotel</t>
+  </si>
+  <si>
+    <t>Where bdoes he think we shuld go?</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>She thinks we should call her every hour?</t>
+  </si>
+  <si>
+    <t>How ofen does she think we should call her?</t>
+  </si>
+  <si>
+    <t>How ofen?</t>
+  </si>
+  <si>
+    <t>He thinks we should wait an hour.</t>
+  </si>
+  <si>
+    <t>This verbs are driving me crazy</t>
+  </si>
+  <si>
+    <t>When it comes to company policy, i'd rather not get involved.</t>
+  </si>
+  <si>
+    <t>Where were you?</t>
+  </si>
+  <si>
+    <t>Where were you born?</t>
+  </si>
+  <si>
+    <t>We weren't going fast when it happend</t>
+  </si>
+  <si>
+    <t>If this house were mine, I would enlarge it</t>
+  </si>
+  <si>
+    <t>If they didn't need money, they wouldn't be here</t>
+  </si>
+  <si>
+    <t>If mine were like yours, everything would be diferent</t>
+  </si>
+  <si>
+    <t>It's a  pity he couldn't go the party, I wish he had been able to go to the party</t>
+  </si>
+  <si>
+    <t>Its a pity he doesn't know how to repare the machine. I wish he knew how to repare the machine.</t>
+  </si>
+  <si>
+    <t>Anna: I'd love to see it, but i don't have any time right now.</t>
+  </si>
+  <si>
+    <t>Anna: I don't know it depends on your technical department.</t>
+  </si>
+  <si>
+    <t>Natasha:  You make me feel like a foreign dignitary.</t>
+  </si>
+  <si>
+    <t>Karl asked her when she was plannig to go to stutgart again.</t>
+  </si>
+  <si>
+    <t>Karl: When are you planning to come up to Stutgart again?</t>
+  </si>
+  <si>
+    <t>Anna said that she had seen it from the air, but she had never driven through it.</t>
   </si>
 </sst>
 </file>
@@ -2618,7 +2696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2629,6 +2707,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2657,14 +2747,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2708,7 +2799,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C346" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C348" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8C2285AF-8150-4289-9017-075B5346F689}" uniqueName="1" name="esp" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{6D572D7D-E01D-4336-BDAB-AC33E47035D7}" uniqueName="2" name="eng" queryTableFieldId="2" dataDxfId="1"/>
@@ -3018,28 +3109,28 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C346"/>
+  <dimension ref="A1:C348"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B349" sqref="B349"/>
+    <sheetView topLeftCell="A318" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
     <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3050,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3061,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3072,7 +3163,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3083,7 +3174,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3094,7 +3185,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3105,7 +3196,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3116,7 +3207,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3127,7 +3218,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3138,7 +3229,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3149,7 +3240,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3160,7 +3251,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3171,7 +3262,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3182,7 +3273,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3193,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3204,7 +3295,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3215,18 +3306,18 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3237,7 +3328,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3248,7 +3339,7 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3259,18 +3350,18 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C22" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3281,7 +3372,7 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3292,7 +3383,7 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3303,7 +3394,7 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3314,18 +3405,18 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B27" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3333,21 +3424,21 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>772</v>
+        <v>723</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3358,7 +3449,7 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3369,18 +3460,18 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3391,18 +3482,18 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>820</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="B34" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C34" t="s">
-        <v>213</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3413,7 +3504,7 @@
         <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3424,7 +3515,7 @@
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3432,3409 +3523,3431 @@
         <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>858</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
         <v>61</v>
       </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
         <v>65</v>
       </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
         <v>67</v>
       </c>
-      <c r="B42" t="s">
-        <v>68</v>
-      </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
         <v>69</v>
       </c>
-      <c r="B43" t="s">
-        <v>70</v>
-      </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B45" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C46" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C47" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
         <v>74</v>
       </c>
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
         <v>78</v>
       </c>
-      <c r="B50" t="s">
-        <v>79</v>
-      </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
         <v>80</v>
       </c>
-      <c r="B51" t="s">
-        <v>81</v>
-      </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
         <v>82</v>
       </c>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
         <v>84</v>
       </c>
-      <c r="B53" t="s">
-        <v>85</v>
-      </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>863</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>862</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C57" t="s">
-        <v>764</v>
+        <v>715</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C58" t="s">
-        <v>764</v>
+        <v>715</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>824</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C95" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C98" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C103" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B105" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C106" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C107" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B108" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C108" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B110" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B111" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C111" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C112" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B113" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C113" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B114" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C114" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C115" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C116" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>641</v>
+        <v>600</v>
       </c>
       <c r="B117" t="s">
-        <v>642</v>
+        <v>601</v>
       </c>
       <c r="C117" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C118" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B120" t="s">
-        <v>643</v>
+        <v>602</v>
       </c>
       <c r="C120" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B121" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C121" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B122" t="s">
-        <v>640</v>
+        <v>599</v>
       </c>
       <c r="C122" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C123" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C124" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>644</v>
+        <v>603</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C125" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B126" t="s">
-        <v>238</v>
+        <v>859</v>
       </c>
       <c r="C126" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>645</v>
+        <v>604</v>
       </c>
       <c r="B127" t="s">
-        <v>239</v>
+        <v>860</v>
       </c>
       <c r="C127" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>646</v>
+        <v>605</v>
       </c>
       <c r="B128" t="s">
-        <v>245</v>
+        <v>861</v>
       </c>
       <c r="C128" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B129" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C129" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B130" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C130" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B131" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C131" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>647</v>
+        <v>606</v>
       </c>
       <c r="B132" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C132" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>648</v>
+        <v>607</v>
       </c>
       <c r="B133" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C133" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>649</v>
+        <v>608</v>
       </c>
       <c r="B134" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C134" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>650</v>
+        <v>609</v>
       </c>
       <c r="B135" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C135" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B136" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C136" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B137" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C137" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B138" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C138" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B139" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C139" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B140" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C140" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B141" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C141" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B142" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C142" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B143" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C143" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B144" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C144" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>651</v>
+        <v>610</v>
       </c>
       <c r="B145" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C145" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B146" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C146" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B147" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C147" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B148" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C148" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>652</v>
+        <v>611</v>
       </c>
       <c r="B149" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C149" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B150" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C150" t="s">
-        <v>653</v>
+        <v>612</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B151" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C151" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B152" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C152" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C153" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B154" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C154" t="s">
-        <v>765</v>
+        <v>716</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B155" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C155" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B156" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C156" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B157" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C157" t="s">
-        <v>765</v>
+        <v>716</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B158" t="s">
-        <v>318</v>
+        <v>855</v>
       </c>
       <c r="C158" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B159" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C159" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C160" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C161" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B162" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C162" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B163" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C163" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B164" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C164" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B165" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C165" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B166" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C166" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B167" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="C167" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B168" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C168" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>761</v>
+        <v>712</v>
       </c>
       <c r="B169" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C169" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B170" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C170" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B171" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C171" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B172" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C172" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B173" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C173" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B174" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C174" t="s">
-        <v>760</v>
+        <v>711</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B175" t="s">
-        <v>655</v>
+        <v>614</v>
       </c>
       <c r="C175" t="s">
-        <v>760</v>
+        <v>711</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B176" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C176" t="s">
-        <v>760</v>
+        <v>711</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B177" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C177" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B178" t="s">
-        <v>656</v>
+        <v>615</v>
       </c>
       <c r="C178" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B179" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C179" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B180" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C180" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B181" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C181" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B182" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C182" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>657</v>
+        <v>616</v>
       </c>
       <c r="B183" t="s">
-        <v>387</v>
+        <v>821</v>
       </c>
       <c r="C183" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>658</v>
+        <v>617</v>
       </c>
       <c r="B184" t="s">
-        <v>345</v>
+        <v>822</v>
       </c>
       <c r="C184" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B185" t="s">
-        <v>388</v>
+        <v>823</v>
       </c>
       <c r="C185" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B186" t="s">
-        <v>659</v>
+        <v>819</v>
       </c>
       <c r="C186" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="B187" t="s">
-        <v>661</v>
+        <v>818</v>
       </c>
       <c r="C187" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B188" t="s">
-        <v>662</v>
+        <v>817</v>
       </c>
       <c r="C188" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B189" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C189" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>663</v>
+        <v>619</v>
       </c>
       <c r="B190" t="s">
-        <v>664</v>
+        <v>620</v>
       </c>
       <c r="C190" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B191" t="s">
-        <v>665</v>
+        <v>815</v>
       </c>
       <c r="C191" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B192" t="s">
-        <v>395</v>
+        <v>814</v>
       </c>
       <c r="C192" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B193" t="s">
-        <v>346</v>
+        <v>816</v>
       </c>
       <c r="C193" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="B194" t="s">
-        <v>666</v>
+        <v>621</v>
       </c>
       <c r="C194" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B195" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C195" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B196" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C196" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>668</v>
+        <v>623</v>
       </c>
       <c r="B197" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C197" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B198" t="s">
-        <v>669</v>
+        <v>624</v>
       </c>
       <c r="C198" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B199" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C199" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>670</v>
+        <v>625</v>
       </c>
       <c r="B200" t="s">
-        <v>403</v>
+        <v>812</v>
       </c>
       <c r="C200" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B201" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C201" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B202" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C202" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B203" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C203" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B204" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C204" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>671</v>
+        <v>626</v>
       </c>
       <c r="B205" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="C205" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="B206" t="s">
-        <v>672</v>
+        <v>627</v>
       </c>
       <c r="C206" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B207" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C207" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>673</v>
+        <v>628</v>
       </c>
       <c r="B208" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C208" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>674</v>
+        <v>629</v>
       </c>
       <c r="B209" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C209" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="B210" t="s">
-        <v>774</v>
+        <v>725</v>
       </c>
       <c r="C210" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="B211" t="s">
-        <v>377</v>
+        <v>813</v>
       </c>
       <c r="C211" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B212" t="s">
-        <v>675</v>
+        <v>630</v>
       </c>
       <c r="C212" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>676</v>
+        <v>631</v>
       </c>
       <c r="B213" t="s">
-        <v>677</v>
+        <v>632</v>
       </c>
       <c r="C213" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B214" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C214" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B215" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="C215" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="B216" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="C216" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B217" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="C217" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="B218" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C218" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>678</v>
+        <v>633</v>
       </c>
       <c r="B219" t="s">
-        <v>420</v>
+        <v>825</v>
       </c>
       <c r="C219" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="B220" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C220" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="B221" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C221" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="B222" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C222" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="B223" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C223" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="B224" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C224" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="B225" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C225" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="B226" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C226" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="B227" t="s">
-        <v>679</v>
+        <v>634</v>
       </c>
       <c r="C227" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="B228" t="s">
-        <v>680</v>
+        <v>635</v>
       </c>
       <c r="C228" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="B229" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C229" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="B230" t="s">
-        <v>681</v>
+        <v>636</v>
       </c>
       <c r="C230" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C231" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C232" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>682</v>
+        <v>637</v>
       </c>
       <c r="C233" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C234" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>683</v>
+        <v>638</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="C235" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>684</v>
+        <v>639</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>694</v>
+        <v>648</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>686</v>
+        <v>641</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>694</v>
+        <v>648</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>775</v>
+        <v>726</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>685</v>
+        <v>640</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>694</v>
+        <v>648</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>687</v>
+        <v>642</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>694</v>
+        <v>648</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>688</v>
+        <v>643</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C241" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="C243" t="s">
-        <v>467</v>
+        <v>811</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>689</v>
+        <v>644</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="C244" t="s">
-        <v>467</v>
+        <v>811</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="B245" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C245" t="s">
         <v>469</v>
-      </c>
-      <c r="C245" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="C246" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="C247" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>690</v>
+        <v>645</v>
       </c>
       <c r="C248" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>773</v>
+        <v>724</v>
       </c>
       <c r="C249" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>691</v>
+        <v>646</v>
       </c>
       <c r="C250" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="C251" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>491</v>
+        <v>809</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>479</v>
+        <v>810</v>
       </c>
       <c r="C252" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>492</v>
+        <v>808</v>
       </c>
       <c r="C253" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>692</v>
+        <v>807</v>
       </c>
       <c r="C254" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="C255" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>498</v>
+        <v>805</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>482</v>
+        <v>806</v>
       </c>
       <c r="C256" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="C257" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>483</v>
+        <v>804</v>
       </c>
       <c r="C258" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="C259" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="C260" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>693</v>
+        <v>647</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>694</v>
+        <v>648</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>694</v>
+        <v>648</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>490</v>
+        <v>803</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>694</v>
+        <v>648</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>695</v>
+        <v>649</v>
       </c>
       <c r="C264" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>696</v>
+        <v>650</v>
       </c>
       <c r="C265" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>506</v>
+        <v>801</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>697</v>
+        <v>802</v>
       </c>
       <c r="C266" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="C267" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>509</v>
+        <v>800</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="C268" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>510</v>
+        <v>799</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>699</v>
+        <v>652</v>
       </c>
       <c r="C269" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="C270" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="C271" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="C272" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="C273" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="C274" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
       <c r="C275" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>594</v>
+        <v>553</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>574</v>
+        <v>856</v>
       </c>
       <c r="C276" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>541</v>
+        <v>857</v>
       </c>
       <c r="C277" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="C278" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="C279" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="C280" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>592</v>
+        <v>551</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="C281" t="s">
-        <v>208</v>
+        <v>523</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="C282" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>551</v>
+        <v>854</v>
       </c>
       <c r="C283" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>553</v>
+        <v>516</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>552</v>
+        <v>515</v>
       </c>
       <c r="C284" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
       <c r="C285" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>556</v>
+        <v>798</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>573</v>
+        <v>797</v>
       </c>
       <c r="C286" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
       <c r="C287" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>590</v>
+        <v>549</v>
       </c>
       <c r="C288" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="C289" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>569</v>
+        <v>794</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="C290" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>587</v>
+        <v>546</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>564</v>
+        <v>526</v>
       </c>
       <c r="C291" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>565</v>
+        <v>527</v>
       </c>
       <c r="C292" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="C293" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>585</v>
+        <v>544</v>
       </c>
       <c r="C294" t="s">
-        <v>567</v>
+        <v>529</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="C295" t="s">
-        <v>653</v>
+        <v>612</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>599</v>
+        <v>558</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="C296" t="s">
-        <v>653</v>
+        <v>612</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>602</v>
+        <v>561</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>601</v>
+        <v>560</v>
       </c>
       <c r="C297" t="s">
-        <v>653</v>
+        <v>612</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>603</v>
+        <v>562</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="C298" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="C299" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="C300" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>609</v>
+        <v>568</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>610</v>
+        <v>569</v>
       </c>
       <c r="C301" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="C302" t="s">
-        <v>612</v>
+        <v>571</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>714</v>
+        <v>667</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="C303" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>716</v>
+        <v>669</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>717</v>
+        <v>670</v>
       </c>
       <c r="C304" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="C305" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>723</v>
+        <v>676</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>720</v>
+        <v>673</v>
       </c>
       <c r="C306" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>722</v>
+        <v>675</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="C307" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>731</v>
+        <v>684</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>724</v>
+        <v>677</v>
       </c>
       <c r="C308" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>730</v>
+        <v>683</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>729</v>
+        <v>682</v>
       </c>
       <c r="C309" t="s">
-        <v>653</v>
+        <v>612</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>726</v>
+        <v>679</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>725</v>
+        <v>678</v>
       </c>
       <c r="C310" t="s">
-        <v>653</v>
+        <v>612</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>727</v>
+        <v>680</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>728</v>
+        <v>681</v>
       </c>
       <c r="C311" t="s">
-        <v>653</v>
+        <v>612</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>741</v>
+        <v>694</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>738</v>
+        <v>691</v>
       </c>
       <c r="C312" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>739</v>
+        <v>692</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>740</v>
+        <v>693</v>
       </c>
       <c r="C313" t="s">
-        <v>742</v>
+        <v>695</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>744</v>
+        <v>697</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>743</v>
+        <v>696</v>
       </c>
       <c r="C314" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>746</v>
+        <v>699</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>747</v>
+        <v>700</v>
       </c>
       <c r="C315" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>748</v>
+        <v>701</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>745</v>
+        <v>698</v>
       </c>
       <c r="C316" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>757</v>
+        <v>708</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>751</v>
+        <v>703</v>
       </c>
       <c r="C317" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>750</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>752</v>
+        <v>826</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>827</v>
       </c>
       <c r="C318" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>756</v>
+        <v>707</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>753</v>
+        <v>704</v>
       </c>
       <c r="C319" t="s">
-        <v>763</v>
+        <v>714</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>754</v>
+        <v>705</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>755</v>
+        <v>706</v>
       </c>
       <c r="C320" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>759</v>
+        <v>710</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>758</v>
+        <v>709</v>
       </c>
       <c r="C321" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>777</v>
+        <v>727</v>
       </c>
       <c r="B322" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="C322" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>651</v>
+        <v>791</v>
       </c>
       <c r="B323" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="C323" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>782</v>
+        <v>731</v>
       </c>
       <c r="B324" t="s">
-        <v>781</v>
+        <v>730</v>
       </c>
       <c r="C324" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>783</v>
+        <v>732</v>
       </c>
       <c r="B325" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C325" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>787</v>
+        <v>735</v>
       </c>
       <c r="B326" t="s">
-        <v>786</v>
+        <v>734</v>
       </c>
       <c r="C326" t="s">
-        <v>785</v>
+        <v>733</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>789</v>
+        <v>737</v>
       </c>
       <c r="B327" t="s">
-        <v>788</v>
+        <v>736</v>
       </c>
       <c r="C327" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B328" t="s">
-        <v>790</v>
+        <v>738</v>
       </c>
       <c r="C328" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>794</v>
+        <v>741</v>
       </c>
       <c r="B329" t="s">
-        <v>795</v>
+        <v>742</v>
       </c>
       <c r="C329" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>793</v>
+        <v>740</v>
       </c>
       <c r="B330" t="s">
-        <v>792</v>
+        <v>739</v>
       </c>
       <c r="C330" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="6" t="s">
+      <c r="A331" t="s">
+        <v>788</v>
+      </c>
+      <c r="B331" t="s">
+        <v>829</v>
+      </c>
+      <c r="C331" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>747</v>
+      </c>
+      <c r="B332" t="s">
+        <v>744</v>
+      </c>
+      <c r="C332" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>759</v>
+      </c>
+      <c r="B333" t="s">
+        <v>745</v>
+      </c>
+      <c r="C333" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>748</v>
+      </c>
+      <c r="B334" t="s">
+        <v>746</v>
+      </c>
+      <c r="C334" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>786</v>
+      </c>
+      <c r="B335" t="s">
+        <v>787</v>
+      </c>
+      <c r="C335" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>756</v>
+      </c>
+      <c r="B336" t="s">
+        <v>785</v>
+      </c>
+      <c r="C336" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>757</v>
+      </c>
+      <c r="B337" t="s">
+        <v>784</v>
+      </c>
+      <c r="C337" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>758</v>
+      </c>
+      <c r="B338" t="s">
+        <v>783</v>
+      </c>
+      <c r="C338" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>755</v>
+      </c>
+      <c r="B339" t="s">
+        <v>782</v>
+      </c>
+      <c r="C339" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>780</v>
+      </c>
+      <c r="B340" t="s">
+        <v>781</v>
+      </c>
+      <c r="C340" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>779</v>
+      </c>
+      <c r="B341" t="s">
+        <v>778</v>
+      </c>
+      <c r="C341" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>750</v>
+      </c>
+      <c r="B342" t="s">
+        <v>777</v>
+      </c>
+      <c r="C342" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>749</v>
+      </c>
+      <c r="B343" t="s">
+        <v>776</v>
+      </c>
+      <c r="C343" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>754</v>
+      </c>
+      <c r="B344" t="s">
+        <v>775</v>
+      </c>
+      <c r="C344" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>753</v>
+      </c>
+      <c r="B345" t="s">
+        <v>828</v>
+      </c>
+      <c r="C345" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>752</v>
+      </c>
+      <c r="B346" t="s">
+        <v>751</v>
+      </c>
+      <c r="C346" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>795</v>
+      </c>
+      <c r="B347" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="B331" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="B332" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="C333" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="B334" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="C335" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="C337" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="C338" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="B340" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="C341" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="B342" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>208</v>
+      <c r="C347" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>831</v>
+      </c>
+      <c r="B348" t="s">
+        <v>830</v>
+      </c>
+      <c r="C348" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6851,8 +6964,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6865,198 +6978,198 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="D2" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="D3" t="s">
-        <v>449</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="D4" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>521</v>
+        <v>864</v>
       </c>
       <c r="D5" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>523</v>
+        <v>868</v>
       </c>
       <c r="D6" t="s">
-        <v>450</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>522</v>
+        <v>865</v>
       </c>
       <c r="D7" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="D8" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="D9" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="D10" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>533</v>
+        <v>866</v>
       </c>
       <c r="D11" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
       <c r="D13" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="D14" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -7067,10 +7180,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C83437-EC7D-4984-803E-8CC8AEE3BE11}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7081,199 +7194,299 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>614</v>
+        <v>573</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>615</v>
+        <v>574</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>622</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>616</v>
+        <v>575</v>
       </c>
       <c r="B2" t="s">
-        <v>617</v>
+        <v>576</v>
       </c>
       <c r="C2" t="s">
-        <v>623</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>618</v>
+        <v>577</v>
       </c>
       <c r="B3" t="s">
-        <v>619</v>
+        <v>578</v>
       </c>
       <c r="C3" t="s">
-        <v>623</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>620</v>
+        <v>579</v>
       </c>
       <c r="B4" t="s">
-        <v>621</v>
+        <v>580</v>
       </c>
       <c r="C4" t="s">
-        <v>623</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>627</v>
+        <v>586</v>
       </c>
       <c r="B5" t="s">
-        <v>628</v>
+        <v>587</v>
       </c>
       <c r="C5" t="s">
-        <v>624</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>632</v>
+        <v>591</v>
       </c>
       <c r="B6" t="s">
-        <v>638</v>
+        <v>597</v>
       </c>
       <c r="C6" t="s">
-        <v>623</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>633</v>
+        <v>592</v>
       </c>
       <c r="B7" t="s">
-        <v>625</v>
+        <v>584</v>
       </c>
       <c r="C7" t="s">
-        <v>624</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>634</v>
+        <v>593</v>
       </c>
       <c r="B8" t="s">
-        <v>635</v>
+        <v>594</v>
       </c>
       <c r="C8" t="s">
-        <v>626</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>636</v>
+        <v>595</v>
       </c>
       <c r="B9" t="s">
-        <v>639</v>
+        <v>598</v>
       </c>
       <c r="C9" t="s">
-        <v>629</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>631</v>
+        <v>590</v>
       </c>
       <c r="B10" t="s">
-        <v>637</v>
+        <v>596</v>
       </c>
       <c r="C10" t="s">
-        <v>630</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>631</v>
+        <v>590</v>
       </c>
       <c r="B11" t="s">
-        <v>637</v>
+        <v>596</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>631</v>
+        <v>590</v>
       </c>
       <c r="B12" t="s">
-        <v>637</v>
+        <v>596</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>829</v>
-      </c>
-      <c r="B13" t="s">
-        <v>830</v>
-      </c>
-      <c r="C13" t="s">
-        <v>831</v>
+      <c r="A13" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="C14" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>836</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C23" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B24" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="C17" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C24" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="C18" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>842</v>
-      </c>
-      <c r="C19" t="s">
-        <v>843</v>
+      <c r="C25" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -7286,7 +7499,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7297,138 +7510,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
       <c r="B4" t="s">
-        <v>583</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>704</v>
+        <v>657</v>
       </c>
       <c r="B5" t="s">
-        <v>702</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>703</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
-        <v>705</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>706</v>
+        <v>659</v>
       </c>
       <c r="B7" t="s">
-        <v>707</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>708</v>
+        <v>661</v>
       </c>
       <c r="B8" t="s">
-        <v>709</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>711</v>
+        <v>664</v>
       </c>
       <c r="B9" t="s">
-        <v>710</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>713</v>
+        <v>666</v>
       </c>
       <c r="B10" t="s">
-        <v>712</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>733</v>
+        <v>686</v>
       </c>
       <c r="B11" t="s">
-        <v>732</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>735</v>
+        <v>688</v>
       </c>
       <c r="B12" t="s">
-        <v>734</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>737</v>
+        <v>690</v>
       </c>
       <c r="B13" t="s">
-        <v>736</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>771</v>
+        <v>722</v>
       </c>
       <c r="B14" t="s">
-        <v>766</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="B15" t="s">
-        <v>768</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>769</v>
+        <v>720</v>
       </c>
       <c r="B16" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>778</v>
+        <v>728</v>
       </c>
       <c r="B17" t="s">
-        <v>779</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19FA347-0570-4BA8-9E1D-2F075F00B2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D50948-84F4-476C-9E0D-7B796D24EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
   <sheets>
     <sheet name="warm" sheetId="2" r:id="rId1"/>
     <sheet name="reportedsp" sheetId="5" r:id="rId2"/>
     <sheet name="question" sheetId="7" r:id="rId3"/>
     <sheet name="pictures" sheetId="8" r:id="rId4"/>
+    <sheet name="questiontags" sheetId="9" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$347:$C$347</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$348</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$416</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="1050">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -320,9 +322,6 @@
     <t>I realized who he was after i had spoken to him for 3 minutes</t>
   </si>
   <si>
-    <t>Antes equiaba, cogiamos el coche  e ibamos a francia</t>
-  </si>
-  <si>
     <t>que hace el cuando eso ocurre?</t>
   </si>
   <si>
@@ -680,9 +679,6 @@
     <t>shall</t>
   </si>
   <si>
-    <t>much less/ni mucho menos</t>
-  </si>
-  <si>
     <t>I wish/ ojala</t>
   </si>
   <si>
@@ -713,9 +709,6 @@
     <t>siempre que/ as long as</t>
   </si>
   <si>
-    <t>al/upon</t>
-  </si>
-  <si>
     <t>Nunca me hab'ia dado cuenta de lo plana que era la zona</t>
   </si>
   <si>
@@ -1640,9 +1633,6 @@
     <t>I got to the meeting before they did</t>
   </si>
   <si>
-    <t>get/ tener la opurtinidad</t>
-  </si>
-  <si>
     <t>Llegué a la reunión antes que ellos</t>
   </si>
   <si>
@@ -2255,9 +2245,6 @@
     <t>a diferencia de/unlike</t>
   </si>
   <si>
-    <t>my borther hates fish, unlike my brother I like eating fish</t>
-  </si>
-  <si>
     <t>Mi hermano odia el pescado, a diferencia de mi hermano me gusta comer pescado</t>
   </si>
   <si>
@@ -2300,9 +2287,6 @@
     <t>Casi siempre tengo razón</t>
   </si>
   <si>
-    <t>voy en camino</t>
-  </si>
-  <si>
     <t>quita de en medio</t>
   </si>
   <si>
@@ -2661,6 +2645,564 @@
   </si>
   <si>
     <t>Anna said that she had seen it from the air, but she had never driven through it.</t>
+  </si>
+  <si>
+    <t>Mary made us sit down and be quiet</t>
+  </si>
+  <si>
+    <t>The audience made him repeat the last piece</t>
+  </si>
+  <si>
+    <t>El público le hizo repetira la última pieza</t>
+  </si>
+  <si>
+    <t>You're in the way</t>
+  </si>
+  <si>
+    <t>Estas en medio</t>
+  </si>
+  <si>
+    <t>estoy en camino</t>
+  </si>
+  <si>
+    <t>My casa está está de camino</t>
+  </si>
+  <si>
+    <t>My house is on the way</t>
+  </si>
+  <si>
+    <t>Alicante is on the way to valencia</t>
+  </si>
+  <si>
+    <t>La eurocopa está en marcha</t>
+  </si>
+  <si>
+    <t>The eurocup is underway</t>
+  </si>
+  <si>
+    <t>Alicante está camino de valencia</t>
+  </si>
+  <si>
+    <t>The construction is underway</t>
+  </si>
+  <si>
+    <t>You can get your own way this time</t>
+  </si>
+  <si>
+    <t>The project is underway, but we are getting behind</t>
+  </si>
+  <si>
+    <t>el proyecto está en marcha pero vamos retrasados</t>
+  </si>
+  <si>
+    <t>Te puedes salir con la tuya esta vez</t>
+  </si>
+  <si>
+    <t>Antes equiaba, cogiamos el coche e ibamos a francia</t>
+  </si>
+  <si>
+    <t>Yo no entendía al taxista</t>
+  </si>
+  <si>
+    <t>I didn't understand the taxi driver</t>
+  </si>
+  <si>
+    <t>Se rompe cada vez que lo abro</t>
+  </si>
+  <si>
+    <t>It brakes everytime I open it</t>
+  </si>
+  <si>
+    <t>La construcción está en marcha</t>
+  </si>
+  <si>
+    <t>Can you give me an idea of the cost</t>
+  </si>
+  <si>
+    <t>Me puedes dar una idea del coste</t>
+  </si>
+  <si>
+    <t>Va a costar mucho mas esta vez</t>
+  </si>
+  <si>
+    <t>It's going to cost a lot more this time</t>
+  </si>
+  <si>
+    <t>questiontag</t>
+  </si>
+  <si>
+    <t>La mayoría de las ciudades tiene un sitema similar</t>
+  </si>
+  <si>
+    <t>Most cities have a simmilar system</t>
+  </si>
+  <si>
+    <t>You make me laugh</t>
+  </si>
+  <si>
+    <t>me haces reir</t>
+  </si>
+  <si>
+    <t>Don't make me do it</t>
+  </si>
+  <si>
+    <t>No me hagas hacerlo</t>
+  </si>
+  <si>
+    <t>Me hicieron dar un discurso</t>
+  </si>
+  <si>
+    <t>They made me give a speech</t>
+  </si>
+  <si>
+    <t>ni mucho menos/much less</t>
+  </si>
+  <si>
+    <t>al hacer algo../upon</t>
+  </si>
+  <si>
+    <t>quiero que lo hagas/quieres que lo haga/You want me to do it</t>
+  </si>
+  <si>
+    <t>Me haces+ verbo/You make me +verb</t>
+  </si>
+  <si>
+    <t>Le hice pedir perdón</t>
+  </si>
+  <si>
+    <t>I meade him apologize</t>
+  </si>
+  <si>
+    <t>Sus profesores le hicieron hacer el examen de nuevo</t>
+  </si>
+  <si>
+    <t>His teachers made him do the exam again</t>
+  </si>
+  <si>
+    <t>Que te llevó a hacerlo?</t>
+  </si>
+  <si>
+    <t>What made you do it?</t>
+  </si>
+  <si>
+    <t>les voy a hacer sudar</t>
+  </si>
+  <si>
+    <t>I'm going to make them swet</t>
+  </si>
+  <si>
+    <t>Te hace pensar</t>
+  </si>
+  <si>
+    <t>It makes you think</t>
+  </si>
+  <si>
+    <t>Doesn't it?</t>
+  </si>
+  <si>
+    <t>English is important</t>
+  </si>
+  <si>
+    <t>Isn't it?</t>
+  </si>
+  <si>
+    <t>He lives in China</t>
+  </si>
+  <si>
+    <t>Doesn't he?</t>
+  </si>
+  <si>
+    <t>Do they?</t>
+  </si>
+  <si>
+    <t>They don't speak Japanese</t>
+  </si>
+  <si>
+    <t>He likes red wine</t>
+  </si>
+  <si>
+    <t>They know your name</t>
+  </si>
+  <si>
+    <t>Don't they?</t>
+  </si>
+  <si>
+    <t>It's hot today</t>
+  </si>
+  <si>
+    <t>She's beautiful</t>
+  </si>
+  <si>
+    <t>isn't she?</t>
+  </si>
+  <si>
+    <t>There's a new movie</t>
+  </si>
+  <si>
+    <t>Isn't there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he doesn't know her </t>
+  </si>
+  <si>
+    <t>Does He?</t>
+  </si>
+  <si>
+    <t>We have a new version</t>
+  </si>
+  <si>
+    <t>Don't we?</t>
+  </si>
+  <si>
+    <t>We wont be ther tomorrow</t>
+  </si>
+  <si>
+    <t>Will be?</t>
+  </si>
+  <si>
+    <t>He's strong</t>
+  </si>
+  <si>
+    <t>Isn't he?</t>
+  </si>
+  <si>
+    <t>Mary nos hizo sentar y callarnos</t>
+  </si>
+  <si>
+    <t>nos apañaremos</t>
+  </si>
+  <si>
+    <t>we'll get by</t>
+  </si>
+  <si>
+    <t>get/ tener la oportinidad</t>
+  </si>
+  <si>
+    <t>Que desea tomar?</t>
+  </si>
+  <si>
+    <t>What would you like to have?</t>
+  </si>
+  <si>
+    <t>Quiero un filete con patatas</t>
+  </si>
+  <si>
+    <t>Como quiere su filete?</t>
+  </si>
+  <si>
+    <t>I want a steake and potatos</t>
+  </si>
+  <si>
+    <t>quiere patatas fritas o una patata asada?</t>
+  </si>
+  <si>
+    <t>How would you like your steak?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would you want french fries or a big potato? </t>
+  </si>
+  <si>
+    <t>Could you bring me the bill please?</t>
+  </si>
+  <si>
+    <t>Me podría traer la cuenta por favor?</t>
+  </si>
+  <si>
+    <t>Nos ha cobrado algo que no pedimos</t>
+  </si>
+  <si>
+    <t>You charged us for something we didn't order</t>
+  </si>
+  <si>
+    <t>Una factura mensual</t>
+  </si>
+  <si>
+    <t>A monthly invoice</t>
+  </si>
+  <si>
+    <t>Will you pay in cash or by card?</t>
+  </si>
+  <si>
+    <t>Pagará en metálico o con tarjeta?</t>
+  </si>
+  <si>
+    <t>Su tarjeta ha caducado</t>
+  </si>
+  <si>
+    <t>Your card is expired</t>
+  </si>
+  <si>
+    <t>no aceptamos talones</t>
+  </si>
+  <si>
+    <t>We don't accept cheqs</t>
+  </si>
+  <si>
+    <t>I'll be back in 20 minutes</t>
+  </si>
+  <si>
+    <t>vuelvo en 20 minutos</t>
+  </si>
+  <si>
+    <t>manten las dos manos en el volante</t>
+  </si>
+  <si>
+    <t>Keep both hands on the stirring wheel</t>
+  </si>
+  <si>
+    <t>He estado en roma</t>
+  </si>
+  <si>
+    <t>I've been to Rome</t>
+  </si>
+  <si>
+    <t>He estado en Canada pero no en Colombia</t>
+  </si>
+  <si>
+    <t>I've been to Canada but I haven't been to Colombia</t>
+  </si>
+  <si>
+    <t>He's gone to de bank</t>
+  </si>
+  <si>
+    <t>Se ha ido al banco</t>
+  </si>
+  <si>
+    <t>What does your brother look like?</t>
+  </si>
+  <si>
+    <t>Como es tu hermano fisicamente?</t>
+  </si>
+  <si>
+    <t>Como es tu hermano personalmente?</t>
+  </si>
+  <si>
+    <t>What is your brother like?</t>
+  </si>
+  <si>
+    <t>Como está tu hermano?</t>
+  </si>
+  <si>
+    <t>How is your brother?</t>
+  </si>
+  <si>
+    <t>tu hermano parece cansado</t>
+  </si>
+  <si>
+    <t>Your brother look tired</t>
+  </si>
+  <si>
+    <t>lo harán siempre que les respaldes</t>
+  </si>
+  <si>
+    <t>They'll do it as long as you back them up/support</t>
+  </si>
+  <si>
+    <t>Como regla general no fumo en clase</t>
+  </si>
+  <si>
+    <t>As a general rule I don't smoke in class</t>
+  </si>
+  <si>
+    <t>Que yo sepa no han hecho nada todavía</t>
+  </si>
+  <si>
+    <t>As far as I know they haven't done anything yet</t>
+  </si>
+  <si>
+    <t>As far as I'm concerned, they can do what ever they want</t>
+  </si>
+  <si>
+    <t>En cuanto a mi pueden hacer lo que quieran</t>
+  </si>
+  <si>
+    <t>ya he hablado con el detenidamente sobre el asunto</t>
+  </si>
+  <si>
+    <t>I've already spoken to him at lenth about the subject</t>
+  </si>
+  <si>
+    <t>En el nejor de los casos recibiremos un tercer premio</t>
+  </si>
+  <si>
+    <t>At best we'll receive the third price/ in a best case scenario</t>
+  </si>
+  <si>
+    <t>Juan es con mucha diferencia el mejor de la clase</t>
+  </si>
+  <si>
+    <t>Con mucha diferencia/de sobra/by far</t>
+  </si>
+  <si>
+    <t>John is by far the best of the class</t>
+  </si>
+  <si>
+    <t>El coste de la vida es muy alto aquí</t>
+  </si>
+  <si>
+    <t>The cost of living is very high here</t>
+  </si>
+  <si>
+    <t>el coste de la vida es problema importante</t>
+  </si>
+  <si>
+    <t>Que yo sepa/as far as know</t>
+  </si>
+  <si>
+    <t>En cuanto a mi/ en lo que a mi respecta/as far as I'm concerned</t>
+  </si>
+  <si>
+    <t>En el mejor de los casos/ at best</t>
+  </si>
+  <si>
+    <t>En cuanto a ese tema no tengo nada mas que decir</t>
+  </si>
+  <si>
+    <t>How long are you going to wait?</t>
+  </si>
+  <si>
+    <t>unos minutos mas</t>
+  </si>
+  <si>
+    <t>A few more minutes</t>
+  </si>
+  <si>
+    <t>Cuanto tiempo cas a esperar</t>
+  </si>
+  <si>
+    <t>and then what will you do?</t>
+  </si>
+  <si>
+    <t>Ther have been some changes lately?</t>
+  </si>
+  <si>
+    <t>Ha habido algunos cambios ultimamente?</t>
+  </si>
+  <si>
+    <t>y despúes que harás</t>
+  </si>
+  <si>
+    <t>todo el mundo será informado mañana</t>
+  </si>
+  <si>
+    <t>Everyone will be informed tomorrow</t>
+  </si>
+  <si>
+    <t>estas buscando un reto?</t>
+  </si>
+  <si>
+    <t>Are you looking for a chalenge?</t>
+  </si>
+  <si>
+    <t>antes había menos turistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There used to be fewer tourists </t>
+  </si>
+  <si>
+    <t>antes había/there used to be</t>
+  </si>
+  <si>
+    <t>There have been very few good movies in the cinema lately</t>
+  </si>
+  <si>
+    <t>Ha habido muy pocas peliculas buenas en el cine ultimamente</t>
+  </si>
+  <si>
+    <t>There have been more problems lately</t>
+  </si>
+  <si>
+    <t>there has been a lot of corruption over the last ten year</t>
+  </si>
+  <si>
+    <t>ha habido/ there's been /there have been</t>
+  </si>
+  <si>
+    <t>me está moletando</t>
+  </si>
+  <si>
+    <t>Sh'es ironing ashort</t>
+  </si>
+  <si>
+    <t>he's lighting a cigarette</t>
+  </si>
+  <si>
+    <t>Hes tying a knot</t>
+  </si>
+  <si>
+    <t>he's blessing the cup</t>
+  </si>
+  <si>
+    <t>he's screwing an screw wtith a screw driver</t>
+  </si>
+  <si>
+    <t>he's removing the screw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She's tearing </t>
+  </si>
+  <si>
+    <t>Hes wirting down the license palte</t>
+  </si>
+  <si>
+    <t>She is liking the stamp</t>
+  </si>
+  <si>
+    <t>hes tearing out the paper</t>
+  </si>
+  <si>
+    <t>filling down the ticke</t>
+  </si>
+  <si>
+    <t>he's pushing the car off the clif</t>
+  </si>
+  <si>
+    <t>Ha habido mas problemas ultimamente</t>
+  </si>
+  <si>
+    <t>Ha habido mucha corrupción el los ultimos 10 años</t>
+  </si>
+  <si>
+    <t>Dormi durante una hora y media</t>
+  </si>
+  <si>
+    <t>I slept for an hour an a half</t>
+  </si>
+  <si>
+    <t>he's bothering me</t>
+  </si>
+  <si>
+    <t>concerning that subjet I've nothing else to say</t>
+  </si>
+  <si>
+    <t>May be, he's had an accident</t>
+  </si>
+  <si>
+    <t>A lo mejor ha tenido un accidente</t>
+  </si>
+  <si>
+    <t>Cost of living is an important issue</t>
+  </si>
+  <si>
+    <t>Tiene sentido?</t>
+  </si>
+  <si>
+    <t>Does it make sense?</t>
+  </si>
+  <si>
+    <t>El nivel de vida de mi pais es muy alto</t>
+  </si>
+  <si>
+    <t>The estándar of living in my country is very hight</t>
+  </si>
+  <si>
+    <t>I'll give a call tomorrow morning</t>
+  </si>
+  <si>
+    <t>te daré un toque mañana por la mañana</t>
+  </si>
+  <si>
+    <t>my brother hates fish, unlike my brother I like eating fish</t>
   </si>
 </sst>
 </file>
@@ -2747,7 +3289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2756,6 +3298,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2783,6 +3326,143 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>448376</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EAEA8AD-F5F5-082D-BFFC-FB0EED9B85C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="381000"/>
+          <a:ext cx="5020376" cy="1648055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600691</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0E44E7-FA2D-DC54-56A7-CA39B6EBD731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="2286000"/>
+          <a:ext cx="4410691" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600691</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2BC08D-92B5-062C-1B1B-43C231DFE3EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="4000500"/>
+          <a:ext cx="4410691" cy="1162212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{A2F5D9EB-42F5-48B8-A6C9-2E60347BD48F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5" unboundColumnsRight="1">
@@ -2799,7 +3479,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C348" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C416" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C416" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8C2285AF-8150-4289-9017-075B5346F689}" uniqueName="1" name="esp" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{6D572D7D-E01D-4336-BDAB-AC33E47035D7}" uniqueName="2" name="eng" queryTableFieldId="2" dataDxfId="1"/>
@@ -3109,28 +3790,28 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C348"/>
+  <dimension ref="A1:C416"/>
   <sheetViews>
-    <sheetView topLeftCell="A318" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.140625" customWidth="1"/>
-    <col min="2" max="2" width="72" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
-      </c>
-      <c r="B1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3141,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3152,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3163,7 +3844,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3174,7 +3855,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3185,7 +3866,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3196,7 +3877,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3207,7 +3888,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3218,7 +3899,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3229,7 +3910,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3240,7 +3921,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3251,7 +3932,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3262,7 +3943,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3273,7 +3954,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3284,7 +3965,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3295,7 +3976,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3306,18 +3987,18 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3328,7 +4009,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3339,7 +4020,7 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3350,18 +4031,18 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3372,7 +4053,7 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3383,7 +4064,7 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3394,7 +4075,7 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3405,18 +4086,18 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3424,21 +4105,21 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3449,7 +4130,7 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3460,18 +4141,18 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3482,18 +4163,18 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B34" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C34" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3504,7 +4185,7 @@
         <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3515,7 +4196,7 @@
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3523,10 +4204,10 @@
         <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3537,7 +4218,7 @@
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3548,7 +4229,7 @@
         <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3559,7 +4240,7 @@
         <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3570,7 +4251,7 @@
         <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3581,7 +4262,7 @@
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3592,7 +4273,7 @@
         <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3603,18 +4284,18 @@
         <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3622,21 +4303,21 @@
         <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C46" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C47" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3647,7 +4328,7 @@
         <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3658,7 +4339,7 @@
         <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,7 +4350,7 @@
         <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3680,7 +4361,7 @@
         <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,7 +4372,7 @@
         <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3702,7 +4383,7 @@
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3710,10 +4391,10 @@
         <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3721,10 +4402,10 @@
         <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3735,3219 +4416,3967 @@
         <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>881</v>
       </c>
       <c r="B57" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C57" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B58" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C58" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" t="s">
         <v>90</v>
       </c>
-      <c r="B59" t="s">
-        <v>91</v>
-      </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
         <v>92</v>
       </c>
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
         <v>94</v>
       </c>
-      <c r="B61" t="s">
-        <v>95</v>
-      </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s">
         <v>96</v>
       </c>
-      <c r="B62" t="s">
-        <v>97</v>
-      </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
         <v>98</v>
       </c>
-      <c r="B63" t="s">
-        <v>99</v>
-      </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" t="s">
         <v>100</v>
       </c>
-      <c r="B64" t="s">
-        <v>101</v>
-      </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" t="s">
         <v>102</v>
       </c>
-      <c r="B65" t="s">
-        <v>103</v>
-      </c>
       <c r="C65" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" t="s">
         <v>104</v>
       </c>
-      <c r="B66" t="s">
-        <v>105</v>
-      </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" t="s">
         <v>106</v>
       </c>
-      <c r="B67" t="s">
-        <v>107</v>
-      </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" t="s">
         <v>108</v>
       </c>
-      <c r="B68" t="s">
-        <v>109</v>
-      </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" t="s">
         <v>110</v>
       </c>
-      <c r="B69" t="s">
-        <v>111</v>
-      </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" t="s">
         <v>112</v>
       </c>
-      <c r="B70" t="s">
-        <v>113</v>
-      </c>
       <c r="C70" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" t="s">
         <v>116</v>
       </c>
-      <c r="B73" t="s">
-        <v>117</v>
-      </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" t="s">
         <v>118</v>
       </c>
-      <c r="B74" t="s">
-        <v>119</v>
-      </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" t="s">
         <v>120</v>
       </c>
-      <c r="B75" t="s">
-        <v>121</v>
-      </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" t="s">
         <v>122</v>
       </c>
-      <c r="B76" t="s">
-        <v>123</v>
-      </c>
       <c r="C76" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" t="s">
         <v>124</v>
       </c>
-      <c r="B77" t="s">
-        <v>125</v>
-      </c>
       <c r="C77" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" t="s">
         <v>126</v>
       </c>
-      <c r="B78" t="s">
-        <v>127</v>
-      </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
         <v>128</v>
       </c>
-      <c r="B79" t="s">
-        <v>129</v>
-      </c>
       <c r="C79" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" t="s">
         <v>130</v>
       </c>
-      <c r="B80" t="s">
-        <v>131</v>
-      </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
         <v>134</v>
       </c>
-      <c r="B83" t="s">
-        <v>135</v>
-      </c>
       <c r="C83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" t="s">
         <v>136</v>
       </c>
-      <c r="B84" t="s">
-        <v>137</v>
-      </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" t="s">
         <v>138</v>
       </c>
-      <c r="B85" t="s">
-        <v>139</v>
-      </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" t="s">
         <v>141</v>
       </c>
-      <c r="B87" t="s">
-        <v>142</v>
-      </c>
       <c r="C87" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" t="s">
         <v>143</v>
       </c>
-      <c r="B88" t="s">
-        <v>144</v>
-      </c>
       <c r="C88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" t="s">
         <v>145</v>
       </c>
-      <c r="B89" t="s">
-        <v>146</v>
-      </c>
       <c r="C89" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" t="s">
         <v>147</v>
       </c>
-      <c r="B90" t="s">
-        <v>148</v>
-      </c>
       <c r="C90" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" t="s">
         <v>149</v>
       </c>
-      <c r="B91" t="s">
-        <v>150</v>
-      </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" t="s">
         <v>151</v>
       </c>
-      <c r="B92" t="s">
-        <v>152</v>
-      </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" t="s">
         <v>153</v>
       </c>
-      <c r="B93" t="s">
-        <v>154</v>
-      </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" t="s">
         <v>155</v>
       </c>
-      <c r="B94" t="s">
-        <v>156</v>
-      </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" t="s">
         <v>157</v>
       </c>
-      <c r="B95" t="s">
-        <v>158</v>
-      </c>
       <c r="C95" t="s">
-        <v>220</v>
+        <v>901</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" t="s">
         <v>159</v>
       </c>
-      <c r="B96" t="s">
-        <v>160</v>
-      </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" t="s">
         <v>161</v>
       </c>
-      <c r="B97" t="s">
-        <v>162</v>
-      </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" t="s">
         <v>163</v>
       </c>
-      <c r="B98" t="s">
-        <v>164</v>
-      </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>164</v>
+      </c>
+      <c r="B99" t="s">
         <v>165</v>
       </c>
-      <c r="B99" t="s">
-        <v>166</v>
-      </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" t="s">
         <v>167</v>
       </c>
-      <c r="B100" t="s">
-        <v>168</v>
-      </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" t="s">
         <v>169</v>
       </c>
-      <c r="B101" t="s">
-        <v>170</v>
-      </c>
       <c r="C101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>170</v>
+      </c>
+      <c r="B102" t="s">
         <v>171</v>
       </c>
-      <c r="B102" t="s">
-        <v>172</v>
-      </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" t="s">
         <v>173</v>
       </c>
-      <c r="B103" t="s">
-        <v>174</v>
-      </c>
       <c r="C103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>174</v>
+      </c>
+      <c r="B104" t="s">
         <v>175</v>
       </c>
-      <c r="B104" t="s">
-        <v>176</v>
-      </c>
       <c r="C104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" t="s">
         <v>177</v>
       </c>
-      <c r="B105" t="s">
-        <v>178</v>
-      </c>
       <c r="C105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" t="s">
         <v>179</v>
       </c>
-      <c r="B106" t="s">
-        <v>180</v>
-      </c>
       <c r="C106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" t="s">
         <v>181</v>
       </c>
-      <c r="B107" t="s">
-        <v>182</v>
-      </c>
       <c r="C107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" t="s">
         <v>183</v>
       </c>
-      <c r="B108" t="s">
-        <v>184</v>
-      </c>
       <c r="C108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>184</v>
+      </c>
+      <c r="B109" t="s">
         <v>185</v>
       </c>
-      <c r="B109" t="s">
-        <v>186</v>
-      </c>
       <c r="C109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" t="s">
         <v>187</v>
       </c>
-      <c r="B110" t="s">
-        <v>188</v>
-      </c>
       <c r="C110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>188</v>
+      </c>
+      <c r="B111" t="s">
         <v>189</v>
       </c>
-      <c r="B111" t="s">
-        <v>190</v>
-      </c>
       <c r="C111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B114" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>193</v>
+      </c>
+      <c r="B115" t="s">
         <v>194</v>
       </c>
-      <c r="B115" t="s">
-        <v>195</v>
-      </c>
       <c r="C115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B116" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B117" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>196</v>
+      </c>
+      <c r="B118" t="s">
         <v>197</v>
       </c>
-      <c r="B118" t="s">
-        <v>198</v>
-      </c>
       <c r="C118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>198</v>
+      </c>
+      <c r="B119" t="s">
         <v>199</v>
       </c>
-      <c r="B119" t="s">
-        <v>200</v>
-      </c>
       <c r="C119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B120" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B121" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B122" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>223</v>
+      </c>
+      <c r="B123" t="s">
         <v>226</v>
       </c>
-      <c r="B123" t="s">
-        <v>229</v>
-      </c>
       <c r="C123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B126" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C126" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B127" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C127" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B128" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C128" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B129" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B130" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C130" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B131" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C131" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B132" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C132" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B133" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C133" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C134" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B135" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C135" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B137" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C138" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C139" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C140" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B141" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C141" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B142" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C142" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B143" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C143" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B144" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C144" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C145" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C146" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B147" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B148" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C148" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B149" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C149" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C150" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B151" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C151" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B152" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C152" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C153" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C154" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C155" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B156" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C156" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C157" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B158" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="C158" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B159" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C160" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" t="s">
         <v>320</v>
       </c>
-      <c r="B162" t="s">
-        <v>323</v>
-      </c>
       <c r="C162" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B163" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C163" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C164" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B165" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C165" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B166" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C166" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B167" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C167" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C168" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B169" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C169" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B170" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C170" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C171" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C172" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B173" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C173" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B174" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C174" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B175" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C175" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C176" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B177" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C177" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B178" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C178" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B179" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C179" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B180" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C180" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B181" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C181" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B182" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C182" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B183" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C183" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B184" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C184" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B185" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C185" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B186" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C186" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B187" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C187" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B188" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C188" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B189" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C189" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B190" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C190" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B191" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C191" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B192" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C192" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B193" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C193" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B194" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C194" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B195" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C195" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B196" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C196" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B197" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C197" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B198" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C198" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B199" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C199" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B200" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C200" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B201" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C201" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B202" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C202" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B203" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C203" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B204" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C204" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B205" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C205" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B206" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C206" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B207" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C207" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B208" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C208" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B209" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C209" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B210" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C210" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B211" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C211" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B212" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B213" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C213" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>380</v>
+      </c>
+      <c r="B214" t="s">
         <v>383</v>
       </c>
-      <c r="B214" t="s">
-        <v>386</v>
-      </c>
       <c r="C214" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B215" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C215" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B216" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C216" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B217" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C217" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B218" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C218" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B219" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C219" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B220" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C220" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B221" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C221" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B222" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B223" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C223" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B224" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C224" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B225" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C225" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B226" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C226" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B227" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C227" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B228" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C228" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B229" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C229" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B230" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C230" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C231" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C232" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C233" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C234" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C235" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C241" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C243" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C244" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C245" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C246" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C247" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C248" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C249" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C250" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>451</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C251" t="s">
         <v>454</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C251" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C252" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C253" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C254" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C255" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C256" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C257" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C258" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C259" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C260" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C264" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C265" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C266" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C267" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C268" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C269" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C270" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C271" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C272" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C273" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C274" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C275" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C276" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C277" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C278" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C279" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C280" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C281" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C282" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C283" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C284" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>515</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C285" t="s">
         <v>518</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C285" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C286" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C287" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C288" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C289" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C290" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C291" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C292" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C293" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C294" t="s">
-        <v>529</v>
+        <v>940</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C295" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C296" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C297" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C298" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C299" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C300" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>564</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C301" t="s">
         <v>568</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C301" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C302" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C303" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C304" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C305" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C306" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C307" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C308" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C309" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C310" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C311" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C312" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C313" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C314" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C315" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B316" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C316" t="s">
         <v>698</v>
-      </c>
-      <c r="C316" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C317" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C318" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C319" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C320" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C321" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B322" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C322" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B323" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C323" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B324" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C324" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B325" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C325" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B326" t="s">
-        <v>734</v>
+        <v>1049</v>
       </c>
       <c r="C326" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B327" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C327" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B328" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C328" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B329" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C329" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B330" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C330" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B331" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C331" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B332" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C332" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B333" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C333" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B334" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C334" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B335" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C335" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B336" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C336" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B337" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C337" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B338" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C338" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B339" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C339" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B340" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C340" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B341" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C341" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B342" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C342" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>749</v>
+        <v>869</v>
       </c>
       <c r="B343" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C343" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B344" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C344" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B345" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C345" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B346" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C346" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C347" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B348" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C348" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>937</v>
+      </c>
+      <c r="B349" t="s">
+        <v>864</v>
+      </c>
+      <c r="C349" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>866</v>
+      </c>
+      <c r="B350" t="s">
+        <v>865</v>
+      </c>
+      <c r="C350" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>868</v>
+      </c>
+      <c r="B351" t="s">
+        <v>867</v>
+      </c>
+      <c r="C351" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>870</v>
+      </c>
+      <c r="B352" t="s">
+        <v>871</v>
+      </c>
+      <c r="C352" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>875</v>
+      </c>
+      <c r="B353" t="s">
+        <v>872</v>
+      </c>
+      <c r="C353" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>873</v>
+      </c>
+      <c r="B354" t="s">
+        <v>874</v>
+      </c>
+      <c r="C354" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>886</v>
+      </c>
+      <c r="B355" t="s">
+        <v>876</v>
+      </c>
+      <c r="C355" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>880</v>
+      </c>
+      <c r="B356" t="s">
+        <v>877</v>
+      </c>
+      <c r="C356" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>879</v>
+      </c>
+      <c r="B357" t="s">
+        <v>878</v>
+      </c>
+      <c r="C357" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="C371" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>991</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B410" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B416" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6964,7 +8393,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -6978,198 +8407,198 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D3" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D6" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="D7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D8" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -7182,7 +8611,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -7194,299 +8623,299 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" t="s">
         <v>578</v>
-      </c>
-      <c r="C3" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B4" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C8" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B9" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C9" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B10" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C10" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B11" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B12" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -7510,142 +8939,388 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B8" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B9" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B10" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B11" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B12" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B13" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B14" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B15" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B16" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B17" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB39071-8DA3-452E-AE5A-693AF3A46CA8}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>920</v>
+      </c>
+      <c r="B5" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>921</v>
+      </c>
+      <c r="B6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>922</v>
+      </c>
+      <c r="B7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>925</v>
+      </c>
+      <c r="B9" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>927</v>
+      </c>
+      <c r="B10" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>929</v>
+      </c>
+      <c r="B11" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>931</v>
+      </c>
+      <c r="B12" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>933</v>
+      </c>
+      <c r="B13" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>935</v>
+      </c>
+      <c r="B14" t="s">
+        <v>936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD4E3BE-CB0A-4229-93CE-4760C471BE41}">
+  <dimension ref="L3:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="4" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="5" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="6" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="7" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="8" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="9" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="10" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="11" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="13" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="14" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="15" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D50948-84F4-476C-9E0D-7B796D24EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6739E651-0C97-40BF-914F-14C3308ED1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
   <sheets>
     <sheet name="warm" sheetId="2" r:id="rId1"/>
     <sheet name="reportedsp" sheetId="5" r:id="rId2"/>
     <sheet name="question" sheetId="7" r:id="rId3"/>
     <sheet name="pictures" sheetId="8" r:id="rId4"/>
-    <sheet name="questiontags" sheetId="9" r:id="rId5"/>
+    <sheet name="tags" sheetId="9" r:id="rId5"/>
     <sheet name="Hoja2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -2728,9 +2728,6 @@
     <t>It's going to cost a lot more this time</t>
   </si>
   <si>
-    <t>questiontag</t>
-  </si>
-  <si>
     <t>La mayoría de las ciudades tiene un sitema similar</t>
   </si>
   <si>
@@ -3203,6 +3200,9 @@
   </si>
   <si>
     <t>my brother hates fish, unlike my brother I like eating fish</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
 </sst>
 </file>
@@ -3289,7 +3289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3298,7 +3298,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3792,7 +3791,7 @@
   </sheetPr>
   <dimension ref="A1:C416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A313" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
@@ -4284,7 +4283,7 @@
         <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,7 +4294,7 @@
         <v>275</v>
       </c>
       <c r="C45" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4845,7 +4844,7 @@
         <v>157</v>
       </c>
       <c r="C95" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -6253,7 +6252,7 @@
         <v>408</v>
       </c>
       <c r="C223" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -6264,7 +6263,7 @@
         <v>411</v>
       </c>
       <c r="C224" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -6275,7 +6274,7 @@
         <v>412</v>
       </c>
       <c r="C225" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -6286,7 +6285,7 @@
         <v>414</v>
       </c>
       <c r="C226" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6297,7 +6296,7 @@
         <v>630</v>
       </c>
       <c r="C227" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -6308,7 +6307,7 @@
         <v>631</v>
       </c>
       <c r="C228" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -6319,7 +6318,7 @@
         <v>422</v>
       </c>
       <c r="C229" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6330,7 +6329,7 @@
         <v>632</v>
       </c>
       <c r="C230" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6341,7 +6340,7 @@
         <v>418</v>
       </c>
       <c r="C231" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -6352,7 +6351,7 @@
         <v>419</v>
       </c>
       <c r="C232" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -6363,7 +6362,7 @@
         <v>633</v>
       </c>
       <c r="C233" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -6374,7 +6373,7 @@
         <v>420</v>
       </c>
       <c r="C234" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -6385,7 +6384,7 @@
         <v>421</v>
       </c>
       <c r="C235" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -7034,7 +7033,7 @@
         <v>540</v>
       </c>
       <c r="C294" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7383,7 +7382,7 @@
         <v>730</v>
       </c>
       <c r="B326" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C326" t="s">
         <v>729</v>
@@ -7633,7 +7632,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B349" t="s">
         <v>864</v>
@@ -7731,651 +7730,651 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="8" t="s">
+      <c r="A358" t="s">
         <v>882</v>
       </c>
-      <c r="B358" s="8" t="s">
+      <c r="B358" t="s">
         <v>883</v>
       </c>
-      <c r="C358" s="8" t="s">
+      <c r="C358" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="8" t="s">
+      <c r="A359" t="s">
         <v>884</v>
       </c>
-      <c r="B359" s="8" t="s">
+      <c r="B359" t="s">
         <v>885</v>
       </c>
-      <c r="C359" s="8" t="s">
+      <c r="C359" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="8" t="s">
+      <c r="A360" t="s">
         <v>888</v>
       </c>
-      <c r="B360" s="8" t="s">
+      <c r="B360" t="s">
         <v>887</v>
       </c>
-      <c r="C360" s="8" t="s">
+      <c r="C360" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="8" t="s">
+      <c r="A361" t="s">
         <v>889</v>
       </c>
-      <c r="B361" s="8" t="s">
+      <c r="B361" t="s">
         <v>890</v>
       </c>
-      <c r="C361" s="8" t="s">
+      <c r="C361" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="8" t="s">
+      <c r="A362" t="s">
+        <v>891</v>
+      </c>
+      <c r="B362" t="s">
         <v>892</v>
       </c>
-      <c r="B362" s="8" t="s">
+      <c r="C362" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>894</v>
+      </c>
+      <c r="B363" t="s">
         <v>893</v>
       </c>
-      <c r="C362" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="8" t="s">
+      <c r="C363" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>896</v>
+      </c>
+      <c r="B364" t="s">
         <v>895</v>
       </c>
-      <c r="B363" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="C363" s="8" t="s">
+      <c r="C364" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>897</v>
+      </c>
+      <c r="B365" t="s">
+        <v>898</v>
+      </c>
+      <c r="C365" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="8" t="s">
-        <v>897</v>
-      </c>
-      <c r="B364" s="8" t="s">
-        <v>896</v>
-      </c>
-      <c r="C364" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="B365" s="8" t="s">
-        <v>899</v>
-      </c>
-      <c r="C365" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="8" t="s">
+      <c r="B366" t="s">
         <v>904</v>
       </c>
-      <c r="B366" s="8" t="s">
+      <c r="C366" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
         <v>905</v>
       </c>
-      <c r="C366" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="8" t="s">
+      <c r="B367" t="s">
         <v>906</v>
       </c>
-      <c r="B367" s="8" t="s">
+      <c r="C367" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
         <v>907</v>
       </c>
-      <c r="C367" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="8" t="s">
+      <c r="B368" t="s">
         <v>908</v>
       </c>
-      <c r="B368" s="8" t="s">
+      <c r="C368" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
         <v>909</v>
       </c>
-      <c r="C368" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="8" t="s">
+      <c r="B369" t="s">
         <v>910</v>
       </c>
-      <c r="B369" s="8" t="s">
+      <c r="C369" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
         <v>911</v>
       </c>
-      <c r="C369" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="8" t="s">
+      <c r="B370" t="s">
         <v>912</v>
       </c>
-      <c r="B370" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="C370" s="8" t="s">
-        <v>903</v>
+      <c r="C370" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="8" t="s">
+      <c r="A371" t="s">
+        <v>937</v>
+      </c>
+      <c r="B371" t="s">
         <v>938</v>
-      </c>
-      <c r="B371" s="8" t="s">
-        <v>939</v>
       </c>
       <c r="C371" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="8" t="s">
+      <c r="A372" t="s">
+        <v>940</v>
+      </c>
+      <c r="B372" t="s">
         <v>941</v>
       </c>
-      <c r="B372" s="8" t="s">
+      <c r="C372" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
         <v>942</v>
       </c>
-      <c r="C372" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="8" t="s">
+      <c r="B373" t="s">
+        <v>944</v>
+      </c>
+      <c r="C373" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
         <v>943</v>
       </c>
-      <c r="B373" s="8" t="s">
+      <c r="B374" t="s">
+        <v>946</v>
+      </c>
+      <c r="C374" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
         <v>945</v>
       </c>
-      <c r="C373" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="B374" s="8" t="s">
+      <c r="B375" t="s">
         <v>947</v>
       </c>
-      <c r="C374" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="8" t="s">
-        <v>946</v>
-      </c>
-      <c r="B375" s="8" t="s">
+      <c r="C375" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>949</v>
+      </c>
+      <c r="B376" t="s">
         <v>948</v>
       </c>
-      <c r="C375" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="8" t="s">
+      <c r="C376" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
         <v>950</v>
       </c>
-      <c r="B376" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="C376" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="8" t="s">
+      <c r="B377" t="s">
         <v>951</v>
       </c>
-      <c r="B377" s="8" t="s">
+      <c r="C377" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
         <v>952</v>
       </c>
-      <c r="C377" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="8" t="s">
+      <c r="B378" t="s">
         <v>953</v>
       </c>
-      <c r="B378" s="8" t="s">
+      <c r="C378" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>955</v>
+      </c>
+      <c r="B379" t="s">
         <v>954</v>
       </c>
-      <c r="C378" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="8" t="s">
+      <c r="C379" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
         <v>956</v>
       </c>
-      <c r="B379" s="8" t="s">
-        <v>955</v>
-      </c>
-      <c r="C379" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="8" t="s">
+      <c r="B380" t="s">
         <v>957</v>
       </c>
-      <c r="B380" s="8" t="s">
+      <c r="C380" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
         <v>958</v>
       </c>
-      <c r="C380" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="8" t="s">
+      <c r="B381" t="s">
         <v>959</v>
       </c>
-      <c r="B381" s="8" t="s">
+      <c r="C381" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>961</v>
+      </c>
+      <c r="B382" t="s">
         <v>960</v>
       </c>
-      <c r="C381" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="8" t="s">
+      <c r="C382" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
         <v>962</v>
       </c>
-      <c r="B382" s="8" t="s">
-        <v>961</v>
-      </c>
-      <c r="C382" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="8" t="s">
+      <c r="B383" t="s">
         <v>963</v>
       </c>
-      <c r="B383" s="8" t="s">
+      <c r="C383" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
         <v>964</v>
       </c>
-      <c r="C383" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="8" t="s">
+      <c r="B384" t="s">
         <v>965</v>
       </c>
-      <c r="B384" s="8" t="s">
+      <c r="C384" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
         <v>966</v>
       </c>
-      <c r="C384" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="8" t="s">
+      <c r="B385" t="s">
         <v>967</v>
       </c>
-      <c r="B385" s="8" t="s">
+      <c r="C385" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>969</v>
+      </c>
+      <c r="B386" t="s">
         <v>968</v>
       </c>
-      <c r="C385" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="8" t="s">
+      <c r="C386" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>971</v>
+      </c>
+      <c r="B387" t="s">
         <v>970</v>
       </c>
-      <c r="B386" s="8" t="s">
-        <v>969</v>
-      </c>
-      <c r="C386" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="8" t="s">
+      <c r="C387" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
         <v>972</v>
       </c>
-      <c r="B387" s="8" t="s">
-        <v>971</v>
-      </c>
-      <c r="C387" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="8" t="s">
+      <c r="B388" t="s">
         <v>973</v>
       </c>
-      <c r="B388" s="8" t="s">
+      <c r="C388" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
         <v>974</v>
       </c>
-      <c r="C388" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="8" t="s">
+      <c r="B389" t="s">
         <v>975</v>
       </c>
-      <c r="B389" s="8" t="s">
+      <c r="C389" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
         <v>976</v>
       </c>
-      <c r="C389" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="8" t="s">
+      <c r="B390" t="s">
         <v>977</v>
       </c>
-      <c r="B390" s="8" t="s">
+      <c r="C390" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
         <v>978</v>
       </c>
-      <c r="C390" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="8" t="s">
+      <c r="B391" t="s">
         <v>979</v>
       </c>
-      <c r="B391" s="8" t="s">
+      <c r="C391" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
         <v>980</v>
       </c>
-      <c r="C391" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="8" t="s">
+      <c r="B392" t="s">
         <v>981</v>
       </c>
-      <c r="B392" s="8" t="s">
+      <c r="C392" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
         <v>982</v>
       </c>
-      <c r="C392" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="8" t="s">
+      <c r="B393" t="s">
         <v>983</v>
       </c>
-      <c r="B393" s="8" t="s">
+      <c r="C393" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>985</v>
+      </c>
+      <c r="B394" t="s">
         <v>984</v>
       </c>
-      <c r="C393" s="8" t="s">
+      <c r="C394" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="8" t="s">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
         <v>986</v>
       </c>
-      <c r="B394" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="C394" s="8" t="s">
+      <c r="B395" t="s">
+        <v>987</v>
+      </c>
+      <c r="C395" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>988</v>
+      </c>
+      <c r="B396" t="s">
+        <v>989</v>
+      </c>
+      <c r="C396" t="s">
         <v>998</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="8" t="s">
-        <v>987</v>
-      </c>
-      <c r="B395" s="8" t="s">
-        <v>988</v>
-      </c>
-      <c r="C395" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="8" t="s">
-        <v>989</v>
-      </c>
-      <c r="B396" s="8" t="s">
-        <v>990</v>
-      </c>
-      <c r="C396" s="8" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>990</v>
+      </c>
+      <c r="B397" t="s">
+        <v>992</v>
+      </c>
+      <c r="C397" t="s">
         <v>991</v>
       </c>
-      <c r="B397" s="8" t="s">
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>999</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C398" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
         <v>993</v>
       </c>
-      <c r="C397" s="8" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="8" t="s">
+      <c r="B399" t="s">
+        <v>994</v>
+      </c>
+      <c r="C399" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>995</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C400" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C401" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B402" t="s">
         <v>1000</v>
       </c>
-      <c r="B398" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C398" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="8" t="s">
-        <v>994</v>
-      </c>
-      <c r="B399" s="8" t="s">
-        <v>995</v>
-      </c>
-      <c r="C399" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="8" t="s">
-        <v>996</v>
-      </c>
-      <c r="B400" s="8" t="s">
+      <c r="C402" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C403" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C404" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C405" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C406" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C407" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C412" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C413" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
         <v>1042</v>
       </c>
-      <c r="C400" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B401" s="8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C401" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="8" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B402" s="8" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C402" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="8" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B403" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C403" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B404" s="8" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C404" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B405" s="8" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C405" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B406" s="8" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C406" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="8" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B407" s="8" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C407" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="8" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B408" s="8" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C408" s="8" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B409" s="8" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C409" s="8" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B410" s="8" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C410" s="8" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="8" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B411" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C411" s="8" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="8" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B412" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C412" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="8" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B413" s="8" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C413" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="8" t="s">
+      <c r="B414" t="s">
         <v>1043</v>
       </c>
-      <c r="B414" s="8" t="s">
+      <c r="C414" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
         <v>1044</v>
       </c>
-      <c r="C414" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="8" t="s">
+      <c r="B415" t="s">
         <v>1045</v>
       </c>
-      <c r="B415" s="8" t="s">
+      <c r="C415" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B416" t="s">
         <v>1046</v>
       </c>
-      <c r="C415" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="8" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B416" s="8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C416" s="8" t="s">
+      <c r="C416" t="s">
         <v>203</v>
       </c>
     </row>
@@ -9082,8 +9081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB39071-8DA3-452E-AE5A-693AF3A46CA8}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9097,111 +9096,111 @@
         <v>430</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>891</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B2" t="s">
         <v>913</v>
-      </c>
-      <c r="B2" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B3" t="s">
         <v>915</v>
-      </c>
-      <c r="B3" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>916</v>
+      </c>
+      <c r="B4" t="s">
         <v>917</v>
-      </c>
-      <c r="B4" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>921</v>
+      </c>
+      <c r="B7" t="s">
         <v>922</v>
-      </c>
-      <c r="B7" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B9" t="s">
         <v>925</v>
-      </c>
-      <c r="B9" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>926</v>
+      </c>
+      <c r="B10" t="s">
         <v>927</v>
-      </c>
-      <c r="B10" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>928</v>
+      </c>
+      <c r="B11" t="s">
         <v>929</v>
-      </c>
-      <c r="B11" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>930</v>
+      </c>
+      <c r="B12" t="s">
         <v>931</v>
-      </c>
-      <c r="B12" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>932</v>
+      </c>
+      <c r="B13" t="s">
         <v>933</v>
-      </c>
-      <c r="B13" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>934</v>
+      </c>
+      <c r="B14" t="s">
         <v>935</v>
-      </c>
-      <c r="B14" t="s">
-        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -9227,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4" spans="12:16" x14ac:dyDescent="0.25">
@@ -9235,7 +9234,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="12:16" x14ac:dyDescent="0.25">
@@ -9243,7 +9242,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="12:16" x14ac:dyDescent="0.25">
@@ -9251,7 +9250,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="7" spans="12:16" x14ac:dyDescent="0.25">
@@ -9259,7 +9258,7 @@
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="8" spans="12:16" x14ac:dyDescent="0.25">
@@ -9267,7 +9266,7 @@
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9" spans="12:16" x14ac:dyDescent="0.25">
@@ -9275,7 +9274,7 @@
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="10" spans="12:16" x14ac:dyDescent="0.25">
@@ -9283,7 +9282,7 @@
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="11" spans="12:16" x14ac:dyDescent="0.25">
@@ -9291,10 +9290,10 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="P11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="13" spans="12:16" x14ac:dyDescent="0.25">
@@ -9302,7 +9301,7 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="14" spans="12:16" x14ac:dyDescent="0.25">
@@ -9310,7 +9309,7 @@
         <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="15" spans="12:16" x14ac:dyDescent="0.25">

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6739E651-0C97-40BF-914F-14C3308ED1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C453DF0D-AE18-4A6C-97A3-39B6FC068A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
   <sheets>
     <sheet name="warm" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$347:$C$347</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$416</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$440</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1096">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -694,9 +694,6 @@
     <t>debe de ..(posibilidad)/must</t>
   </si>
   <si>
-    <t>poder haber../could've</t>
-  </si>
-  <si>
     <t>Una vez cada ocho horas</t>
   </si>
   <si>
@@ -901,12 +898,6 @@
     <t>Since it's hot today, let's turn on the air conditioner.</t>
   </si>
   <si>
-    <t>Como hace calor hoy, pongfamos el aire acondicionado.</t>
-  </si>
-  <si>
-    <t>apenas/casi nunca/hardly ever</t>
-  </si>
-  <si>
     <t>He hardly ever opens a book.</t>
   </si>
   <si>
@@ -919,12 +910,6 @@
     <t>Aunque cojas un taxi, perderás el tren</t>
   </si>
   <si>
-    <t>Yo shoudn´t call her unless it's really urgent.</t>
-  </si>
-  <si>
-    <t>No deberías llamarla a no ser que sea ur gente de verdad</t>
-  </si>
-  <si>
     <t>I used to ski in eurpe, we would take the car and we would go to france</t>
   </si>
   <si>
@@ -970,9 +955,6 @@
     <t>En el mejor de los casos tenemos dinero suficiente para llegar a mayo</t>
   </si>
   <si>
-    <t>when it comes to/ en lo que se refiere/en cuanto a/</t>
-  </si>
-  <si>
     <t>How many of you are there?</t>
   </si>
   <si>
@@ -1759,9 +1741,6 @@
     <t>frecuency</t>
   </si>
   <si>
-    <t>quiero que hagas/quieres que haga/want me to do it</t>
-  </si>
-  <si>
     <t>answer</t>
   </si>
   <si>
@@ -1945,9 +1924,6 @@
     <t>Harás bien en tener mas cuidado la proxima vez</t>
   </si>
   <si>
-    <t>What do they expect me to do?</t>
-  </si>
-  <si>
     <t>When do they want us to finish it?</t>
   </si>
   <si>
@@ -2176,9 +2152,6 @@
     <t>mi perro tiene miedo de su sombra y trata de atacarla</t>
   </si>
   <si>
-    <t xml:space="preserve"> mucho/a lot</t>
-  </si>
-  <si>
     <t>Haré los deberes en cuanto llegue a casa</t>
   </si>
   <si>
@@ -2188,9 +2161,6 @@
     <t>en un futuro proximo/In the near future</t>
   </si>
   <si>
-    <t>Antes hacía.../ I used to do/I would</t>
-  </si>
-  <si>
     <t>suficiente/enought</t>
   </si>
   <si>
@@ -2212,9 +2182,6 @@
     <t>lookingbackwards.jpg</t>
   </si>
   <si>
-    <t>I won't go unless the pay for the ticket</t>
-  </si>
-  <si>
     <t>did you manage to study english last night?</t>
   </si>
   <si>
@@ -3097,9 +3064,6 @@
     <t xml:space="preserve">There used to be fewer tourists </t>
   </si>
   <si>
-    <t>antes había/there used to be</t>
-  </si>
-  <si>
     <t>There have been very few good movies in the cinema lately</t>
   </si>
   <si>
@@ -3199,10 +3163,184 @@
     <t>te daré un toque mañana por la mañana</t>
   </si>
   <si>
-    <t>my brother hates fish, unlike my brother I like eating fish</t>
-  </si>
-  <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>de repente se puso a llover</t>
+  </si>
+  <si>
+    <t>all it started to rain</t>
+  </si>
+  <si>
+    <t>Have them come her</t>
+  </si>
+  <si>
+    <t>Que hagan, vengan/ have them +verb</t>
+  </si>
+  <si>
+    <t>have him take you to the hotel</t>
+  </si>
+  <si>
+    <t>Que el te lleve al hotel</t>
+  </si>
+  <si>
+    <t>Have them call me</t>
+  </si>
+  <si>
+    <t>Que me llamen</t>
+  </si>
+  <si>
+    <t>Have them check it</t>
+  </si>
+  <si>
+    <t>Que lo comprueben</t>
+  </si>
+  <si>
+    <t>Que lo hagan de nuevo</t>
+  </si>
+  <si>
+    <t>Have them do it again</t>
+  </si>
+  <si>
+    <t>Que vengan aquí</t>
+  </si>
+  <si>
+    <t>Lo le molesteis</t>
+  </si>
+  <si>
+    <t>Don't bother him</t>
+  </si>
+  <si>
+    <t>Te dije que les dijeras que no me molestaran</t>
+  </si>
+  <si>
+    <t>I told you to tell them not to bother me</t>
+  </si>
+  <si>
+    <t>Os importaría no molestarle</t>
+  </si>
+  <si>
+    <t>Te importaría ayudarme</t>
+  </si>
+  <si>
+    <t>Would you mind helping me</t>
+  </si>
+  <si>
+    <t>Would you mind not bothering him</t>
+  </si>
+  <si>
+    <t>Te importaría/ would you mind+ gerund</t>
+  </si>
+  <si>
+    <t>Would you mind preparing some cofee</t>
+  </si>
+  <si>
+    <t>Te importaría preparar café</t>
+  </si>
+  <si>
+    <t>mucho/a lot</t>
+  </si>
+  <si>
+    <t>my brother hates fish, unlike my brother, I like eating fish</t>
+  </si>
+  <si>
+    <t>Yo shoudn't call her unless it's really urgent.</t>
+  </si>
+  <si>
+    <t>I won't go unless they pay for the ticket.</t>
+  </si>
+  <si>
+    <t>No deberías llamarla a no ser que sea urgente de verdad</t>
+  </si>
+  <si>
+    <t>Antes había, era, estaba, hacía/there used to be, I used to be, I used to do</t>
+  </si>
+  <si>
+    <t>en lo que se refiere/en cuanto a/when it comes to</t>
+  </si>
+  <si>
+    <t>Como hace calor hoy, pongamos el aire acondicionado.</t>
+  </si>
+  <si>
+    <t>Es una ventaja considerable en cuanto a precisión.</t>
+  </si>
+  <si>
+    <t>This is a considerable advantage when it comes to accuracy</t>
+  </si>
+  <si>
+    <t>My boss has a british accent</t>
+  </si>
+  <si>
+    <t>Mi jefe tiene una acento británico</t>
+  </si>
+  <si>
+    <t>Se te cayó</t>
+  </si>
+  <si>
+    <t>You dropped it</t>
+  </si>
+  <si>
+    <t>Me encanta mezclar bebidas</t>
+  </si>
+  <si>
+    <t>I love mixing drinks</t>
+  </si>
+  <si>
+    <t>Odio ir al dentista</t>
+  </si>
+  <si>
+    <t>I hate going to the dentist</t>
+  </si>
+  <si>
+    <t>En lo que se refiere a comida, la mejor es el sushi</t>
+  </si>
+  <si>
+    <t>When it comes to food, Sushi is the best</t>
+  </si>
+  <si>
+    <t>Hay polvo en todas partes</t>
+  </si>
+  <si>
+    <t>There's dust everywhere</t>
+  </si>
+  <si>
+    <t>No cambies de canal</t>
+  </si>
+  <si>
+    <t>Don't cahnege the chanel</t>
+  </si>
+  <si>
+    <t>as far as I know, he's the best by far</t>
+  </si>
+  <si>
+    <t>Que yo sepa, el es el mejor con diferencia</t>
+  </si>
+  <si>
+    <t>Quien es el reponsable de este lío</t>
+  </si>
+  <si>
+    <t>Who is in charge of this mess?</t>
+  </si>
+  <si>
+    <t>Some peopble think we're responsible for climate change</t>
+  </si>
+  <si>
+    <t>Algunos piensana que somos responsables del cambio climático</t>
+  </si>
+  <si>
+    <t>responsable/in charge of/ responsible for</t>
+  </si>
+  <si>
+    <t>Son los padres los responsables de sus hijos adultos?</t>
+  </si>
+  <si>
+    <t>Are partents responsible for their adult children?</t>
+  </si>
+  <si>
+    <t>Pedro is in charge of the finance department/ Pedro is responsible for the finance department</t>
+  </si>
+  <si>
+    <t>pedro está a cargo del depertamento de finanzas</t>
   </si>
 </sst>
 </file>
@@ -3294,10 +3432,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3478,8 +3616,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C416" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C416" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C440" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C440" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C434">
+    <sortCondition ref="C1:C434"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8C2285AF-8150-4289-9017-075B5346F689}" uniqueName="1" name="esp" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{6D572D7D-E01D-4336-BDAB-AC33E47035D7}" uniqueName="2" name="eng" queryTableFieldId="2" dataDxfId="1"/>
@@ -3789,17 +3930,17 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C416"/>
+  <dimension ref="A1:C440"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B315" sqref="B315"/>
+    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.42578125" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" customWidth="1"/>
-    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3815,54 +3956,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>1062</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1064</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1065</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1063</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>889</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>203</v>
@@ -3870,10 +4011,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>203</v>
@@ -3881,21 +4022,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>649</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>203</v>
@@ -3903,10 +4044,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>203</v>
@@ -3914,10 +4055,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>203</v>
@@ -3925,10 +4066,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>203</v>
@@ -3936,10 +4077,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>203</v>
@@ -3947,10 +4088,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>203</v>
@@ -3958,10 +4099,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>203</v>
@@ -3969,10 +4110,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>203</v>
@@ -3980,32 +4121,32 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>203</v>
@@ -4013,10 +4154,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>203</v>
@@ -4024,43 +4165,43 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>283</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>283</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>203</v>
@@ -4068,10 +4209,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>203</v>
@@ -4079,109 +4220,109 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>841</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>286</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>719</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>814</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>531</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>814</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
         <v>203</v>
@@ -4189,10 +4330,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
         <v>203</v>
@@ -4200,10 +4341,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>852</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
         <v>203</v>
@@ -4211,10 +4352,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
         <v>203</v>
@@ -4222,10 +4363,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
         <v>203</v>
@@ -4233,10 +4374,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
         <v>203</v>
@@ -4244,10 +4385,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
         <v>203</v>
@@ -4255,10 +4396,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
         <v>203</v>
@@ -4266,10 +4407,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
         <v>203</v>
@@ -4277,54 +4418,54 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>899</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>899</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>271</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
         <v>203</v>
@@ -4332,10 +4473,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
         <v>203</v>
@@ -4343,10 +4484,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
         <v>203</v>
@@ -4354,10 +4495,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
         <v>203</v>
@@ -4365,10 +4506,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
         <v>203</v>
@@ -4376,10 +4517,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
         <v>203</v>
@@ -4387,32 +4528,32 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>857</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>856</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
         <v>203</v>
@@ -4420,32 +4561,32 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>881</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>711</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>711</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
         <v>203</v>
@@ -4453,21 +4594,21 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
         <v>203</v>
@@ -4475,10 +4616,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
         <v>203</v>
@@ -4486,10 +4627,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
         <v>203</v>
@@ -4497,10 +4638,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
         <v>203</v>
@@ -4508,21 +4649,21 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s">
         <v>203</v>
@@ -4530,10 +4671,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
         <v>203</v>
@@ -4541,10 +4682,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
         <v>203</v>
@@ -4552,10 +4693,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
         <v>203</v>
@@ -4563,54 +4704,54 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>818</v>
+        <v>182</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
         <v>203</v>
@@ -4618,10 +4759,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
         <v>203</v>
@@ -4629,65 +4770,65 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>214</v>
+        <v>589</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>590</v>
       </c>
       <c r="C81" t="s">
         <v>203</v>
@@ -4695,21 +4836,21 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="C82" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
         <v>203</v>
@@ -4717,10 +4858,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>591</v>
       </c>
       <c r="C84" t="s">
         <v>203</v>
@@ -4728,10 +4869,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>304</v>
       </c>
       <c r="C85" t="s">
         <v>203</v>
@@ -4739,10 +4880,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>588</v>
       </c>
       <c r="C86" t="s">
         <v>203</v>
@@ -4750,21 +4891,21 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>142</v>
-      </c>
-      <c r="B88" t="s">
-        <v>143</v>
+        <v>226</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="C88" t="s">
         <v>203</v>
@@ -4772,43 +4913,43 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>144</v>
-      </c>
-      <c r="B89" t="s">
-        <v>145</v>
+        <v>592</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="C90" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="C92" t="s">
         <v>203</v>
@@ -4816,10 +4957,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>152</v>
+        <v>595</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="C93" t="s">
         <v>203</v>
@@ -4827,10 +4968,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>596</v>
       </c>
       <c r="B94" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="C94" t="s">
         <v>203</v>
@@ -4838,21 +4979,21 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>156</v>
+        <v>597</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="C95" t="s">
-        <v>900</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>598</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="C96" t="s">
         <v>203</v>
@@ -4860,10 +5001,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="B97" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="C97" t="s">
         <v>203</v>
@@ -4871,10 +5012,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="C98" t="s">
         <v>203</v>
@@ -4882,10 +5023,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="C99" t="s">
         <v>203</v>
@@ -4893,10 +5034,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="C100" t="s">
         <v>203</v>
@@ -4904,10 +5045,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="B101" t="s">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="C101" t="s">
         <v>203</v>
@@ -4915,10 +5056,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>170</v>
+        <v>599</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="C102" t="s">
         <v>203</v>
@@ -4926,10 +5067,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="C103" t="s">
         <v>203</v>
@@ -4937,10 +5078,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="B104" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="C104" t="s">
         <v>203</v>
@@ -4948,10 +5089,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="B105" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="C105" t="s">
         <v>203</v>
@@ -4959,10 +5100,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>178</v>
+        <v>600</v>
       </c>
       <c r="B106" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="C106" t="s">
         <v>203</v>
@@ -4970,10 +5111,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
+        <v>316</v>
       </c>
       <c r="C107" t="s">
         <v>203</v>
@@ -4981,10 +5122,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="C108" t="s">
         <v>203</v>
@@ -4992,10 +5133,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="B109" t="s">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="C109" t="s">
         <v>203</v>
@@ -5003,10 +5144,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="C110" t="s">
         <v>203</v>
@@ -5014,10 +5155,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="C111" t="s">
         <v>203</v>
@@ -5025,10 +5166,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="C112" t="s">
         <v>203</v>
@@ -5036,10 +5177,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="B113" t="s">
-        <v>191</v>
+        <v>314</v>
       </c>
       <c r="C113" t="s">
         <v>203</v>
@@ -5047,10 +5188,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="C114" t="s">
         <v>203</v>
@@ -5058,10 +5199,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="C115" t="s">
         <v>203</v>
@@ -5069,10 +5210,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
+        <v>318</v>
       </c>
       <c r="C116" t="s">
         <v>203</v>
@@ -5080,10 +5221,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>596</v>
+        <v>319</v>
       </c>
       <c r="B117" t="s">
-        <v>597</v>
+        <v>320</v>
       </c>
       <c r="C117" t="s">
         <v>203</v>
@@ -5091,10 +5232,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>196</v>
+        <v>321</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>602</v>
       </c>
       <c r="C118" t="s">
         <v>203</v>
@@ -5102,10 +5243,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>198</v>
+        <v>343</v>
       </c>
       <c r="B119" t="s">
-        <v>199</v>
+        <v>342</v>
       </c>
       <c r="C119" t="s">
         <v>203</v>
@@ -5113,10 +5254,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c r="B120" t="s">
-        <v>598</v>
+        <v>345</v>
       </c>
       <c r="C120" t="s">
         <v>203</v>
@@ -5124,10 +5265,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>225</v>
+        <v>612</v>
       </c>
       <c r="B121" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="C121" t="s">
         <v>203</v>
@@ -5135,10 +5276,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>222</v>
+        <v>347</v>
       </c>
       <c r="B122" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="C122" t="s">
         <v>203</v>
@@ -5146,10 +5287,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>223</v>
+        <v>372</v>
       </c>
       <c r="B123" t="s">
-        <v>226</v>
+        <v>619</v>
       </c>
       <c r="C123" t="s">
         <v>203</v>
@@ -5157,10 +5298,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>227</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>309</v>
+        <v>620</v>
+      </c>
+      <c r="B124" t="s">
+        <v>621</v>
       </c>
       <c r="C124" t="s">
         <v>203</v>
@@ -5168,10 +5309,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>599</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>228</v>
+        <v>374</v>
+      </c>
+      <c r="B125" t="s">
+        <v>377</v>
       </c>
       <c r="C125" t="s">
         <v>203</v>
@@ -5179,43 +5320,43 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>233</v>
+        <v>376</v>
       </c>
       <c r="B126" t="s">
-        <v>853</v>
+        <v>375</v>
       </c>
       <c r="C126" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="B127" t="s">
-        <v>854</v>
+        <v>379</v>
       </c>
       <c r="C127" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>601</v>
+        <v>391</v>
       </c>
       <c r="B128" t="s">
-        <v>855</v>
+        <v>390</v>
       </c>
       <c r="C128" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>234</v>
+        <v>393</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
       <c r="C129" t="s">
         <v>203</v>
@@ -5223,10 +5364,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>231</v>
+        <v>396</v>
       </c>
       <c r="B130" t="s">
-        <v>232</v>
+        <v>395</v>
       </c>
       <c r="C130" t="s">
         <v>203</v>
@@ -5234,10 +5375,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>235</v>
+        <v>398</v>
       </c>
       <c r="B131" t="s">
-        <v>236</v>
+        <v>397</v>
       </c>
       <c r="C131" t="s">
         <v>203</v>
@@ -5245,54 +5386,54 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>602</v>
+        <v>400</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>399</v>
       </c>
       <c r="C132" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>603</v>
-      </c>
-      <c r="B133" t="s">
-        <v>239</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="A133" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>604</v>
-      </c>
-      <c r="B134" t="s">
-        <v>238</v>
+      <c r="A134" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="C134" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>605</v>
-      </c>
-      <c r="B135" t="s">
-        <v>240</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="A135" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>241</v>
-      </c>
-      <c r="B136" t="s">
-        <v>242</v>
+        <v>450</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="C136" t="s">
         <v>203</v>
@@ -5300,10 +5441,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>244</v>
-      </c>
-      <c r="B137" t="s">
-        <v>243</v>
+        <v>788</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>789</v>
       </c>
       <c r="C137" t="s">
         <v>203</v>
@@ -5311,10 +5452,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>246</v>
-      </c>
-      <c r="B138" t="s">
-        <v>245</v>
+        <v>462</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="C138" t="s">
         <v>203</v>
@@ -5322,54 +5463,54 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>248</v>
-      </c>
-      <c r="B139" t="s">
-        <v>247</v>
+        <v>451</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>787</v>
       </c>
       <c r="C139" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>251</v>
-      </c>
-      <c r="B140" t="s">
-        <v>253</v>
+        <v>464</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="C140" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>254</v>
-      </c>
-      <c r="B141" t="s">
-        <v>252</v>
+        <v>465</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="C141" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>293</v>
-      </c>
-      <c r="B142" t="s">
-        <v>294</v>
+        <v>467</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>637</v>
       </c>
       <c r="C142" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>255</v>
-      </c>
-      <c r="B143" t="s">
-        <v>256</v>
+        <v>468</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>638</v>
       </c>
       <c r="C143" t="s">
         <v>203</v>
@@ -5377,10 +5518,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>264</v>
-      </c>
-      <c r="B144" t="s">
-        <v>257</v>
+        <v>784</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>785</v>
       </c>
       <c r="C144" t="s">
         <v>203</v>
@@ -5388,10 +5529,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>606</v>
-      </c>
-      <c r="B145" t="s">
-        <v>258</v>
+        <v>470</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="C145" t="s">
         <v>203</v>
@@ -5399,10 +5540,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>265</v>
-      </c>
-      <c r="B146" t="s">
-        <v>259</v>
+        <v>783</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>639</v>
       </c>
       <c r="C146" t="s">
         <v>203</v>
@@ -5410,10 +5551,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>266</v>
-      </c>
-      <c r="B147" t="s">
-        <v>260</v>
+        <v>782</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>640</v>
       </c>
       <c r="C147" t="s">
         <v>203</v>
@@ -5421,10 +5562,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>267</v>
-      </c>
-      <c r="B148" t="s">
-        <v>261</v>
+        <v>471</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="C148" t="s">
         <v>203</v>
@@ -5432,10 +5573,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>607</v>
-      </c>
-      <c r="B149" t="s">
-        <v>262</v>
+        <v>524</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="C149" t="s">
         <v>203</v>
@@ -5443,32 +5584,32 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>268</v>
-      </c>
-      <c r="B150" t="s">
-        <v>263</v>
+        <v>477</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="C150" t="s">
-        <v>608</v>
+        <v>203</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>269</v>
-      </c>
-      <c r="B151" t="s">
-        <v>270</v>
+        <v>478</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="C151" t="s">
-        <v>649</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>321</v>
-      </c>
-      <c r="B152" t="s">
-        <v>322</v>
+        <v>496</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="C152" t="s">
         <v>203</v>
@@ -5476,10 +5617,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>295</v>
-      </c>
-      <c r="B153" t="s">
-        <v>296</v>
+        <v>543</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>839</v>
       </c>
       <c r="C153" t="s">
         <v>203</v>
@@ -5487,32 +5628,32 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>297</v>
-      </c>
-      <c r="B154" t="s">
-        <v>302</v>
+        <v>497</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="C154" t="s">
-        <v>712</v>
+        <v>203</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>298</v>
-      </c>
-      <c r="B155" t="s">
-        <v>299</v>
+        <v>503</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>498</v>
       </c>
       <c r="C155" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>300</v>
-      </c>
-      <c r="B156" t="s">
-        <v>301</v>
+        <v>500</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>499</v>
       </c>
       <c r="C156" t="s">
         <v>203</v>
@@ -5520,32 +5661,32 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>304</v>
-      </c>
-      <c r="B157" t="s">
-        <v>303</v>
+        <v>501</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>502</v>
       </c>
       <c r="C157" t="s">
-        <v>712</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>308</v>
-      </c>
-      <c r="B158" t="s">
-        <v>849</v>
+        <v>540</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>504</v>
       </c>
       <c r="C158" t="s">
-        <v>305</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>307</v>
-      </c>
-      <c r="B159" t="s">
-        <v>306</v>
+        <v>505</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="C159" t="s">
         <v>203</v>
@@ -5553,10 +5694,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>311</v>
-      </c>
-      <c r="B160" t="s">
-        <v>312</v>
+        <v>538</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="C160" t="s">
         <v>203</v>
@@ -5564,10 +5705,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>313</v>
-      </c>
-      <c r="B161" t="s">
-        <v>314</v>
+        <v>655</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>656</v>
       </c>
       <c r="C161" t="s">
         <v>203</v>
@@ -5575,10 +5716,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>317</v>
-      </c>
-      <c r="B162" t="s">
-        <v>320</v>
+        <v>657</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>658</v>
       </c>
       <c r="C162" t="s">
         <v>203</v>
@@ -5586,10 +5727,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>316</v>
-      </c>
-      <c r="B163" t="s">
-        <v>315</v>
+        <v>659</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>660</v>
       </c>
       <c r="C163" t="s">
         <v>203</v>
@@ -5597,10 +5738,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>319</v>
-      </c>
-      <c r="B164" t="s">
-        <v>318</v>
+        <v>664</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>661</v>
       </c>
       <c r="C164" t="s">
         <v>203</v>
@@ -5608,10 +5749,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>323</v>
-      </c>
-      <c r="B165" t="s">
-        <v>324</v>
+        <v>663</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>662</v>
       </c>
       <c r="C165" t="s">
         <v>203</v>
@@ -5619,10 +5760,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>325</v>
-      </c>
-      <c r="B166" t="s">
-        <v>326</v>
+        <v>682</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>679</v>
       </c>
       <c r="C166" t="s">
         <v>203</v>
@@ -5630,10 +5771,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>327</v>
-      </c>
-      <c r="B167" t="s">
-        <v>609</v>
+        <v>685</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>684</v>
       </c>
       <c r="C167" t="s">
         <v>203</v>
@@ -5641,307 +5782,307 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>329</v>
-      </c>
-      <c r="B168" t="s">
-        <v>328</v>
+        <v>693</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>694</v>
       </c>
       <c r="C168" t="s">
-        <v>709</v>
+        <v>203</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>708</v>
-      </c>
-      <c r="B169" t="s">
-        <v>330</v>
+        <v>698</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>697</v>
       </c>
       <c r="C169" t="s">
-        <v>709</v>
+        <v>203</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>335</v>
+        <v>717</v>
       </c>
       <c r="B170" t="s">
-        <v>334</v>
+        <v>773</v>
       </c>
       <c r="C170" t="s">
-        <v>709</v>
+        <v>203</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>337</v>
+        <v>731</v>
       </c>
       <c r="B171" t="s">
-        <v>336</v>
+        <v>728</v>
       </c>
       <c r="C171" t="s">
-        <v>709</v>
+        <v>203</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>742</v>
       </c>
       <c r="B172" t="s">
-        <v>339</v>
+        <v>729</v>
       </c>
       <c r="C172" t="s">
-        <v>709</v>
+        <v>203</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>341</v>
+        <v>769</v>
       </c>
       <c r="B173" t="s">
-        <v>340</v>
+        <v>770</v>
       </c>
       <c r="C173" t="s">
-        <v>709</v>
+        <v>203</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>342</v>
+        <v>739</v>
       </c>
       <c r="B174" t="s">
-        <v>343</v>
+        <v>768</v>
       </c>
       <c r="C174" t="s">
-        <v>707</v>
+        <v>203</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>344</v>
+        <v>740</v>
       </c>
       <c r="B175" t="s">
-        <v>610</v>
+        <v>767</v>
       </c>
       <c r="C175" t="s">
-        <v>707</v>
+        <v>203</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>346</v>
+        <v>741</v>
       </c>
       <c r="B176" t="s">
-        <v>345</v>
+        <v>766</v>
       </c>
       <c r="C176" t="s">
-        <v>707</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>347</v>
+        <v>738</v>
       </c>
       <c r="B177" t="s">
-        <v>331</v>
+        <v>765</v>
       </c>
       <c r="C177" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>362</v>
+        <v>763</v>
       </c>
       <c r="B178" t="s">
-        <v>611</v>
+        <v>764</v>
       </c>
       <c r="C178" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>364</v>
+        <v>762</v>
       </c>
       <c r="B179" t="s">
-        <v>363</v>
+        <v>761</v>
       </c>
       <c r="C179" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>366</v>
+        <v>733</v>
       </c>
       <c r="B180" t="s">
-        <v>365</v>
+        <v>760</v>
       </c>
       <c r="C180" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>368</v>
+        <v>858</v>
       </c>
       <c r="B181" t="s">
-        <v>367</v>
+        <v>759</v>
       </c>
       <c r="C181" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>370</v>
+        <v>737</v>
       </c>
       <c r="B182" t="s">
-        <v>369</v>
+        <v>758</v>
       </c>
       <c r="C182" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>612</v>
+        <v>736</v>
       </c>
       <c r="B183" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C183" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>613</v>
+        <v>735</v>
       </c>
       <c r="B184" t="s">
-        <v>816</v>
+        <v>734</v>
       </c>
       <c r="C184" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>371</v>
+        <v>814</v>
       </c>
       <c r="B185" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C185" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>372</v>
+        <v>925</v>
       </c>
       <c r="B186" t="s">
-        <v>813</v>
+        <v>853</v>
       </c>
       <c r="C186" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>614</v>
+        <v>855</v>
       </c>
       <c r="B187" t="s">
-        <v>812</v>
+        <v>854</v>
       </c>
       <c r="C187" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>373</v>
+        <v>857</v>
       </c>
       <c r="B188" t="s">
-        <v>811</v>
+        <v>856</v>
       </c>
       <c r="C188" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>375</v>
+        <v>859</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>860</v>
       </c>
       <c r="C189" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>615</v>
+        <v>864</v>
       </c>
       <c r="B190" t="s">
-        <v>616</v>
+        <v>861</v>
       </c>
       <c r="C190" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>376</v>
+        <v>862</v>
       </c>
       <c r="B191" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="C191" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>377</v>
+        <v>875</v>
       </c>
       <c r="B192" t="s">
-        <v>808</v>
+        <v>865</v>
       </c>
       <c r="C192" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>379</v>
+        <v>869</v>
       </c>
       <c r="B193" t="s">
-        <v>810</v>
+        <v>866</v>
       </c>
       <c r="C193" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>618</v>
+        <v>868</v>
       </c>
       <c r="B194" t="s">
-        <v>617</v>
+        <v>867</v>
       </c>
       <c r="C194" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>349</v>
+        <v>871</v>
       </c>
       <c r="B195" t="s">
-        <v>348</v>
+        <v>872</v>
       </c>
       <c r="C195" t="s">
         <v>203</v>
@@ -5949,10 +6090,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>352</v>
+        <v>873</v>
       </c>
       <c r="B196" t="s">
-        <v>351</v>
+        <v>874</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5960,10 +6101,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>619</v>
+        <v>877</v>
       </c>
       <c r="B197" t="s">
-        <v>350</v>
+        <v>876</v>
       </c>
       <c r="C197" t="s">
         <v>203</v>
@@ -5971,10 +6112,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>353</v>
+        <v>878</v>
       </c>
       <c r="B198" t="s">
-        <v>620</v>
+        <v>879</v>
       </c>
       <c r="C198" t="s">
         <v>203</v>
@@ -5982,153 +6123,153 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>354</v>
+        <v>880</v>
       </c>
       <c r="B199" t="s">
-        <v>355</v>
+        <v>881</v>
       </c>
       <c r="C199" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>621</v>
+        <v>929</v>
       </c>
       <c r="B200" t="s">
-        <v>806</v>
+        <v>930</v>
       </c>
       <c r="C200" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>387</v>
+        <v>931</v>
       </c>
       <c r="B201" t="s">
-        <v>384</v>
+        <v>933</v>
       </c>
       <c r="C201" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>389</v>
+        <v>932</v>
       </c>
       <c r="B202" t="s">
-        <v>388</v>
+        <v>935</v>
       </c>
       <c r="C202" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>390</v>
+        <v>934</v>
       </c>
       <c r="B203" t="s">
-        <v>356</v>
+        <v>936</v>
       </c>
       <c r="C203" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>357</v>
+        <v>938</v>
       </c>
       <c r="B204" t="s">
-        <v>358</v>
+        <v>937</v>
       </c>
       <c r="C204" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>622</v>
+        <v>939</v>
       </c>
       <c r="B205" t="s">
-        <v>391</v>
+        <v>940</v>
       </c>
       <c r="C205" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>392</v>
+        <v>941</v>
       </c>
       <c r="B206" t="s">
-        <v>623</v>
+        <v>942</v>
       </c>
       <c r="C206" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>359</v>
+        <v>944</v>
       </c>
       <c r="B207" t="s">
-        <v>360</v>
+        <v>943</v>
       </c>
       <c r="C207" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>624</v>
+        <v>945</v>
       </c>
       <c r="B208" t="s">
-        <v>393</v>
+        <v>946</v>
       </c>
       <c r="C208" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>625</v>
+        <v>947</v>
       </c>
       <c r="B209" t="s">
-        <v>361</v>
+        <v>948</v>
       </c>
       <c r="C209" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>394</v>
+        <v>950</v>
       </c>
       <c r="B210" t="s">
-        <v>721</v>
+        <v>949</v>
       </c>
       <c r="C210" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>395</v>
+        <v>951</v>
       </c>
       <c r="B211" t="s">
-        <v>807</v>
+        <v>952</v>
       </c>
       <c r="C211" t="s">
-        <v>698</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>378</v>
+        <v>953</v>
       </c>
       <c r="B212" t="s">
-        <v>626</v>
+        <v>954</v>
       </c>
       <c r="C212" t="s">
         <v>203</v>
@@ -6136,10 +6277,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>627</v>
+        <v>955</v>
       </c>
       <c r="B213" t="s">
-        <v>628</v>
+        <v>956</v>
       </c>
       <c r="C213" t="s">
         <v>203</v>
@@ -6147,10 +6288,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>380</v>
+        <v>958</v>
       </c>
       <c r="B214" t="s">
-        <v>383</v>
+        <v>957</v>
       </c>
       <c r="C214" t="s">
         <v>203</v>
@@ -6158,10 +6299,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>382</v>
+        <v>960</v>
       </c>
       <c r="B215" t="s">
-        <v>381</v>
+        <v>959</v>
       </c>
       <c r="C215" t="s">
         <v>203</v>
@@ -6169,10 +6310,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>386</v>
+        <v>961</v>
       </c>
       <c r="B216" t="s">
-        <v>385</v>
+        <v>962</v>
       </c>
       <c r="C216" t="s">
         <v>203</v>
@@ -6180,10 +6321,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>397</v>
+        <v>963</v>
       </c>
       <c r="B217" t="s">
-        <v>396</v>
+        <v>964</v>
       </c>
       <c r="C217" t="s">
         <v>203</v>
@@ -6191,10 +6332,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>399</v>
+        <v>965</v>
       </c>
       <c r="B218" t="s">
-        <v>398</v>
+        <v>966</v>
       </c>
       <c r="C218" t="s">
         <v>203</v>
@@ -6202,21 +6343,21 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>629</v>
+        <v>969</v>
       </c>
       <c r="B219" t="s">
-        <v>819</v>
+        <v>970</v>
       </c>
       <c r="C219" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>402</v>
+        <v>975</v>
       </c>
       <c r="B220" t="s">
-        <v>401</v>
+        <v>976</v>
       </c>
       <c r="C220" t="s">
         <v>203</v>
@@ -6224,10 +6365,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>404</v>
+        <v>988</v>
       </c>
       <c r="B221" t="s">
-        <v>403</v>
+        <v>1026</v>
       </c>
       <c r="C221" t="s">
         <v>203</v>
@@ -6235,10 +6376,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>406</v>
+        <v>982</v>
       </c>
       <c r="B222" t="s">
-        <v>405</v>
+        <v>983</v>
       </c>
       <c r="C222" t="s">
         <v>203</v>
@@ -6246,761 +6387,761 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>409</v>
+        <v>984</v>
       </c>
       <c r="B223" t="s">
-        <v>408</v>
+        <v>1029</v>
       </c>
       <c r="C223" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>410</v>
+        <v>1028</v>
       </c>
       <c r="B224" t="s">
-        <v>411</v>
+        <v>1027</v>
       </c>
       <c r="C224" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>413</v>
+        <v>992</v>
       </c>
       <c r="B225" t="s">
-        <v>412</v>
+        <v>989</v>
       </c>
       <c r="C225" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>415</v>
+        <v>990</v>
       </c>
       <c r="B226" t="s">
-        <v>414</v>
+        <v>991</v>
       </c>
       <c r="C226" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>416</v>
+        <v>996</v>
       </c>
       <c r="B227" t="s">
-        <v>630</v>
+        <v>993</v>
       </c>
       <c r="C227" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>417</v>
+        <v>995</v>
       </c>
       <c r="B228" t="s">
-        <v>631</v>
+        <v>994</v>
       </c>
       <c r="C228" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>423</v>
+        <v>997</v>
       </c>
       <c r="B229" t="s">
-        <v>422</v>
+        <v>998</v>
       </c>
       <c r="C229" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>424</v>
+        <v>999</v>
       </c>
       <c r="B230" t="s">
-        <v>632</v>
+        <v>1000</v>
       </c>
       <c r="C230" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>418</v>
+      <c r="A231" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1024</v>
       </c>
       <c r="C231" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>419</v>
+      <c r="A232" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1025</v>
       </c>
       <c r="C232" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>633</v>
+      <c r="A233" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1031</v>
       </c>
       <c r="C233" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>420</v>
+      <c r="A234" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1033</v>
       </c>
       <c r="C234" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>421</v>
+      <c r="A235" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1034</v>
       </c>
       <c r="C235" t="s">
-        <v>901</v>
+        <v>203</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>644</v>
+      <c r="A236" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>644</v>
+      <c r="A237" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>644</v>
+      <c r="A238" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>644</v>
+      <c r="A239" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C240" s="5" t="s">
+      <c r="A240" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C240" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>439</v>
+      <c r="A241" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1078</v>
       </c>
       <c r="C241" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>203</v>
+      <c r="A242" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>441</v>
+      <c r="A243" t="s">
+        <v>870</v>
+      </c>
+      <c r="B243" t="s">
+        <v>285</v>
       </c>
       <c r="C243" t="s">
-        <v>805</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>442</v>
+      <c r="A244" t="s">
+        <v>286</v>
+      </c>
+      <c r="B244" t="s">
+        <v>287</v>
       </c>
       <c r="C244" t="s">
-        <v>805</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>445</v>
+      <c r="A245" t="s">
+        <v>44</v>
+      </c>
+      <c r="B245" t="s">
+        <v>45</v>
       </c>
       <c r="C245" t="s">
-        <v>466</v>
+        <v>206</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>446</v>
+      <c r="A246" t="s">
+        <v>284</v>
+      </c>
+      <c r="B246" t="s">
+        <v>283</v>
       </c>
       <c r="C246" t="s">
-        <v>466</v>
+        <v>206</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>447</v>
+      <c r="A247" t="s">
+        <v>47</v>
+      </c>
+      <c r="B247" t="s">
+        <v>48</v>
       </c>
       <c r="C247" t="s">
-        <v>466</v>
+        <v>206</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>448</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>641</v>
+        <v>979</v>
+      </c>
+      <c r="B248" t="s">
+        <v>981</v>
       </c>
       <c r="C248" t="s">
-        <v>454</v>
+        <v>980</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>720</v>
+        <v>633</v>
       </c>
       <c r="C249" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>642</v>
+        <v>709</v>
       </c>
       <c r="C250" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>450</v>
+        <v>634</v>
       </c>
       <c r="C251" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>803</v>
+        <v>445</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>804</v>
+        <v>444</v>
       </c>
       <c r="C252" t="s">
-        <v>229</v>
+        <v>448</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>463</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>802</v>
+        <v>253</v>
+      </c>
+      <c r="B253" t="s">
+        <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>467</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>801</v>
+        <v>288</v>
+      </c>
+      <c r="B254" t="s">
+        <v>289</v>
       </c>
       <c r="C254" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>456</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>455</v>
+        <v>140</v>
+      </c>
+      <c r="B255" t="s">
+        <v>141</v>
       </c>
       <c r="C255" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>799</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>800</v>
+        <v>144</v>
+      </c>
+      <c r="B256" t="s">
+        <v>145</v>
       </c>
       <c r="C256" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>468</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>469</v>
+        <v>247</v>
+      </c>
+      <c r="B257" t="s">
+        <v>246</v>
       </c>
       <c r="C257" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>457</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>798</v>
+        <v>250</v>
+      </c>
+      <c r="B258" t="s">
+        <v>252</v>
       </c>
       <c r="C258" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>470</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>458</v>
+        <v>771</v>
+      </c>
+      <c r="B259" t="s">
+        <v>812</v>
       </c>
       <c r="C259" t="s">
-        <v>203</v>
+        <v>727</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>471</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>459</v>
+        <v>1037</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1038</v>
       </c>
       <c r="C260" t="s">
-        <v>203</v>
+        <v>727</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>643</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>644</v>
+        <v>123</v>
+      </c>
+      <c r="B261" t="s">
+        <v>124</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>462</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>644</v>
+        <v>125</v>
+      </c>
+      <c r="B262" t="s">
+        <v>126</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>472</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>644</v>
+        <v>214</v>
+      </c>
+      <c r="B263" t="s">
+        <v>132</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>473</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>645</v>
+        <v>611</v>
+      </c>
+      <c r="B264" t="s">
+        <v>610</v>
       </c>
       <c r="C264" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>474</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>646</v>
+        <v>267</v>
+      </c>
+      <c r="B265" t="s">
+        <v>262</v>
       </c>
       <c r="C265" t="s">
-        <v>203</v>
+        <v>601</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>795</v>
+        <v>546</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>796</v>
+        <v>547</v>
       </c>
       <c r="C266" t="s">
-        <v>203</v>
+        <v>601</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>475</v>
+        <v>549</v>
       </c>
       <c r="C267" t="s">
-        <v>203</v>
+        <v>601</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>794</v>
+        <v>551</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>647</v>
+        <v>550</v>
       </c>
       <c r="C268" t="s">
-        <v>203</v>
+        <v>601</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>793</v>
+        <v>671</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="C269" t="s">
-        <v>203</v>
+        <v>601</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>477</v>
+        <v>667</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>478</v>
+        <v>666</v>
       </c>
       <c r="C270" t="s">
-        <v>203</v>
+        <v>601</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>530</v>
+        <v>668</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>479</v>
+        <v>669</v>
       </c>
       <c r="C271" t="s">
-        <v>203</v>
+        <v>601</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>481</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>480</v>
+        <v>974</v>
+      </c>
+      <c r="B272" t="s">
+        <v>973</v>
       </c>
       <c r="C272" t="s">
-        <v>649</v>
+        <v>986</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>483</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>482</v>
+        <v>977</v>
+      </c>
+      <c r="B273" t="s">
+        <v>978</v>
       </c>
       <c r="C273" t="s">
-        <v>203</v>
+        <v>987</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>484</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>551</v>
+        <v>302</v>
+      </c>
+      <c r="B274" t="s">
+        <v>838</v>
       </c>
       <c r="C274" t="s">
-        <v>203</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>502</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>550</v>
+        <v>1069</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1070</v>
       </c>
       <c r="C275" t="s">
-        <v>203</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>549</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>850</v>
+        <v>1079</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1080</v>
       </c>
       <c r="C276" t="s">
-        <v>203</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>503</v>
+        <v>695</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>851</v>
+        <v>692</v>
       </c>
       <c r="C277" t="s">
-        <v>203</v>
+        <v>701</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>509</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>504</v>
+        <v>36</v>
+      </c>
+      <c r="B278" t="s">
+        <v>37</v>
       </c>
       <c r="C278" t="s">
-        <v>203</v>
+        <v>561</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>506</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>505</v>
+        <v>282</v>
+      </c>
+      <c r="B279" t="s">
+        <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>203</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>507</v>
+        <v>560</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>508</v>
+        <v>642</v>
       </c>
       <c r="C280" t="s">
-        <v>203</v>
+        <v>561</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>547</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>548</v>
+        <v>732</v>
+      </c>
+      <c r="B281" t="s">
+        <v>730</v>
       </c>
       <c r="C281" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>546</v>
+        <v>777</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C282" t="s">
-        <v>203</v>
+        <v>515</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>848</v>
+        <v>517</v>
       </c>
       <c r="C283" t="s">
-        <v>203</v>
+        <v>515</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C284" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>520</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C285" t="s">
         <v>515</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C285" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="C286" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="C287" t="s">
-        <v>518</v>
+        <v>928</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="C288" t="s">
-        <v>203</v>
+        <v>512</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="C289" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>522</v>
+        <v>780</v>
       </c>
       <c r="C290" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C291" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -7008,392 +7149,392 @@
         <v>541</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="C292" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C293" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>539</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>540</v>
+        <v>1004</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1003</v>
       </c>
       <c r="C294" t="s">
-        <v>939</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>552</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>553</v>
+        <v>1021</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1005</v>
       </c>
       <c r="C295" t="s">
-        <v>608</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>554</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>555</v>
+        <v>1022</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1006</v>
       </c>
       <c r="C296" t="s">
-        <v>608</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>557</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>556</v>
+        <v>85</v>
+      </c>
+      <c r="B297" t="s">
+        <v>846</v>
       </c>
       <c r="C297" t="s">
-        <v>608</v>
+        <v>208</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>558</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>559</v>
+        <v>86</v>
+      </c>
+      <c r="B298" t="s">
+        <v>845</v>
       </c>
       <c r="C298" t="s">
-        <v>568</v>
+        <v>208</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>560</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>561</v>
+        <v>91</v>
+      </c>
+      <c r="B299" t="s">
+        <v>92</v>
       </c>
       <c r="C299" t="s">
-        <v>568</v>
+        <v>228</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>562</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>563</v>
+        <v>101</v>
+      </c>
+      <c r="B300" t="s">
+        <v>102</v>
       </c>
       <c r="C300" t="s">
-        <v>568</v>
+        <v>228</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>564</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>565</v>
+        <v>232</v>
+      </c>
+      <c r="B301" t="s">
+        <v>842</v>
       </c>
       <c r="C301" t="s">
-        <v>568</v>
+        <v>228</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>566</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>650</v>
+        <v>593</v>
+      </c>
+      <c r="B302" t="s">
+        <v>843</v>
       </c>
       <c r="C302" t="s">
-        <v>567</v>
+        <v>228</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>663</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>664</v>
+        <v>594</v>
+      </c>
+      <c r="B303" t="s">
+        <v>844</v>
       </c>
       <c r="C303" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>665</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>666</v>
+        <v>293</v>
+      </c>
+      <c r="B304" t="s">
+        <v>294</v>
       </c>
       <c r="C304" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>667</v>
+        <v>792</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>668</v>
+        <v>793</v>
       </c>
       <c r="C305" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>672</v>
+        <v>457</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>669</v>
+        <v>791</v>
       </c>
       <c r="C306" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>671</v>
+        <v>461</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>670</v>
+        <v>790</v>
       </c>
       <c r="C307" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>680</v>
+      <c r="A308" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>673</v>
+        <v>435</v>
       </c>
       <c r="C308" t="s">
-        <v>649</v>
+        <v>794</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>679</v>
+      <c r="A309" s="3" t="s">
+        <v>632</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>678</v>
+        <v>436</v>
       </c>
       <c r="C309" t="s">
-        <v>608</v>
+        <v>794</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>675</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>674</v>
+        <v>622</v>
+      </c>
+      <c r="B310" t="s">
+        <v>808</v>
       </c>
       <c r="C310" t="s">
-        <v>608</v>
+        <v>394</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>676</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>677</v>
+        <v>883</v>
+      </c>
+      <c r="B311" t="s">
+        <v>882</v>
       </c>
       <c r="C311" t="s">
-        <v>608</v>
+        <v>891</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>690</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>687</v>
+        <v>885</v>
+      </c>
+      <c r="B312" t="s">
+        <v>884</v>
       </c>
       <c r="C312" t="s">
-        <v>203</v>
+        <v>891</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>688</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>689</v>
+        <v>886</v>
+      </c>
+      <c r="B313" t="s">
+        <v>887</v>
       </c>
       <c r="C313" t="s">
-        <v>691</v>
+        <v>891</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>693</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>692</v>
+        <v>892</v>
+      </c>
+      <c r="B314" t="s">
+        <v>893</v>
       </c>
       <c r="C314" t="s">
-        <v>203</v>
+        <v>891</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>695</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>696</v>
+        <v>894</v>
+      </c>
+      <c r="B315" t="s">
+        <v>895</v>
       </c>
       <c r="C315" t="s">
-        <v>698</v>
+        <v>891</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>697</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>694</v>
+        <v>896</v>
+      </c>
+      <c r="B316" t="s">
+        <v>897</v>
       </c>
       <c r="C316" t="s">
-        <v>698</v>
+        <v>891</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>704</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>699</v>
+        <v>898</v>
+      </c>
+      <c r="B317" t="s">
+        <v>899</v>
       </c>
       <c r="C317" t="s">
-        <v>466</v>
+        <v>891</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>820</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>821</v>
+        <v>900</v>
+      </c>
+      <c r="B318" t="s">
+        <v>901</v>
       </c>
       <c r="C318" t="s">
-        <v>466</v>
+        <v>891</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>703</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>700</v>
+        <v>38</v>
+      </c>
+      <c r="B319" t="s">
+        <v>39</v>
       </c>
       <c r="C319" t="s">
-        <v>710</v>
+        <v>204</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>701</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>702</v>
+        <v>336</v>
+      </c>
+      <c r="B320" t="s">
+        <v>337</v>
       </c>
       <c r="C320" t="s">
-        <v>203</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>706</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>705</v>
+        <v>338</v>
+      </c>
+      <c r="B321" t="s">
+        <v>603</v>
       </c>
       <c r="C321" t="s">
-        <v>203</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>723</v>
+        <v>340</v>
       </c>
       <c r="B322" t="s">
-        <v>787</v>
+        <v>339</v>
       </c>
       <c r="C322" t="s">
-        <v>709</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>785</v>
+        <v>70</v>
       </c>
       <c r="B323" t="s">
-        <v>786</v>
+        <v>71</v>
       </c>
       <c r="C323" t="s">
-        <v>466</v>
+        <v>888</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>727</v>
+        <v>275</v>
       </c>
       <c r="B324" t="s">
-        <v>726</v>
+        <v>274</v>
       </c>
       <c r="C324" t="s">
-        <v>466</v>
+        <v>888</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>728</v>
+        <v>111</v>
       </c>
       <c r="B325" t="s">
-        <v>784</v>
+        <v>112</v>
       </c>
       <c r="C325" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>730</v>
+        <v>113</v>
       </c>
       <c r="B326" t="s">
-        <v>1048</v>
+        <v>209</v>
       </c>
       <c r="C326" t="s">
-        <v>729</v>
+        <v>210</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>732</v>
+        <v>807</v>
       </c>
       <c r="B327" t="s">
-        <v>731</v>
+        <v>114</v>
       </c>
       <c r="C327" t="s">
         <v>210</v>
@@ -7401,10 +7542,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>783</v>
+        <v>115</v>
       </c>
       <c r="B328" t="s">
-        <v>733</v>
+        <v>116</v>
       </c>
       <c r="C328" t="s">
         <v>210</v>
@@ -7412,10 +7553,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>736</v>
+        <v>146</v>
       </c>
       <c r="B329" t="s">
-        <v>737</v>
+        <v>147</v>
       </c>
       <c r="C329" t="s">
         <v>210</v>
@@ -7423,10 +7564,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="B330" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="C330" t="s">
         <v>210</v>
@@ -7434,948 +7575,1212 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="B331" t="s">
-        <v>823</v>
+        <v>722</v>
       </c>
       <c r="C331" t="s">
-        <v>738</v>
+        <v>210</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="B332" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="C332" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>753</v>
+        <v>724</v>
       </c>
       <c r="B333" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="C333" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>743</v>
-      </c>
-      <c r="B334" t="s">
-        <v>741</v>
-      </c>
-      <c r="C334" t="s">
-        <v>567</v>
+      <c r="A334" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>780</v>
-      </c>
-      <c r="B335" t="s">
-        <v>781</v>
-      </c>
-      <c r="C335" t="s">
-        <v>203</v>
+      <c r="A335" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>750</v>
-      </c>
-      <c r="B336" t="s">
-        <v>779</v>
-      </c>
-      <c r="C336" t="s">
-        <v>203</v>
+      <c r="A336" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>751</v>
-      </c>
-      <c r="B337" t="s">
-        <v>778</v>
-      </c>
-      <c r="C337" t="s">
-        <v>203</v>
+      <c r="A337" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>752</v>
-      </c>
-      <c r="B338" t="s">
-        <v>777</v>
-      </c>
-      <c r="C338" t="s">
-        <v>203</v>
+        <v>635</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>749</v>
-      </c>
-      <c r="B339" t="s">
-        <v>776</v>
-      </c>
-      <c r="C339" t="s">
-        <v>203</v>
+        <v>456</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>774</v>
-      </c>
-      <c r="B340" t="s">
-        <v>775</v>
-      </c>
-      <c r="C340" t="s">
-        <v>203</v>
+        <v>466</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>773</v>
+        <v>348</v>
       </c>
       <c r="B341" t="s">
-        <v>772</v>
+        <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>744</v>
+        <v>614</v>
       </c>
       <c r="B342" t="s">
-        <v>771</v>
+        <v>795</v>
       </c>
       <c r="C342" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>869</v>
+        <v>381</v>
       </c>
       <c r="B343" t="s">
-        <v>770</v>
+        <v>378</v>
       </c>
       <c r="C343" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>748</v>
+        <v>383</v>
       </c>
       <c r="B344" t="s">
-        <v>769</v>
+        <v>382</v>
       </c>
       <c r="C344" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>747</v>
+        <v>384</v>
       </c>
       <c r="B345" t="s">
-        <v>822</v>
+        <v>350</v>
       </c>
       <c r="C345" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>746</v>
+        <v>351</v>
       </c>
       <c r="B346" t="s">
-        <v>745</v>
+        <v>352</v>
       </c>
       <c r="C346" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>789</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>790</v>
+        <v>615</v>
+      </c>
+      <c r="B347" t="s">
+        <v>385</v>
       </c>
       <c r="C347" t="s">
-        <v>521</v>
+        <v>690</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>825</v>
+        <v>386</v>
       </c>
       <c r="B348" t="s">
-        <v>824</v>
+        <v>616</v>
       </c>
       <c r="C348" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>936</v>
+        <v>353</v>
       </c>
       <c r="B349" t="s">
-        <v>864</v>
+        <v>354</v>
       </c>
       <c r="C349" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>866</v>
+        <v>617</v>
       </c>
       <c r="B350" t="s">
-        <v>865</v>
+        <v>387</v>
       </c>
       <c r="C350" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>868</v>
+        <v>618</v>
       </c>
       <c r="B351" t="s">
-        <v>867</v>
+        <v>355</v>
       </c>
       <c r="C351" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>870</v>
+        <v>388</v>
       </c>
       <c r="B352" t="s">
-        <v>871</v>
+        <v>710</v>
       </c>
       <c r="C352" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>875</v>
+        <v>389</v>
       </c>
       <c r="B353" t="s">
-        <v>872</v>
+        <v>796</v>
       </c>
       <c r="C353" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>873</v>
-      </c>
-      <c r="B354" t="s">
-        <v>874</v>
+        <v>687</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>688</v>
       </c>
       <c r="C354" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>886</v>
-      </c>
-      <c r="B355" t="s">
-        <v>876</v>
+        <v>689</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>686</v>
       </c>
       <c r="C355" t="s">
-        <v>203</v>
+        <v>690</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>880</v>
-      </c>
-      <c r="B356" t="s">
-        <v>877</v>
+      <c r="A356" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="C356" t="s">
-        <v>203</v>
+        <v>460</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>879</v>
-      </c>
-      <c r="B357" t="s">
-        <v>878</v>
+      <c r="A357" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="C357" t="s">
-        <v>203</v>
+        <v>460</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>882</v>
-      </c>
-      <c r="B358" t="s">
-        <v>883</v>
+      <c r="A358" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="C358" t="s">
-        <v>203</v>
+        <v>460</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>884</v>
-      </c>
-      <c r="B359" t="s">
-        <v>885</v>
+        <v>696</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="C359" t="s">
-        <v>203</v>
+        <v>460</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>888</v>
-      </c>
-      <c r="B360" t="s">
-        <v>887</v>
+        <v>809</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>810</v>
       </c>
       <c r="C360" t="s">
-        <v>203</v>
+        <v>460</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>889</v>
+        <v>774</v>
       </c>
       <c r="B361" t="s">
-        <v>890</v>
+        <v>775</v>
       </c>
       <c r="C361" t="s">
-        <v>203</v>
+        <v>460</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>891</v>
+        <v>716</v>
       </c>
       <c r="B362" t="s">
-        <v>892</v>
+        <v>715</v>
       </c>
       <c r="C362" t="s">
-        <v>203</v>
+        <v>460</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>894</v>
+        <v>926</v>
       </c>
       <c r="B363" t="s">
-        <v>893</v>
+        <v>927</v>
       </c>
       <c r="C363" t="s">
-        <v>902</v>
+        <v>460</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>896</v>
+        <v>127</v>
       </c>
       <c r="B364" t="s">
-        <v>895</v>
+        <v>128</v>
       </c>
       <c r="C364" t="s">
-        <v>902</v>
+        <v>327</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>897</v>
+        <v>129</v>
       </c>
       <c r="B365" t="s">
-        <v>898</v>
+        <v>130</v>
       </c>
       <c r="C365" t="s">
-        <v>902</v>
+        <v>327</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>903</v>
+        <v>607</v>
       </c>
       <c r="B366" t="s">
-        <v>904</v>
+        <v>801</v>
       </c>
       <c r="C366" t="s">
-        <v>902</v>
+        <v>327</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>905</v>
+        <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>906</v>
+        <v>800</v>
       </c>
       <c r="C367" t="s">
-        <v>902</v>
+        <v>327</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>907</v>
+        <v>369</v>
       </c>
       <c r="B368" t="s">
-        <v>908</v>
+        <v>368</v>
       </c>
       <c r="C368" t="s">
-        <v>902</v>
+        <v>327</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>909</v>
+        <v>608</v>
       </c>
       <c r="B369" t="s">
-        <v>910</v>
+        <v>609</v>
       </c>
       <c r="C369" t="s">
-        <v>902</v>
+        <v>327</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>911</v>
+        <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>912</v>
+        <v>798</v>
       </c>
       <c r="C370" t="s">
-        <v>902</v>
+        <v>327</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>937</v>
+        <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>938</v>
+        <v>797</v>
       </c>
       <c r="C371" t="s">
-        <v>466</v>
+        <v>327</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>940</v>
+        <v>373</v>
       </c>
       <c r="B372" t="s">
-        <v>941</v>
+        <v>799</v>
       </c>
       <c r="C372" t="s">
-        <v>203</v>
+        <v>327</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>942</v>
+        <v>72</v>
       </c>
       <c r="B373" t="s">
-        <v>944</v>
+        <v>270</v>
       </c>
       <c r="C373" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>943</v>
+        <v>273</v>
       </c>
       <c r="B374" t="s">
-        <v>946</v>
+        <v>272</v>
       </c>
       <c r="C374" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>945</v>
+        <v>121</v>
       </c>
       <c r="B375" t="s">
-        <v>947</v>
+        <v>122</v>
       </c>
       <c r="C375" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>949</v>
+        <v>341</v>
       </c>
       <c r="B376" t="s">
-        <v>948</v>
+        <v>325</v>
       </c>
       <c r="C376" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>950</v>
+        <v>356</v>
       </c>
       <c r="B377" t="s">
-        <v>951</v>
+        <v>604</v>
       </c>
       <c r="C377" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>952</v>
+        <v>358</v>
       </c>
       <c r="B378" t="s">
-        <v>953</v>
+        <v>357</v>
       </c>
       <c r="C378" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>955</v>
+        <v>360</v>
       </c>
       <c r="B379" t="s">
-        <v>954</v>
+        <v>359</v>
       </c>
       <c r="C379" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>956</v>
+        <v>362</v>
       </c>
       <c r="B380" t="s">
-        <v>957</v>
+        <v>361</v>
       </c>
       <c r="C380" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>958</v>
+        <v>364</v>
       </c>
       <c r="B381" t="s">
-        <v>959</v>
+        <v>363</v>
       </c>
       <c r="C381" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>961</v>
+        <v>605</v>
       </c>
       <c r="B382" t="s">
-        <v>960</v>
+        <v>804</v>
       </c>
       <c r="C382" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>962</v>
+        <v>606</v>
       </c>
       <c r="B383" t="s">
-        <v>963</v>
+        <v>805</v>
       </c>
       <c r="C383" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>964</v>
+        <v>365</v>
       </c>
       <c r="B384" t="s">
-        <v>965</v>
+        <v>806</v>
       </c>
       <c r="C384" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>966</v>
+        <v>366</v>
       </c>
       <c r="B385" t="s">
-        <v>967</v>
+        <v>802</v>
       </c>
       <c r="C385" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>969</v>
+        <v>51</v>
       </c>
       <c r="B386" t="s">
-        <v>968</v>
+        <v>52</v>
       </c>
       <c r="C386" t="s">
-        <v>203</v>
+        <v>803</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>971</v>
+        <v>525</v>
       </c>
       <c r="B387" t="s">
-        <v>970</v>
+        <v>278</v>
       </c>
       <c r="C387" t="s">
-        <v>203</v>
+        <v>803</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>972</v>
+        <v>1047</v>
       </c>
       <c r="B388" t="s">
-        <v>973</v>
+        <v>1048</v>
       </c>
       <c r="C388" t="s">
-        <v>203</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>974</v>
+        <v>1042</v>
       </c>
       <c r="B389" t="s">
-        <v>975</v>
+        <v>1041</v>
       </c>
       <c r="C389" t="s">
-        <v>203</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>976</v>
+        <v>1044</v>
       </c>
       <c r="B390" t="s">
-        <v>977</v>
+        <v>1043</v>
       </c>
       <c r="C390" t="s">
-        <v>203</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>978</v>
+        <v>1046</v>
       </c>
       <c r="B391" t="s">
-        <v>979</v>
+        <v>1045</v>
       </c>
       <c r="C391" t="s">
-        <v>217</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>980</v>
+        <v>1049</v>
       </c>
       <c r="B392" t="s">
-        <v>981</v>
+        <v>1039</v>
       </c>
       <c r="C392" t="s">
-        <v>203</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="B393" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="C393" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C394" t="s">
         <v>985</v>
-      </c>
-      <c r="B394" t="s">
-        <v>984</v>
-      </c>
-      <c r="C394" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>986</v>
-      </c>
-      <c r="B395" t="s">
-        <v>987</v>
+        <v>552</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>553</v>
       </c>
       <c r="C395" t="s">
-        <v>203</v>
+        <v>890</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>988</v>
-      </c>
-      <c r="B396" t="s">
-        <v>989</v>
+        <v>554</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="C396" t="s">
-        <v>998</v>
+        <v>890</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>990</v>
-      </c>
-      <c r="B397" t="s">
-        <v>992</v>
+        <v>556</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="C397" t="s">
-        <v>991</v>
+        <v>890</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>999</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1038</v>
+        <v>558</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="C398" t="s">
-        <v>203</v>
+        <v>890</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>993</v>
+        <v>403</v>
       </c>
       <c r="B399" t="s">
-        <v>994</v>
+        <v>402</v>
       </c>
       <c r="C399" t="s">
-        <v>203</v>
+        <v>890</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>995</v>
+        <v>404</v>
       </c>
       <c r="B400" t="s">
-        <v>1041</v>
+        <v>405</v>
       </c>
       <c r="C400" t="s">
-        <v>203</v>
+        <v>890</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1040</v>
+        <v>407</v>
       </c>
       <c r="B401" t="s">
-        <v>1039</v>
+        <v>406</v>
       </c>
       <c r="C401" t="s">
-        <v>203</v>
+        <v>890</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1003</v>
+        <v>409</v>
       </c>
       <c r="B402" t="s">
-        <v>1000</v>
+        <v>408</v>
       </c>
       <c r="C402" t="s">
-        <v>203</v>
+        <v>890</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1002</v>
+        <v>410</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>681</v>
       </c>
       <c r="C403" t="s">
-        <v>203</v>
+        <v>890</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1007</v>
+        <v>411</v>
       </c>
       <c r="B404" t="s">
-        <v>1004</v>
+        <v>623</v>
       </c>
       <c r="C404" t="s">
-        <v>203</v>
+        <v>890</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1006</v>
+        <v>417</v>
       </c>
       <c r="B405" t="s">
-        <v>1005</v>
+        <v>416</v>
       </c>
       <c r="C405" t="s">
-        <v>203</v>
+        <v>890</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1008</v>
+        <v>418</v>
       </c>
       <c r="B406" t="s">
-        <v>1009</v>
+        <v>624</v>
       </c>
       <c r="C406" t="s">
-        <v>203</v>
+        <v>890</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1011</v>
+      <c r="A407" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="C407" t="s">
-        <v>203</v>
+        <v>890</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1013</v>
+      <c r="A408" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="C408" t="s">
-        <v>1014</v>
+        <v>890</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1015</v>
+      <c r="A409" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>625</v>
       </c>
       <c r="C409" t="s">
-        <v>1019</v>
+        <v>890</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1017</v>
+      <c r="A410" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C410" t="s">
-        <v>1019</v>
+        <v>890</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1018</v>
+      <c r="A411" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="C411" t="s">
-        <v>1019</v>
+        <v>890</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1035</v>
+        <v>49</v>
       </c>
       <c r="B412" t="s">
-        <v>1036</v>
+        <v>50</v>
       </c>
       <c r="C412" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1020</v>
+        <v>276</v>
       </c>
       <c r="B413" t="s">
-        <v>1037</v>
+        <v>277</v>
       </c>
       <c r="C413" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1042</v>
+        <v>148</v>
       </c>
       <c r="B414" t="s">
-        <v>1043</v>
+        <v>149</v>
       </c>
       <c r="C414" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1044</v>
+        <v>967</v>
       </c>
       <c r="B415" t="s">
-        <v>1045</v>
+        <v>968</v>
       </c>
       <c r="C415" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1046</v>
+        <v>680</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>681</v>
       </c>
       <c r="C416" t="s">
-        <v>203</v>
+        <v>683</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>292</v>
+      </c>
+      <c r="B417" t="s">
+        <v>297</v>
+      </c>
+      <c r="C417" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>299</v>
+      </c>
+      <c r="B418" t="s">
+        <v>298</v>
+      </c>
+      <c r="C418" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>323</v>
+      </c>
+      <c r="B419" t="s">
+        <v>322</v>
+      </c>
+      <c r="C419" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>699</v>
+      </c>
+      <c r="B420" t="s">
+        <v>324</v>
+      </c>
+      <c r="C420" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>329</v>
+      </c>
+      <c r="B421" t="s">
+        <v>328</v>
+      </c>
+      <c r="C421" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>331</v>
+      </c>
+      <c r="B422" t="s">
+        <v>330</v>
+      </c>
+      <c r="C422" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>332</v>
+      </c>
+      <c r="B423" t="s">
+        <v>333</v>
+      </c>
+      <c r="C423" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>335</v>
+      </c>
+      <c r="B424" t="s">
+        <v>334</v>
+      </c>
+      <c r="C424" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>712</v>
+      </c>
+      <c r="B425" t="s">
+        <v>776</v>
+      </c>
+      <c r="C425" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>12</v>
+      </c>
+      <c r="B426" t="s">
+        <v>13</v>
+      </c>
+      <c r="C426" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>268</v>
+      </c>
+      <c r="B427" t="s">
+        <v>269</v>
+      </c>
+      <c r="C427" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>475</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C428" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>672</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C429" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>30</v>
+      </c>
+      <c r="B433" t="s">
+        <v>31</v>
+      </c>
+      <c r="C433" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B434" t="s">
+        <v>280</v>
+      </c>
+      <c r="C434" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C435" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C436" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -8406,198 +8811,198 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D3" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="D5" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="D6" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="D7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="D11" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D12" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D13" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D14" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -8622,120 +9027,120 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" t="s">
         <v>571</v>
-      </c>
-      <c r="B2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B4" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C4" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C5" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C6" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B8" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C8" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B9" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C9" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B10" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C10" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B11" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C11" t="s">
         <v>203</v>
@@ -8743,178 +9148,178 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B12" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C12" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="C17" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="C19" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>828</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>837</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>839</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>840</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>762</v>
+      <c r="C21" s="6" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>756</v>
+      <c r="A22" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="B24" s="7" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B27" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>835</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -8938,7 +9343,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>200</v>
@@ -8946,130 +9351,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B4" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B5" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B6" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B8" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B9" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B10" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B11" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B12" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B13" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="B14" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="B15" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B16" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="B17" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -9081,7 +9486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB39071-8DA3-452E-AE5A-693AF3A46CA8}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9093,114 +9498,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B2" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B3" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="B4" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="B5" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="B6" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="B7" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="B8" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="B9" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="B10" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="B11" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="B12" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="B13" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="B14" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -9226,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="4" spans="12:16" x14ac:dyDescent="0.25">
@@ -9234,7 +9639,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="5" spans="12:16" x14ac:dyDescent="0.25">
@@ -9242,7 +9647,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="6" spans="12:16" x14ac:dyDescent="0.25">
@@ -9250,7 +9655,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="7" spans="12:16" x14ac:dyDescent="0.25">
@@ -9258,7 +9663,7 @@
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="8" spans="12:16" x14ac:dyDescent="0.25">
@@ -9266,7 +9671,7 @@
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="9" spans="12:16" x14ac:dyDescent="0.25">
@@ -9274,7 +9679,7 @@
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="10" spans="12:16" x14ac:dyDescent="0.25">
@@ -9282,7 +9687,7 @@
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="11" spans="12:16" x14ac:dyDescent="0.25">
@@ -9290,10 +9695,10 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="P11" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="13" spans="12:16" x14ac:dyDescent="0.25">
@@ -9301,7 +9706,7 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="14" spans="12:16" x14ac:dyDescent="0.25">
@@ -9309,7 +9714,7 @@
         <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="15" spans="12:16" x14ac:dyDescent="0.25">

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C453DF0D-AE18-4A6C-97A3-39B6FC068A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA160175-6FE5-4849-A99E-97B0FDB582AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$347:$C$347</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$440</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$478</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="1172">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -1261,9 +1261,6 @@
     <t>Karl said that he had a house there and he asked if she would like to visit the area.</t>
   </si>
   <si>
-    <t>I want then to give it to me in hand</t>
-  </si>
-  <si>
     <t>Quiero que me lo den en mano</t>
   </si>
   <si>
@@ -1279,9 +1276,6 @@
     <t>Necesito que ellos me ayuden con esto</t>
   </si>
   <si>
-    <t>What do they want us to do?</t>
-  </si>
-  <si>
     <t>Que quieren que hagamos con esto?</t>
   </si>
   <si>
@@ -2734,9 +2728,6 @@
     <t>Le hice pedir perdón</t>
   </si>
   <si>
-    <t>I meade him apologize</t>
-  </si>
-  <si>
     <t>Sus profesores le hicieron hacer el examen de nuevo</t>
   </si>
   <si>
@@ -3341,6 +3332,243 @@
   </si>
   <si>
     <t>pedro está a cargo del depertamento de finanzas</t>
+  </si>
+  <si>
+    <t>I want them to give it to me in hand</t>
+  </si>
+  <si>
+    <t>What do they want us to do with this?</t>
+  </si>
+  <si>
+    <t>What do they want me to do?</t>
+  </si>
+  <si>
+    <t>I made him apologize</t>
+  </si>
+  <si>
+    <t>le dejas reirse</t>
+  </si>
+  <si>
+    <t>You let him laugh</t>
+  </si>
+  <si>
+    <t>No me dejes hacerlo</t>
+  </si>
+  <si>
+    <t>Don't let me do it</t>
+  </si>
+  <si>
+    <t>Me dejaron dar un discurso</t>
+  </si>
+  <si>
+    <t>Theylet me give a speech</t>
+  </si>
+  <si>
+    <t>Le dejè pedir perdón</t>
+  </si>
+  <si>
+    <t>I let him apologize</t>
+  </si>
+  <si>
+    <t>Sus profesores dejaron hacer el examen de nuevo</t>
+  </si>
+  <si>
+    <t>His teachers let him do the exam again</t>
+  </si>
+  <si>
+    <t>I'm going to let them swet</t>
+  </si>
+  <si>
+    <t>les voy a dejar que suden</t>
+  </si>
+  <si>
+    <t>Esto no está al día</t>
+  </si>
+  <si>
+    <t>This isn't up to date</t>
+  </si>
+  <si>
+    <t>Tenemos que actualizar las cifras</t>
+  </si>
+  <si>
+    <t>We've to update the figures</t>
+  </si>
+  <si>
+    <t>El restaurante estaba tan lleno que fuimos a otro</t>
+  </si>
+  <si>
+    <t>The restaurant was so full that we went to anotherone</t>
+  </si>
+  <si>
+    <t>El restaurante estaba tan lleno que fuimos al otro</t>
+  </si>
+  <si>
+    <t>No matter you talk to him, you're not going to convince him</t>
+  </si>
+  <si>
+    <t>Por mucho que hables con el, no vas a convencerle</t>
+  </si>
+  <si>
+    <t>Subir las cejas</t>
+  </si>
+  <si>
+    <t>To raise your eyebrow</t>
+  </si>
+  <si>
+    <t>dulce</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>agrio</t>
+  </si>
+  <si>
+    <t>souer</t>
+  </si>
+  <si>
+    <t>amargo</t>
+  </si>
+  <si>
+    <t>bitter</t>
+  </si>
+  <si>
+    <t>regusto</t>
+  </si>
+  <si>
+    <t>spicy</t>
+  </si>
+  <si>
+    <t>after taste</t>
+  </si>
+  <si>
+    <t>picante</t>
+  </si>
+  <si>
+    <t>sabroso</t>
+  </si>
+  <si>
+    <t>tasty</t>
+  </si>
+  <si>
+    <t>delicioso</t>
+  </si>
+  <si>
+    <t>Delicious/ mouthwatering</t>
+  </si>
+  <si>
+    <t>empalagoso</t>
+  </si>
+  <si>
+    <t>sikly</t>
+  </si>
+  <si>
+    <t>The restaurant was so full that we went to the other one</t>
+  </si>
+  <si>
+    <t>divertido</t>
+  </si>
+  <si>
+    <t>gracioso</t>
+  </si>
+  <si>
+    <t>Entré en la empresa hace varios años</t>
+  </si>
+  <si>
+    <t>I joined the company many yeasr ago</t>
+  </si>
+  <si>
+    <t>I thought he was being serious, but then he winked at me.</t>
+  </si>
+  <si>
+    <t>Pensé que iba en serio, pero entonces me guñó un ojo</t>
+  </si>
+  <si>
+    <t>He frowned as he read the instructions</t>
+  </si>
+  <si>
+    <t>Frunció el ceño según leía las instrucciones</t>
+  </si>
+  <si>
+    <t>She's aged since the last time we met</t>
+  </si>
+  <si>
+    <t>Ha envejecido desde la última vez que nos vimos</t>
+  </si>
+  <si>
+    <t>Many people in the audience nodded.</t>
+  </si>
+  <si>
+    <t>Mucha gente del público asintío .</t>
+  </si>
+  <si>
+    <t>Don't stare at people like that - it's rude.</t>
+  </si>
+  <si>
+    <t>No mires fijamente a la gente de esa forma, es de mala educación</t>
+  </si>
+  <si>
+    <t>to burn the midnight oil</t>
+  </si>
+  <si>
+    <t>Cambiar de opinion</t>
+  </si>
+  <si>
+    <t>To have a change of heart</t>
+  </si>
+  <si>
+    <t>estar hasta tarde levanatado</t>
+  </si>
+  <si>
+    <t>expressions</t>
+  </si>
+  <si>
+    <t>night owl</t>
+  </si>
+  <si>
+    <t>early bird</t>
+  </si>
+  <si>
+    <t>To go the extramile</t>
+  </si>
+  <si>
+    <t>hacer algo extra</t>
+  </si>
+  <si>
+    <t>madrugador</t>
+  </si>
+  <si>
+    <t>transnochador</t>
+  </si>
+  <si>
+    <t>To think outside the box</t>
+  </si>
+  <si>
+    <t>ser ceativo</t>
+  </si>
+  <si>
+    <t>estar orgulloso de algo</t>
+  </si>
+  <si>
+    <t>To keep your chin up</t>
+  </si>
+  <si>
+    <t>a ball part figure</t>
+  </si>
+  <si>
+    <t>To get a taste of your own medicine</t>
+  </si>
+  <si>
+    <t>probar to propia medicina</t>
+  </si>
+  <si>
+    <t>una aproximación (un numero gordo)</t>
+  </si>
+  <si>
+    <t>To be on the ball</t>
+  </si>
+  <si>
+    <t>estar atento</t>
   </si>
 </sst>
 </file>
@@ -3427,7 +3655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3436,6 +3664,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3616,8 +3845,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C440" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C440" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C478" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C478" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C434">
     <sortCondition ref="C1:C434"/>
   </sortState>
@@ -3930,10 +4159,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C440"/>
+  <dimension ref="A1:C478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B437" sqref="B437"/>
+    <sheetView tabSelected="1" topLeftCell="A455" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B482" sqref="B482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3956,13 +4185,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3970,7 +4199,7 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C3" t="s">
         <v>205</v>
@@ -3978,10 +4207,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B4" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C4" t="s">
         <v>205</v>
@@ -3995,7 +4224,7 @@
         <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4223,7 +4452,7 @@
         <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C26" t="s">
         <v>203</v>
@@ -4825,10 +5054,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B81" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C81" t="s">
         <v>203</v>
@@ -4861,7 +5090,7 @@
         <v>223</v>
       </c>
       <c r="B84" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C84" t="s">
         <v>203</v>
@@ -4883,7 +5112,7 @@
         <v>221</v>
       </c>
       <c r="B86" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C86" t="s">
         <v>203</v>
@@ -4913,7 +5142,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>227</v>
@@ -4957,7 +5186,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B93" t="s">
         <v>236</v>
@@ -4968,7 +5197,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B94" t="s">
         <v>238</v>
@@ -4979,7 +5208,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B95" t="s">
         <v>237</v>
@@ -4990,7 +5219,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B96" t="s">
         <v>239</v>
@@ -5056,7 +5285,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B102" t="s">
         <v>257</v>
@@ -5100,7 +5329,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B106" t="s">
         <v>261</v>
@@ -5235,7 +5464,7 @@
         <v>321</v>
       </c>
       <c r="B118" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C118" t="s">
         <v>203</v>
@@ -5265,7 +5494,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B121" t="s">
         <v>344</v>
@@ -5279,7 +5508,7 @@
         <v>347</v>
       </c>
       <c r="B122" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C122" t="s">
         <v>203</v>
@@ -5290,7 +5519,7 @@
         <v>372</v>
       </c>
       <c r="B123" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C123" t="s">
         <v>203</v>
@@ -5298,10 +5527,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B124" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C124" t="s">
         <v>203</v>
@@ -5397,10 +5626,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>203</v>
@@ -5408,10 +5637,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C134" t="s">
         <v>203</v>
@@ -5419,10 +5648,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>203</v>
@@ -5430,10 +5659,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C136" t="s">
         <v>203</v>
@@ -5441,10 +5670,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C137" t="s">
         <v>203</v>
@@ -5452,10 +5681,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C138" t="s">
         <v>203</v>
@@ -5463,10 +5692,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C139" t="s">
         <v>203</v>
@@ -5474,10 +5703,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C140" t="s">
         <v>203</v>
@@ -5485,10 +5714,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C141" t="s">
         <v>203</v>
@@ -5496,10 +5725,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C142" t="s">
         <v>203</v>
@@ -5507,10 +5736,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C143" t="s">
         <v>203</v>
@@ -5518,10 +5747,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C144" t="s">
         <v>203</v>
@@ -5529,10 +5758,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C145" t="s">
         <v>203</v>
@@ -5540,10 +5769,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C146" t="s">
         <v>203</v>
@@ -5551,10 +5780,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C147" t="s">
         <v>203</v>
@@ -5562,10 +5791,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C148" t="s">
         <v>203</v>
@@ -5573,10 +5802,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C149" t="s">
         <v>203</v>
@@ -5584,10 +5813,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C150" t="s">
         <v>203</v>
@@ -5595,10 +5824,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C151" t="s">
         <v>203</v>
@@ -5606,10 +5835,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C152" t="s">
         <v>203</v>
@@ -5617,10 +5846,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C153" t="s">
         <v>203</v>
@@ -5628,10 +5857,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C154" t="s">
         <v>203</v>
@@ -5639,10 +5868,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C155" t="s">
         <v>203</v>
@@ -5650,10 +5879,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C156" t="s">
         <v>203</v>
@@ -5661,10 +5890,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C157" t="s">
         <v>203</v>
@@ -5672,10 +5901,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C158" t="s">
         <v>203</v>
@@ -5683,10 +5912,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C159" t="s">
         <v>203</v>
@@ -5694,10 +5923,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C160" t="s">
         <v>203</v>
@@ -5705,10 +5934,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C161" t="s">
         <v>203</v>
@@ -5716,10 +5945,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C162" t="s">
         <v>203</v>
@@ -5727,10 +5956,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C163" t="s">
         <v>203</v>
@@ -5738,10 +5967,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C164" t="s">
         <v>203</v>
@@ -5749,10 +5978,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C165" t="s">
         <v>203</v>
@@ -5760,10 +5989,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C166" t="s">
         <v>203</v>
@@ -5771,10 +6000,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C167" t="s">
         <v>203</v>
@@ -5782,10 +6011,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C168" t="s">
         <v>203</v>
@@ -5793,10 +6022,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C169" t="s">
         <v>203</v>
@@ -5804,10 +6033,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B170" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C170" t="s">
         <v>203</v>
@@ -5815,10 +6044,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B171" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C171" t="s">
         <v>203</v>
@@ -5826,10 +6055,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B172" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C172" t="s">
         <v>203</v>
@@ -5837,10 +6066,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B173" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C173" t="s">
         <v>203</v>
@@ -5848,10 +6077,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B174" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C174" t="s">
         <v>203</v>
@@ -5859,10 +6088,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B175" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C175" t="s">
         <v>203</v>
@@ -5870,10 +6099,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B176" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C176" t="s">
         <v>203</v>
@@ -5881,10 +6110,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B177" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C177" t="s">
         <v>203</v>
@@ -5892,10 +6121,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B178" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C178" t="s">
         <v>203</v>
@@ -5903,10 +6132,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B179" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C179" t="s">
         <v>203</v>
@@ -5914,10 +6143,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B180" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C180" t="s">
         <v>203</v>
@@ -5925,10 +6154,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B181" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C181" t="s">
         <v>203</v>
@@ -5936,10 +6165,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B182" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C182" t="s">
         <v>203</v>
@@ -5947,10 +6176,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B183" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C183" t="s">
         <v>203</v>
@@ -5958,10 +6187,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B184" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C184" t="s">
         <v>203</v>
@@ -5969,10 +6198,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B185" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C185" t="s">
         <v>203</v>
@@ -5980,10 +6209,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B186" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C186" t="s">
         <v>203</v>
@@ -5991,10 +6220,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B187" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C187" t="s">
         <v>203</v>
@@ -6002,10 +6231,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B188" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C188" t="s">
         <v>203</v>
@@ -6013,10 +6242,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B189" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C189" t="s">
         <v>203</v>
@@ -6024,10 +6253,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B190" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C190" t="s">
         <v>203</v>
@@ -6035,10 +6264,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B191" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C191" t="s">
         <v>203</v>
@@ -6046,10 +6275,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B192" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C192" t="s">
         <v>203</v>
@@ -6057,10 +6286,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B193" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C193" t="s">
         <v>203</v>
@@ -6068,10 +6297,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B194" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C194" t="s">
         <v>203</v>
@@ -6079,10 +6308,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B195" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C195" t="s">
         <v>203</v>
@@ -6090,10 +6319,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B196" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -6101,10 +6330,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B197" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C197" t="s">
         <v>203</v>
@@ -6112,10 +6341,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B198" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C198" t="s">
         <v>203</v>
@@ -6123,10 +6352,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B199" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C199" t="s">
         <v>203</v>
@@ -6134,10 +6363,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B200" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C200" t="s">
         <v>203</v>
@@ -6145,10 +6374,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B201" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C201" t="s">
         <v>203</v>
@@ -6156,10 +6385,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>929</v>
+      </c>
+      <c r="B202" t="s">
         <v>932</v>
-      </c>
-      <c r="B202" t="s">
-        <v>935</v>
       </c>
       <c r="C202" t="s">
         <v>203</v>
@@ -6167,10 +6396,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B203" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C203" t="s">
         <v>203</v>
@@ -6178,10 +6407,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B204" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C204" t="s">
         <v>203</v>
@@ -6189,10 +6418,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B205" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C205" t="s">
         <v>203</v>
@@ -6200,10 +6429,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B206" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C206" t="s">
         <v>203</v>
@@ -6211,10 +6440,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B207" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C207" t="s">
         <v>203</v>
@@ -6222,10 +6451,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B208" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C208" t="s">
         <v>203</v>
@@ -6233,10 +6462,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B209" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C209" t="s">
         <v>203</v>
@@ -6244,10 +6473,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B210" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C210" t="s">
         <v>203</v>
@@ -6255,10 +6484,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B211" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C211" t="s">
         <v>203</v>
@@ -6266,10 +6495,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B212" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C212" t="s">
         <v>203</v>
@@ -6277,10 +6506,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B213" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C213" t="s">
         <v>203</v>
@@ -6288,10 +6517,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B214" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C214" t="s">
         <v>203</v>
@@ -6299,10 +6528,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B215" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C215" t="s">
         <v>203</v>
@@ -6310,10 +6539,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B216" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C216" t="s">
         <v>203</v>
@@ -6321,10 +6550,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B217" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C217" t="s">
         <v>203</v>
@@ -6332,10 +6561,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B218" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C218" t="s">
         <v>203</v>
@@ -6343,10 +6572,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B219" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C219" t="s">
         <v>203</v>
@@ -6354,10 +6583,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B220" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C220" t="s">
         <v>203</v>
@@ -6365,10 +6594,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B221" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C221" t="s">
         <v>203</v>
@@ -6376,10 +6605,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B222" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C222" t="s">
         <v>203</v>
@@ -6387,10 +6616,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B223" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C223" t="s">
         <v>203</v>
@@ -6398,10 +6627,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B224" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C224" t="s">
         <v>203</v>
@@ -6409,10 +6638,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B225" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C225" t="s">
         <v>203</v>
@@ -6420,10 +6649,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B226" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C226" t="s">
         <v>203</v>
@@ -6431,10 +6660,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B227" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C227" t="s">
         <v>203</v>
@@ -6442,10 +6671,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B228" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C228" t="s">
         <v>203</v>
@@ -6453,10 +6682,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B229" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C229" t="s">
         <v>203</v>
@@ -6464,10 +6693,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B230" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C230" t="s">
         <v>203</v>
@@ -6475,10 +6704,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B231" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C231" t="s">
         <v>203</v>
@@ -6486,10 +6715,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B232" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C232" t="s">
         <v>203</v>
@@ -6497,10 +6726,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B233" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C233" t="s">
         <v>203</v>
@@ -6508,10 +6737,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B234" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C234" t="s">
         <v>203</v>
@@ -6519,10 +6748,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B235" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C235" t="s">
         <v>203</v>
@@ -6530,10 +6759,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B236" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>203</v>
@@ -6541,10 +6770,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B237" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>203</v>
@@ -6552,10 +6781,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B238" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>203</v>
@@ -6563,10 +6792,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B239" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>203</v>
@@ -6574,10 +6803,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B240" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C240" t="s">
         <v>203</v>
@@ -6585,10 +6814,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B241" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C241" t="s">
         <v>203</v>
@@ -6596,24 +6825,24 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B242" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C242" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B243" t="s">
         <v>285</v>
       </c>
       <c r="C243" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -6624,7 +6853,7 @@
         <v>287</v>
       </c>
       <c r="C244" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -6662,57 +6891,57 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B248" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C248" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C249" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C250" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>444</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C251" t="s">
         <v>446</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="C251" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C252" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -6783,24 +7012,24 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B259" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C259" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B260" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C260" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -6838,10 +7067,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B264" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C264" t="s">
         <v>212</v>
@@ -6855,95 +7084,95 @@
         <v>262</v>
       </c>
       <c r="C265" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C266" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C267" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C268" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C269" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C270" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C271" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B272" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C272" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B273" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C273" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -6951,43 +7180,43 @@
         <v>302</v>
       </c>
       <c r="B274" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C274" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B275" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C275" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B276" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C276" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C277" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -6998,7 +7227,7 @@
         <v>37</v>
       </c>
       <c r="C278" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -7009,194 +7238,194 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C280" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B281" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C281" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C282" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C283" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C284" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C285" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C286" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C287" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C288" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C289" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C290" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>508</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C291" t="s">
         <v>510</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C291" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C292" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C293" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C294" t="s">
         <v>1004</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B295" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C295" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B296" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C296" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -7204,7 +7433,7 @@
         <v>85</v>
       </c>
       <c r="B297" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C297" t="s">
         <v>208</v>
@@ -7215,7 +7444,7 @@
         <v>86</v>
       </c>
       <c r="B298" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C298" t="s">
         <v>208</v>
@@ -7248,7 +7477,7 @@
         <v>232</v>
       </c>
       <c r="B301" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C301" t="s">
         <v>228</v>
@@ -7256,10 +7485,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B302" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C302" t="s">
         <v>228</v>
@@ -7267,10 +7496,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B303" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C303" t="s">
         <v>228</v>
@@ -7289,10 +7518,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C305" t="s">
         <v>228</v>
@@ -7300,10 +7529,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C306" t="s">
         <v>228</v>
@@ -7311,10 +7540,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C307" t="s">
         <v>228</v>
@@ -7322,32 +7551,32 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C308" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C309" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B310" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C310" t="s">
         <v>394</v>
@@ -7355,90 +7584,90 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B311" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C311" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B312" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C312" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B313" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C313" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B314" t="s">
-        <v>893</v>
+        <v>1096</v>
       </c>
       <c r="C314" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B315" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C315" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B316" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C316" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B317" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C317" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B318" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C318" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -7460,7 +7689,7 @@
         <v>337</v>
       </c>
       <c r="C320" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -7468,10 +7697,10 @@
         <v>338</v>
       </c>
       <c r="B321" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C321" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -7482,7 +7711,7 @@
         <v>339</v>
       </c>
       <c r="C322" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -7493,7 +7722,7 @@
         <v>71</v>
       </c>
       <c r="C323" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -7504,7 +7733,7 @@
         <v>274</v>
       </c>
       <c r="C324" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -7531,7 +7760,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B327" t="s">
         <v>114</v>
@@ -7564,10 +7793,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B330" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C330" t="s">
         <v>210</v>
@@ -7575,10 +7804,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B331" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C331" t="s">
         <v>210</v>
@@ -7586,10 +7815,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B332" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C332" t="s">
         <v>210</v>
@@ -7597,10 +7826,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B333" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C333" t="s">
         <v>210</v>
@@ -7608,79 +7837,79 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -7691,18 +7920,18 @@
         <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B342" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C342" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -7713,7 +7942,7 @@
         <v>378</v>
       </c>
       <c r="C343" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -7724,7 +7953,7 @@
         <v>382</v>
       </c>
       <c r="C344" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -7735,7 +7964,7 @@
         <v>350</v>
       </c>
       <c r="C345" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -7746,18 +7975,18 @@
         <v>352</v>
       </c>
       <c r="C346" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B347" t="s">
         <v>385</v>
       </c>
       <c r="C347" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -7765,10 +7994,10 @@
         <v>386</v>
       </c>
       <c r="B348" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C348" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -7779,29 +8008,29 @@
         <v>354</v>
       </c>
       <c r="C349" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B350" t="s">
         <v>387</v>
       </c>
       <c r="C350" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B351" t="s">
         <v>355</v>
       </c>
       <c r="C351" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -7809,10 +8038,10 @@
         <v>388</v>
       </c>
       <c r="B352" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C352" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -7820,120 +8049,120 @@
         <v>389</v>
       </c>
       <c r="B353" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C353" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B354" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C354" t="s">
         <v>688</v>
-      </c>
-      <c r="C354" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C355" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C356" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C357" t="s">
         <v>458</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C357" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C358" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C359" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C360" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B361" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C361" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B362" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C362" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B363" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C363" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -7960,10 +8189,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B366" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C366" t="s">
         <v>327</v>
@@ -7974,7 +8203,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C367" t="s">
         <v>327</v>
@@ -7993,10 +8222,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B369" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C369" t="s">
         <v>327</v>
@@ -8007,7 +8236,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C370" t="s">
         <v>327</v>
@@ -8018,7 +8247,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C371" t="s">
         <v>327</v>
@@ -8029,7 +8258,7 @@
         <v>373</v>
       </c>
       <c r="B372" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C372" t="s">
         <v>327</v>
@@ -8084,7 +8313,7 @@
         <v>356</v>
       </c>
       <c r="B377" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C377" t="s">
         <v>326</v>
@@ -8136,10 +8365,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B382" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C382" t="s">
         <v>326</v>
@@ -8147,10 +8376,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B383" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C383" t="s">
         <v>326</v>
@@ -8161,7 +8390,7 @@
         <v>365</v>
       </c>
       <c r="B384" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C384" t="s">
         <v>326</v>
@@ -8172,7 +8401,7 @@
         <v>366</v>
       </c>
       <c r="B385" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C385" t="s">
         <v>326</v>
@@ -8186,282 +8415,282 @@
         <v>52</v>
       </c>
       <c r="C386" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B387" t="s">
         <v>278</v>
       </c>
       <c r="C387" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B388" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C388" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B389" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C389" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B390" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C390" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B391" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C391" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B392" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C392" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B393" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C393" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B394" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C394" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C395" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C396" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C397" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C398" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>402</v>
+        <v>1093</v>
       </c>
       <c r="C399" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>403</v>
+      </c>
+      <c r="B400" t="s">
         <v>404</v>
       </c>
-      <c r="B400" t="s">
-        <v>405</v>
-      </c>
       <c r="C400" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B401" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C401" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B402" t="s">
-        <v>408</v>
+        <v>1094</v>
       </c>
       <c r="C402" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>681</v>
+        <v>1095</v>
       </c>
       <c r="C403" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B404" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C404" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B405" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C405" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B406" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C406" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C407" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C408" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C409" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C410" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C411" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -8499,10 +8728,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B415" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C415" t="s">
         <v>216</v>
@@ -8510,13 +8739,13 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B416" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C416" t="s">
         <v>681</v>
-      </c>
-      <c r="C416" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -8527,7 +8756,7 @@
         <v>297</v>
       </c>
       <c r="C417" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -8538,7 +8767,7 @@
         <v>298</v>
       </c>
       <c r="C418" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -8549,18 +8778,18 @@
         <v>322</v>
       </c>
       <c r="C419" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B420" t="s">
         <v>324</v>
       </c>
       <c r="C420" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -8571,7 +8800,7 @@
         <v>328</v>
       </c>
       <c r="C421" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -8582,7 +8811,7 @@
         <v>330</v>
       </c>
       <c r="C422" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -8593,7 +8822,7 @@
         <v>333</v>
       </c>
       <c r="C423" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -8604,18 +8833,18 @@
         <v>334</v>
       </c>
       <c r="C424" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B425" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C425" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -8626,7 +8855,7 @@
         <v>13</v>
       </c>
       <c r="C426" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -8637,62 +8866,62 @@
         <v>269</v>
       </c>
       <c r="C427" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C428" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C429" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B430" t="s">
         <v>1054</v>
       </c>
-      <c r="B430" t="s">
-        <v>1057</v>
-      </c>
       <c r="C430" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C431" t="s">
         <v>1055</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C431" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B432" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C432" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -8708,7 +8937,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B434" t="s">
         <v>280</v>
@@ -8719,10 +8948,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B435" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C435" t="s">
         <v>203</v>
@@ -8730,10 +8959,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B436" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C436" t="s">
         <v>203</v>
@@ -8741,46 +8970,464 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B437" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C437" t="s">
         <v>1088</v>
-      </c>
-      <c r="C437" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B438" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C438" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B439" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C439" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B440" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C440" t="s">
-        <v>1091</v>
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C441" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C442" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C443" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C444" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C445" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C446" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C447" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C448" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C469" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B470" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C470" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C472" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C473" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B474" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C474" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C475" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B476" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C476" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C477" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="8" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B478" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C478" s="8" t="s">
+        <v>1155</v>
       </c>
     </row>
   </sheetData>
@@ -8811,55 +9458,55 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D4" t="s">
         <v>401</v>
@@ -8867,142 +9514,142 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" t="s">
         <v>481</v>
-      </c>
-      <c r="D8" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -9027,120 +9674,120 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C4" t="s">
         <v>569</v>
-      </c>
-      <c r="C4" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C11" t="s">
         <v>203</v>
@@ -9148,10 +9795,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C12" t="s">
         <v>203</v>
@@ -9159,167 +9806,167 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>830</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>833</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -9343,7 +9990,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>200</v>
@@ -9351,130 +9998,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B6" t="s">
         <v>644</v>
-      </c>
-      <c r="B6" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B12" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B16" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -9498,114 +10145,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B6" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B7" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B8" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B9" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B10" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B11" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B12" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B13" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B14" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -9631,7 +10278,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="12:16" x14ac:dyDescent="0.25">
@@ -9639,7 +10286,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5" spans="12:16" x14ac:dyDescent="0.25">
@@ -9647,7 +10294,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" spans="12:16" x14ac:dyDescent="0.25">
@@ -9655,7 +10302,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="7" spans="12:16" x14ac:dyDescent="0.25">
@@ -9663,7 +10310,7 @@
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="8" spans="12:16" x14ac:dyDescent="0.25">
@@ -9671,7 +10318,7 @@
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="9" spans="12:16" x14ac:dyDescent="0.25">
@@ -9679,7 +10326,7 @@
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="10" spans="12:16" x14ac:dyDescent="0.25">
@@ -9687,7 +10334,7 @@
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11" spans="12:16" x14ac:dyDescent="0.25">
@@ -9695,10 +10342,10 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P11" t="s">
         <v>1016</v>
-      </c>
-      <c r="P11" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="13" spans="12:16" x14ac:dyDescent="0.25">
@@ -9706,7 +10353,7 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="14" spans="12:16" x14ac:dyDescent="0.25">
@@ -9714,7 +10361,7 @@
         <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="15" spans="12:16" x14ac:dyDescent="0.25">

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA160175-6FE5-4849-A99E-97B0FDB582AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4856AB62-E89F-43BB-92CC-312D64E5857D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
   <sheets>
     <sheet name="warm" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="question" sheetId="7" r:id="rId3"/>
     <sheet name="pictures" sheetId="8" r:id="rId4"/>
     <sheet name="tags" sheetId="9" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="10" r:id="rId6"/>
+    <sheet name="never" sheetId="11" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$347:$C$347</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1184">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -3569,6 +3570,42 @@
   </si>
   <si>
     <t>estar atento</t>
+  </si>
+  <si>
+    <t>It's never taken me an hor to wash my hair</t>
+  </si>
+  <si>
+    <t>When was the last time it took you an hour to wash your hair?</t>
+  </si>
+  <si>
+    <t>When was the last time you took someone to a slovaquian restaurant?</t>
+  </si>
+  <si>
+    <t>I've never taken anyone to a Slovaquian restaurant</t>
+  </si>
+  <si>
+    <t>When was the last time you teach someone how to operate a printing press?</t>
+  </si>
+  <si>
+    <t>I've never taught anyone how to operate a printing press</t>
+  </si>
+  <si>
+    <t>When did you last think about the social problem in Lithuania?</t>
+  </si>
+  <si>
+    <t>I've never thought about the social problems in Lithuania</t>
+  </si>
+  <si>
+    <t>I've never thought about  investing in the Algerian stock market</t>
+  </si>
+  <si>
+    <t>When did you last think about investing in the Algerian stock market?</t>
+  </si>
+  <si>
+    <t>I've never understood German perfectly</t>
+  </si>
+  <si>
+    <t>When did you last understand German perfectly?</t>
   </si>
 </sst>
 </file>
@@ -3655,7 +3692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3664,7 +3701,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4161,8 +4197,8 @@
   </sheetPr>
   <dimension ref="A1:C478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B482" sqref="B482"/>
+    <sheetView topLeftCell="A452" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B471" sqref="B471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9321,112 +9357,112 @@
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469" s="8" t="s">
+      <c r="A469" t="s">
         <v>1154</v>
       </c>
-      <c r="B469" s="8" t="s">
+      <c r="B469" t="s">
         <v>1151</v>
       </c>
-      <c r="C469" s="8" t="s">
+      <c r="C469" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="8" t="s">
+      <c r="A470" t="s">
         <v>1152</v>
       </c>
-      <c r="B470" s="8" t="s">
+      <c r="B470" t="s">
         <v>1153</v>
       </c>
-      <c r="C470" s="8" t="s">
+      <c r="C470" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" s="8" t="s">
+      <c r="A471" t="s">
         <v>1161</v>
       </c>
-      <c r="B471" s="8" t="s">
+      <c r="B471" t="s">
         <v>1156</v>
       </c>
-      <c r="C471" s="8" t="s">
+      <c r="C471" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472" s="8" t="s">
+      <c r="A472" t="s">
         <v>1160</v>
       </c>
-      <c r="B472" s="8" t="s">
+      <c r="B472" t="s">
         <v>1157</v>
       </c>
-      <c r="C472" s="8" t="s">
+      <c r="C472" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="8" t="s">
+      <c r="A473" t="s">
         <v>1159</v>
       </c>
-      <c r="B473" s="8" t="s">
+      <c r="B473" t="s">
         <v>1158</v>
       </c>
-      <c r="C473" s="8" t="s">
+      <c r="C473" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="8" t="s">
+      <c r="A474" t="s">
         <v>1163</v>
       </c>
-      <c r="B474" s="8" t="s">
+      <c r="B474" t="s">
         <v>1162</v>
       </c>
-      <c r="C474" s="8" t="s">
+      <c r="C474" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="8" t="s">
+      <c r="A475" t="s">
         <v>1164</v>
       </c>
-      <c r="B475" s="8" t="s">
+      <c r="B475" t="s">
         <v>1165</v>
       </c>
-      <c r="C475" s="8" t="s">
+      <c r="C475" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476" s="8" t="s">
+      <c r="A476" t="s">
         <v>1169</v>
       </c>
-      <c r="B476" s="8" t="s">
+      <c r="B476" t="s">
         <v>1166</v>
       </c>
-      <c r="C476" s="8" t="s">
+      <c r="C476" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A477" s="8" t="s">
+      <c r="A477" t="s">
         <v>1168</v>
       </c>
-      <c r="B477" s="8" t="s">
+      <c r="B477" t="s">
         <v>1167</v>
       </c>
-      <c r="C477" s="8" t="s">
+      <c r="C477" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A478" s="8" t="s">
+      <c r="A478" t="s">
         <v>1171</v>
       </c>
-      <c r="B478" s="8" t="s">
+      <c r="B478" t="s">
         <v>1170</v>
       </c>
-      <c r="C478" s="8" t="s">
+      <c r="C478" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -10133,7 +10169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB39071-8DA3-452E-AE5A-693AF3A46CA8}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -10261,6 +10297,81 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B247A4-280A-49E2-9FD5-75DE90708693}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD4E3BE-CB0A-4229-93CE-4760C471BE41}">
   <dimension ref="L3:P15"/>
   <sheetViews>

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4856AB62-E89F-43BB-92CC-312D64E5857D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786EBF2E-1A5A-4C7D-935A-7B23F136CF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
   <sheets>
     <sheet name="warm" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$347:$C$347</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$478</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1215">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -3606,6 +3606,99 @@
   </si>
   <si>
     <t>When did you last understand German perfectly?</t>
+  </si>
+  <si>
+    <t>When did you last win first price in the christmas lottery?</t>
+  </si>
+  <si>
+    <t>When did you last win an archery contest?</t>
+  </si>
+  <si>
+    <t>When did you last sit down on a chocolate cake?</t>
+  </si>
+  <si>
+    <t>I've never sat down on a chocolate cake</t>
+  </si>
+  <si>
+    <t>I've never won first price in the christmas lottery</t>
+  </si>
+  <si>
+    <t>I've never won an archery contest</t>
+  </si>
+  <si>
+    <t>It catches people off guard</t>
+  </si>
+  <si>
+    <t>esto pilla a la gente desprevenida( por sorpresa)</t>
+  </si>
+  <si>
+    <t>I've never been in a Malasyan pub</t>
+  </si>
+  <si>
+    <t>When did you last build an igloo?</t>
+  </si>
+  <si>
+    <t>I've never built an Igloo</t>
+  </si>
+  <si>
+    <t>When did you last seleep under a bridge?</t>
+  </si>
+  <si>
+    <t>I've never slept under a bridge.</t>
+  </si>
+  <si>
+    <t>When did you last fly in a hot air balloon?</t>
+  </si>
+  <si>
+    <t>I've never flown in a hot air balloon</t>
+  </si>
+  <si>
+    <t>When was the last time you were in a Malasyan pub?</t>
+  </si>
+  <si>
+    <t>I've never bought a perian rug for my bathroom</t>
+  </si>
+  <si>
+    <t>When did you last buy a persian rug for your bathroom?</t>
+  </si>
+  <si>
+    <t>I've never danced flamenco</t>
+  </si>
+  <si>
+    <t>In a shocking turn of events</t>
+  </si>
+  <si>
+    <t>en un asombroso giro de los acontecimientos</t>
+  </si>
+  <si>
+    <t>Casi nade sabie mi nombre real</t>
+  </si>
+  <si>
+    <t>Hardly anyone knows my real name / almost no one knows my real name</t>
+  </si>
+  <si>
+    <t>Casi todo el mundo se quedó dormido</t>
+  </si>
+  <si>
+    <t>Almost everyone fell asleep</t>
+  </si>
+  <si>
+    <t>casi nadie/casi todo el mundo</t>
+  </si>
+  <si>
+    <t>los dos se quedaron dormidos</t>
+  </si>
+  <si>
+    <t>calmar la sed</t>
+  </si>
+  <si>
+    <t>to quench my thirst</t>
+  </si>
+  <si>
+    <t>When was the las time you danced flamenco?</t>
+  </si>
+  <si>
+    <t>Both of them fell asleep</t>
   </si>
 </sst>
 </file>
@@ -3881,8 +3974,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C478" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C478" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C484" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C484" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C434">
     <sortCondition ref="C1:C434"/>
   </sortState>
@@ -4195,10 +4288,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C478"/>
+  <dimension ref="A1:C484"/>
   <sheetViews>
-    <sheetView topLeftCell="A452" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B471" sqref="B471"/>
+    <sheetView tabSelected="1" topLeftCell="A459" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B485" sqref="B485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9464,6 +9557,72 @@
       </c>
       <c r="C478" t="s">
         <v>1155</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C483" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C484" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -10298,10 +10457,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B247A4-280A-49E2-9FD5-75DE90708693}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10364,6 +10523,78 @@
       </c>
       <c r="B7" t="s">
         <v>1182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1202</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A68FB-8FBB-4730-9EC0-5365066CF391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B0DCC6-33C2-4368-B2CC-B2BD22F76649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
@@ -4938,8 +4938,8 @@
   </sheetPr>
   <dimension ref="A1:C565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A570" sqref="A570"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B568" sqref="B568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B0DCC6-33C2-4368-B2CC-B2BD22F76649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF6CBA6-6930-4722-B078-F8E90BED9BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
   <sheets>
     <sheet name="warm" sheetId="2" r:id="rId1"/>
@@ -4337,7 +4337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4349,11 +4349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4938,7 +4934,7 @@
   </sheetPr>
   <dimension ref="A1:C565"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="B568" sqref="B568"/>
     </sheetView>
   </sheetViews>
@@ -4972,10 +4968,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" t="s">
         <v>1370</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>1371</v>
       </c>
       <c r="C3" t="s">
@@ -5016,10 +5012,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" t="s">
         <v>1372</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" t="s">
         <v>1373</v>
       </c>
       <c r="C7" t="s">
@@ -7541,7 +7537,7 @@
       <c r="B236" t="s">
         <v>1033</v>
       </c>
-      <c r="C236" s="9" t="s">
+      <c r="C236" t="s">
         <v>202</v>
       </c>
     </row>
@@ -7552,7 +7548,7 @@
       <c r="B237" t="s">
         <v>1035</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="C237" t="s">
         <v>202</v>
       </c>
     </row>
@@ -7827,7 +7823,7 @@
       <c r="B262" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="C262" s="11" t="s">
+      <c r="C262" s="3" t="s">
         <v>202</v>
       </c>
     </row>
@@ -7838,7 +7834,7 @@
       <c r="B263" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="C263" s="10" t="s">
+      <c r="C263" s="9" t="s">
         <v>202</v>
       </c>
     </row>
@@ -7849,7 +7845,7 @@
       <c r="B264" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="C264" s="10" t="s">
+      <c r="C264" s="9" t="s">
         <v>202</v>
       </c>
     </row>
@@ -8184,24 +8180,24 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="12" t="s">
+      <c r="A295" t="s">
         <v>1355</v>
       </c>
-      <c r="B295" s="12" t="s">
+      <c r="B295" t="s">
         <v>1356</v>
       </c>
-      <c r="C295" s="12" t="s">
+      <c r="C295" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="12" t="s">
+      <c r="A296" t="s">
         <v>1359</v>
       </c>
-      <c r="B296" s="12" t="s">
+      <c r="B296" t="s">
         <v>1360</v>
       </c>
-      <c r="C296" s="12" t="s">
+      <c r="C296" t="s">
         <v>202</v>
       </c>
     </row>
@@ -8327,10 +8323,10 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="12" t="s">
+      <c r="A308" t="s">
         <v>1375</v>
       </c>
-      <c r="B308" s="12" t="s">
+      <c r="B308" t="s">
         <v>1376</v>
       </c>
       <c r="C308" t="s">
@@ -8338,10 +8334,10 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="12" t="s">
+      <c r="A309" t="s">
         <v>1377</v>
       </c>
-      <c r="B309" s="12" t="s">
+      <c r="B309" t="s">
         <v>1378</v>
       </c>
       <c r="C309" t="s">
@@ -8487,7 +8483,7 @@
       <c r="B322" t="s">
         <v>124</v>
       </c>
-      <c r="C322" s="9" t="s">
+      <c r="C322" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8498,7 +8494,7 @@
       <c r="B323" t="s">
         <v>126</v>
       </c>
-      <c r="C323" s="9" t="s">
+      <c r="C323" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8509,7 +8505,7 @@
       <c r="B324" t="s">
         <v>132</v>
       </c>
-      <c r="C324" s="9" t="s">
+      <c r="C324" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8734,10 +8730,10 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="12" t="s">
+      <c r="A345" t="s">
         <v>1380</v>
       </c>
-      <c r="B345" s="12" t="s">
+      <c r="B345" t="s">
         <v>1379</v>
       </c>
       <c r="C345" t="s">
@@ -8759,7 +8755,7 @@
       <c r="A347" t="s">
         <v>1383</v>
       </c>
-      <c r="B347" s="12" t="s">
+      <c r="B347" t="s">
         <v>1382</v>
       </c>
       <c r="C347" t="s">
@@ -8800,10 +8796,10 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="12" t="s">
+      <c r="A351" t="s">
         <v>1386</v>
       </c>
-      <c r="B351" s="12" t="s">
+      <c r="B351" t="s">
         <v>1385</v>
       </c>
       <c r="C351" t="s">
@@ -9064,10 +9060,10 @@
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="12" t="s">
+      <c r="A375" t="s">
         <v>1390</v>
       </c>
-      <c r="B375" s="13" t="s">
+      <c r="B375" s="3" t="s">
         <v>1389</v>
       </c>
       <c r="C375" t="s">
@@ -9306,10 +9302,10 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="12" t="s">
+      <c r="A397" t="s">
         <v>1338</v>
       </c>
-      <c r="B397" s="12" t="s">
+      <c r="B397" t="s">
         <v>1339</v>
       </c>
       <c r="C397" t="s">
@@ -9317,13 +9313,13 @@
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="12" t="s">
+      <c r="A398" t="s">
         <v>1353</v>
       </c>
-      <c r="B398" s="12" t="s">
+      <c r="B398" t="s">
         <v>1354</v>
       </c>
-      <c r="C398" s="12" t="s">
+      <c r="C398" t="s">
         <v>1337</v>
       </c>
     </row>
@@ -9427,10 +9423,10 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="12" t="s">
+      <c r="A408" t="s">
         <v>1393</v>
       </c>
-      <c r="B408" s="12" t="s">
+      <c r="B408" t="s">
         <v>1392</v>
       </c>
       <c r="C408" t="s">
@@ -9603,10 +9599,10 @@
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="12" t="s">
+      <c r="A424" t="s">
         <v>1395</v>
       </c>
-      <c r="B424" s="12" t="s">
+      <c r="B424" t="s">
         <v>1396</v>
       </c>
       <c r="C424" t="s">
@@ -9818,7 +9814,7 @@
       <c r="B443" t="s">
         <v>1328</v>
       </c>
-      <c r="C443" s="12" t="s">
+      <c r="C443" t="s">
         <v>1350</v>
       </c>
     </row>
@@ -9829,84 +9825,84 @@
       <c r="B444" t="s">
         <v>1336</v>
       </c>
-      <c r="C444" s="12" t="s">
+      <c r="C444" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445" s="12" t="s">
+      <c r="A445" t="s">
         <v>1340</v>
       </c>
-      <c r="B445" s="12" t="s">
+      <c r="B445" t="s">
         <v>1341</v>
       </c>
-      <c r="C445" s="12" t="s">
+      <c r="C445" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="12" t="s">
+      <c r="A446" t="s">
         <v>1342</v>
       </c>
-      <c r="B446" s="12" t="s">
+      <c r="B446" t="s">
         <v>1343</v>
       </c>
-      <c r="C446" s="12" t="s">
+      <c r="C446" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="12" t="s">
+      <c r="A447" t="s">
         <v>1344</v>
       </c>
-      <c r="B447" s="12" t="s">
+      <c r="B447" t="s">
         <v>1345</v>
       </c>
-      <c r="C447" s="12" t="s">
+      <c r="C447" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="12" t="s">
+      <c r="A448" t="s">
         <v>1346</v>
       </c>
-      <c r="B448" s="12" t="s">
+      <c r="B448" t="s">
         <v>1347</v>
       </c>
-      <c r="C448" s="12" t="s">
+      <c r="C448" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="12" t="s">
+      <c r="A449" t="s">
         <v>1348</v>
       </c>
-      <c r="B449" s="12" t="s">
+      <c r="B449" t="s">
         <v>1349</v>
       </c>
-      <c r="C449" s="12" t="s">
+      <c r="C449" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="12" t="s">
+      <c r="A450" t="s">
         <v>1351</v>
       </c>
-      <c r="B450" s="12" t="s">
+      <c r="B450" t="s">
         <v>1352</v>
       </c>
-      <c r="C450" s="12" t="s">
+      <c r="C450" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="12" t="s">
+      <c r="A451" t="s">
         <v>1357</v>
       </c>
-      <c r="B451" s="12" t="s">
+      <c r="B451" t="s">
         <v>1358</v>
       </c>
-      <c r="C451" s="12" t="s">
+      <c r="C451" t="s">
         <v>1350</v>
       </c>
     </row>
@@ -10890,10 +10886,10 @@
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A541" s="12" t="s">
+      <c r="A541" t="s">
         <v>1397</v>
       </c>
-      <c r="B541" s="13" t="s">
+      <c r="B541" s="3" t="s">
         <v>1398</v>
       </c>
       <c r="C541" t="s">
@@ -11083,7 +11079,7 @@
       <c r="B558" t="s">
         <v>1189</v>
       </c>
-      <c r="C558" s="12" t="s">
+      <c r="C558" t="s">
         <v>1369</v>
       </c>
     </row>
@@ -11094,51 +11090,51 @@
       <c r="B559" t="s">
         <v>1191</v>
       </c>
-      <c r="C559" s="12" t="s">
+      <c r="C559" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560" s="12" t="s">
+      <c r="A560" t="s">
         <v>1361</v>
       </c>
-      <c r="B560" s="12" t="s">
+      <c r="B560" t="s">
         <v>1365</v>
       </c>
-      <c r="C560" s="12" t="s">
+      <c r="C560" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A561" s="12" t="s">
+      <c r="A561" t="s">
         <v>1364</v>
       </c>
-      <c r="B561" s="12" t="s">
+      <c r="B561" t="s">
         <v>1363</v>
       </c>
-      <c r="C561" s="12" t="s">
+      <c r="C561" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A562" s="12" t="s">
+      <c r="A562" t="s">
         <v>1366</v>
       </c>
-      <c r="B562" s="12" t="s">
+      <c r="B562" t="s">
         <v>1367</v>
       </c>
-      <c r="C562" s="12" t="s">
+      <c r="C562" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A563" s="12" t="s">
+      <c r="A563" t="s">
         <v>1362</v>
       </c>
-      <c r="B563" s="12" t="s">
+      <c r="B563" t="s">
         <v>1368</v>
       </c>
-      <c r="C563" s="12" t="s">
+      <c r="C563" t="s">
         <v>1369</v>
       </c>
     </row>

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF6CBA6-6930-4722-B078-F8E90BED9BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99ED4E6-B47F-40F4-8C2B-F52F17E5F9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$354:$C$354</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$565</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$599</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="1469">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -695,9 +695,6 @@
     <t>Debe de haber una solucion</t>
   </si>
   <si>
-    <t>cuanto mas../the more</t>
-  </si>
-  <si>
     <t>siempre que/ as long as</t>
   </si>
   <si>
@@ -4251,6 +4248,219 @@
   </si>
   <si>
     <t>I feel as if I had a headache</t>
+  </si>
+  <si>
+    <t>fumar es malo para la salud</t>
+  </si>
+  <si>
+    <t>Smoking  is bad for your health</t>
+  </si>
+  <si>
+    <t>No recomiendo ir alli</t>
+  </si>
+  <si>
+    <t>I don't recommend going there</t>
+  </si>
+  <si>
+    <t>No recimiendo que vayas allí</t>
+  </si>
+  <si>
+    <t>I don't recommend that you fgo there</t>
+  </si>
+  <si>
+    <t>espero con ilusión volver a verles</t>
+  </si>
+  <si>
+    <t>I'm looking forward to seeing them again</t>
+  </si>
+  <si>
+    <t>I like playing chess</t>
+  </si>
+  <si>
+    <t>Me gusta jugar al ajedrez</t>
+  </si>
+  <si>
+    <t>Me gustaría jugar al ajederz</t>
+  </si>
+  <si>
+    <t>I'd like to play chess</t>
+  </si>
+  <si>
+    <t>Try to do it this way</t>
+  </si>
+  <si>
+    <t>Empecé a hacerlo hace años</t>
+  </si>
+  <si>
+    <t>intentalo hacer de esta manera</t>
+  </si>
+  <si>
+    <t>I started doing it years ago</t>
+  </si>
+  <si>
+    <t>Can you take a picture of me?</t>
+  </si>
+  <si>
+    <t>Me puedes hacerme una foto?</t>
+  </si>
+  <si>
+    <t>Te puedo hacer una foto</t>
+  </si>
+  <si>
+    <t>Can I take a picture of you?</t>
+  </si>
+  <si>
+    <t>Are you taking a picture of me?</t>
+  </si>
+  <si>
+    <t>Me estas tomando una fotos?</t>
+  </si>
+  <si>
+    <t>Caunto mas rápido mejor</t>
+  </si>
+  <si>
+    <t>the faster the better</t>
+  </si>
+  <si>
+    <t>The more you work the more you earn</t>
+  </si>
+  <si>
+    <t>Cuanto mas trabajas mas ganas</t>
+  </si>
+  <si>
+    <t>The less you go there the better for your personal finance</t>
+  </si>
+  <si>
+    <t>Cuanto menos vayas allí, mejor para tus finanzas</t>
+  </si>
+  <si>
+    <t>The tigher the better</t>
+  </si>
+  <si>
+    <t>Cuanto mas apretado mejor</t>
+  </si>
+  <si>
+    <t>cuanto mas, cuanto menos/the more, the less</t>
+  </si>
+  <si>
+    <t>este tipo d ebolografo resuolta muy util</t>
+  </si>
+  <si>
+    <t>This type of pen comes in handy</t>
+  </si>
+  <si>
+    <t>Como vamos a salir the este lio</t>
+  </si>
+  <si>
+    <t>How weare going to get out of this mess</t>
+  </si>
+  <si>
+    <t>Se ha despegado el sello</t>
+  </si>
+  <si>
+    <t>The stamp came off</t>
+  </si>
+  <si>
+    <t>Come on!</t>
+  </si>
+  <si>
+    <t>venga vamos</t>
+  </si>
+  <si>
+    <t>le vi cuando salía del ascensor</t>
+  </si>
+  <si>
+    <t>I saw him while he was coming out the elevator?</t>
+  </si>
+  <si>
+    <t>Solo 3 the las 10 fotos salieron bien</t>
+  </si>
+  <si>
+    <t>Only 3 of the 10 pictures came out bien</t>
+  </si>
+  <si>
+    <t>Lo hice esta mañana pero no lo hice ayer</t>
+  </si>
+  <si>
+    <t>I did it this morning but I didn't do it yerserday</t>
+  </si>
+  <si>
+    <t>Vine en coche pero ni vine solo</t>
+  </si>
+  <si>
+    <t>I came by car but I didn't come alone</t>
+  </si>
+  <si>
+    <t>me sentía raro pero no me sentía mal</t>
+  </si>
+  <si>
+    <t>I felt strange but I didn't feel bad</t>
+  </si>
+  <si>
+    <t>Volé a Roma pero no volé a paris</t>
+  </si>
+  <si>
+    <t>I flew to Rome, but I didn't fly to Paris</t>
+  </si>
+  <si>
+    <t>I broke the glass but I didn't break the bottle</t>
+  </si>
+  <si>
+    <t>Rompí el vaso pero no rompí la botella</t>
+  </si>
+  <si>
+    <t>Bebí del vaso pero no bebí del botella</t>
+  </si>
+  <si>
+    <t>I drank from the glass, but I didn't drink from the bottle</t>
+  </si>
+  <si>
+    <t>I drove the car but I didn't drive the tractor</t>
+  </si>
+  <si>
+    <t>Conduje el coche pero no conduje el tractor</t>
+  </si>
+  <si>
+    <t>No puedes confiar en el para las cosas importantes</t>
+  </si>
+  <si>
+    <t>I can't rely on him for important things</t>
+  </si>
+  <si>
+    <t>Tenemos que recurrir a financiación ajena</t>
+  </si>
+  <si>
+    <t>We've to resort to outside finance</t>
+  </si>
+  <si>
+    <t>No podemos contratar a mas gente por ahora</t>
+  </si>
+  <si>
+    <t>We can't hire mor people for now</t>
+  </si>
+  <si>
+    <t>Corres el riesgo de perder tu empleo</t>
+  </si>
+  <si>
+    <t>You run the risk of losing your job</t>
+  </si>
+  <si>
+    <t>en estos momentos/by now</t>
+  </si>
+  <si>
+    <t>Debe de estar durmiendo la siesta en estos momentos</t>
+  </si>
+  <si>
+    <t>He must be having a nap by now</t>
+  </si>
+  <si>
+    <t>Por ahora,de momento/ for now/ for the time being</t>
+  </si>
+  <si>
+    <t>Podemos descartar la segunda alternativa</t>
+  </si>
+  <si>
+    <t>We can rule out the second alternative</t>
   </si>
 </sst>
 </file>
@@ -4337,7 +4547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4350,6 +4560,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4618,10 +4829,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C565" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C565" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C565">
-    <sortCondition ref="C1:C565"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C599" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C599" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C586">
+    <sortCondition ref="C1:C586"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8C2285AF-8150-4289-9017-075B5346F689}" uniqueName="1" name="esp" queryTableFieldId="1" dataDxfId="2"/>
@@ -4932,10 +5143,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C565"/>
+  <dimension ref="A1:C599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B568" sqref="B568"/>
+    <sheetView tabSelected="1" topLeftCell="A552" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B611" sqref="B611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4958,24 +5169,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B3" t="s">
         <v>1370</v>
       </c>
-      <c r="B3" t="s">
-        <v>1371</v>
-      </c>
       <c r="C3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4983,7 +5194,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C4" t="s">
         <v>203</v>
@@ -4991,10 +5202,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C5" t="s">
         <v>203</v>
@@ -5008,18 +5219,18 @@
         <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B7" t="s">
         <v>1372</v>
       </c>
-      <c r="B7" t="s">
-        <v>1373</v>
-      </c>
       <c r="C7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5247,7 +5458,7 @@
         <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C28" t="s">
         <v>202</v>
@@ -5654,7 +5865,7 @@
         <v>164</v>
       </c>
       <c r="B65" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C65" t="s">
         <v>202</v>
@@ -5794,7 +6005,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B78" t="s">
         <v>189</v>
@@ -5805,7 +6016,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B79" t="s">
         <v>190</v>
@@ -5816,7 +6027,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B80" t="s">
         <v>191</v>
@@ -5841,7 +6052,7 @@
         <v>194</v>
       </c>
       <c r="B82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s">
         <v>202</v>
@@ -5849,10 +6060,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>579</v>
+      </c>
+      <c r="B83" t="s">
         <v>580</v>
-      </c>
-      <c r="B83" t="s">
-        <v>581</v>
       </c>
       <c r="C83" t="s">
         <v>202</v>
@@ -5882,10 +6093,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B86" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C86" t="s">
         <v>202</v>
@@ -5893,10 +6104,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B87" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C87" t="s">
         <v>202</v>
@@ -5904,10 +6115,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B88" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C88" t="s">
         <v>202</v>
@@ -5915,10 +6126,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" t="s">
         <v>202</v>
@@ -5926,10 +6137,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C90" t="s">
         <v>202</v>
@@ -5937,10 +6148,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C91" t="s">
         <v>202</v>
@@ -5948,10 +6159,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
         <v>202</v>
@@ -5959,10 +6170,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" t="s">
         <v>228</v>
-      </c>
-      <c r="B93" t="s">
-        <v>229</v>
       </c>
       <c r="C93" t="s">
         <v>202</v>
@@ -5970,10 +6181,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" t="s">
         <v>232</v>
-      </c>
-      <c r="B94" t="s">
-        <v>233</v>
       </c>
       <c r="C94" t="s">
         <v>202</v>
@@ -5981,10 +6192,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C95" t="s">
         <v>202</v>
@@ -5992,10 +6203,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C96" t="s">
         <v>202</v>
@@ -6003,10 +6214,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C97" t="s">
         <v>202</v>
@@ -6014,10 +6225,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C98" t="s">
         <v>202</v>
@@ -6025,10 +6236,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>237</v>
+      </c>
+      <c r="B99" t="s">
         <v>238</v>
-      </c>
-      <c r="B99" t="s">
-        <v>239</v>
       </c>
       <c r="C99" t="s">
         <v>202</v>
@@ -6036,10 +6247,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C100" t="s">
         <v>202</v>
@@ -6047,10 +6258,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
         <v>202</v>
@@ -6058,10 +6269,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>251</v>
+      </c>
+      <c r="B102" t="s">
         <v>252</v>
-      </c>
-      <c r="B102" t="s">
-        <v>253</v>
       </c>
       <c r="C102" t="s">
         <v>202</v>
@@ -6069,10 +6280,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B103" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C103" t="s">
         <v>202</v>
@@ -6080,10 +6291,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C104" t="s">
         <v>202</v>
@@ -6091,10 +6302,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C105" t="s">
         <v>202</v>
@@ -6102,10 +6313,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
         <v>202</v>
@@ -6113,10 +6324,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C107" t="s">
         <v>202</v>
@@ -6124,10 +6335,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C108" t="s">
         <v>202</v>
@@ -6135,10 +6346,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>311</v>
+      </c>
+      <c r="B109" t="s">
         <v>312</v>
-      </c>
-      <c r="B109" t="s">
-        <v>313</v>
       </c>
       <c r="C109" t="s">
         <v>202</v>
@@ -6146,10 +6357,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>286</v>
+      </c>
+      <c r="B110" t="s">
         <v>287</v>
-      </c>
-      <c r="B110" t="s">
-        <v>288</v>
       </c>
       <c r="C110" t="s">
         <v>202</v>
@@ -6157,10 +6368,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>291</v>
+      </c>
+      <c r="B111" t="s">
         <v>292</v>
-      </c>
-      <c r="B111" t="s">
-        <v>293</v>
       </c>
       <c r="C111" t="s">
         <v>202</v>
@@ -6168,10 +6379,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B112" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C112" t="s">
         <v>202</v>
@@ -6179,10 +6390,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>301</v>
+      </c>
+      <c r="B113" t="s">
         <v>302</v>
-      </c>
-      <c r="B113" t="s">
-        <v>303</v>
       </c>
       <c r="C113" t="s">
         <v>202</v>
@@ -6190,10 +6401,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>303</v>
+      </c>
+      <c r="B114" t="s">
         <v>304</v>
-      </c>
-      <c r="B114" t="s">
-        <v>305</v>
       </c>
       <c r="C114" t="s">
         <v>202</v>
@@ -6201,10 +6412,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B115" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C115" t="s">
         <v>202</v>
@@ -6212,10 +6423,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C116" t="s">
         <v>202</v>
@@ -6223,10 +6434,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C117" t="s">
         <v>202</v>
@@ -6234,10 +6445,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>313</v>
+      </c>
+      <c r="B118" t="s">
         <v>314</v>
-      </c>
-      <c r="B118" t="s">
-        <v>315</v>
       </c>
       <c r="C118" t="s">
         <v>202</v>
@@ -6245,10 +6456,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>315</v>
+      </c>
+      <c r="B119" t="s">
         <v>316</v>
-      </c>
-      <c r="B119" t="s">
-        <v>317</v>
       </c>
       <c r="C119" t="s">
         <v>202</v>
@@ -6256,10 +6467,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B120" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C120" t="s">
         <v>202</v>
@@ -6267,10 +6478,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B121" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C121" t="s">
         <v>202</v>
@@ -6278,10 +6489,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B122" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C122" t="s">
         <v>202</v>
@@ -6289,10 +6500,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B123" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C123" t="s">
         <v>202</v>
@@ -6300,10 +6511,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B124" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C124" t="s">
         <v>202</v>
@@ -6311,10 +6522,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>609</v>
+      </c>
+      <c r="B125" t="s">
         <v>610</v>
-      </c>
-      <c r="B125" t="s">
-        <v>611</v>
       </c>
       <c r="C125" t="s">
         <v>202</v>
@@ -6322,10 +6533,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B126" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C126" t="s">
         <v>202</v>
@@ -6333,10 +6544,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B127" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C127" t="s">
         <v>202</v>
@@ -6344,10 +6555,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B128" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C128" t="s">
         <v>202</v>
@@ -6355,10 +6566,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B129" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C129" t="s">
         <v>202</v>
@@ -6366,10 +6577,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B130" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
         <v>202</v>
@@ -6377,10 +6588,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B131" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C131" t="s">
         <v>202</v>
@@ -6388,10 +6599,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B132" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C132" t="s">
         <v>202</v>
@@ -6399,10 +6610,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B133" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C133" t="s">
         <v>202</v>
@@ -6410,10 +6621,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>202</v>
@@ -6421,10 +6632,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="C135" t="s">
         <v>202</v>
@@ -6432,10 +6643,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>202</v>
@@ -6443,10 +6654,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C137" t="s">
         <v>202</v>
@@ -6454,10 +6665,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>776</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>777</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>778</v>
       </c>
       <c r="C138" t="s">
         <v>202</v>
@@ -6465,10 +6676,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>453</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="C139" t="s">
         <v>202</v>
@@ -6476,10 +6687,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C140" t="s">
         <v>202</v>
@@ -6487,10 +6698,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C141" t="s">
         <v>202</v>
@@ -6498,10 +6709,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C142" t="s">
         <v>202</v>
@@ -6509,10 +6720,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C143" t="s">
         <v>202</v>
@@ -6520,10 +6731,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C144" t="s">
         <v>202</v>
@@ -6531,10 +6742,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>772</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>774</v>
       </c>
       <c r="C145" t="s">
         <v>202</v>
@@ -6542,10 +6753,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C146" t="s">
         <v>202</v>
@@ -6553,10 +6764,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C147" t="s">
         <v>202</v>
@@ -6564,10 +6775,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C148" t="s">
         <v>202</v>
@@ -6575,10 +6786,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>462</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="C149" t="s">
         <v>202</v>
@@ -6586,10 +6797,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C150" t="s">
         <v>202</v>
@@ -6597,10 +6808,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C151" t="s">
         <v>202</v>
@@ -6608,10 +6819,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C152" t="s">
         <v>202</v>
@@ -6619,10 +6830,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C153" t="s">
         <v>202</v>
@@ -6630,10 +6841,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C154" t="s">
         <v>202</v>
@@ -6641,10 +6852,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C155" t="s">
         <v>202</v>
@@ -6652,10 +6863,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C156" t="s">
         <v>202</v>
@@ -6663,10 +6874,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C157" t="s">
         <v>202</v>
@@ -6674,10 +6885,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>492</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="C158" t="s">
         <v>202</v>
@@ -6685,10 +6896,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C159" t="s">
         <v>202</v>
@@ -6696,10 +6907,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C160" t="s">
         <v>202</v>
@@ -6707,10 +6918,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>528</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="C161" t="s">
         <v>202</v>
@@ -6718,10 +6929,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>644</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>646</v>
       </c>
       <c r="C162" t="s">
         <v>202</v>
@@ -6729,10 +6940,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>646</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>648</v>
       </c>
       <c r="C163" t="s">
         <v>202</v>
@@ -6740,10 +6951,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>648</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>650</v>
       </c>
       <c r="C164" t="s">
         <v>202</v>
@@ -6751,10 +6962,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C165" t="s">
         <v>202</v>
@@ -6762,10 +6973,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C166" t="s">
         <v>202</v>
@@ -6773,10 +6984,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C167" t="s">
         <v>202</v>
@@ -6784,10 +6995,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C168" t="s">
         <v>202</v>
@@ -6795,10 +7006,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>682</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>684</v>
       </c>
       <c r="C169" t="s">
         <v>202</v>
@@ -6806,10 +7017,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C170" t="s">
         <v>202</v>
@@ -6817,10 +7028,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B171" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C171" t="s">
         <v>202</v>
@@ -6828,10 +7039,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B172" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C172" t="s">
         <v>202</v>
@@ -6839,10 +7050,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B173" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C173" t="s">
         <v>202</v>
@@ -6850,10 +7061,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>757</v>
+      </c>
+      <c r="B174" t="s">
         <v>758</v>
-      </c>
-      <c r="B174" t="s">
-        <v>759</v>
       </c>
       <c r="C174" t="s">
         <v>202</v>
@@ -6861,10 +7072,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B175" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C175" t="s">
         <v>202</v>
@@ -6872,10 +7083,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B176" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C176" t="s">
         <v>202</v>
@@ -6883,10 +7094,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B177" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C177" t="s">
         <v>202</v>
@@ -6894,10 +7105,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B178" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C178" t="s">
         <v>202</v>
@@ -6905,10 +7116,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>751</v>
+      </c>
+      <c r="B179" t="s">
         <v>752</v>
-      </c>
-      <c r="B179" t="s">
-        <v>753</v>
       </c>
       <c r="C179" t="s">
         <v>202</v>
@@ -6916,10 +7127,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B180" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C180" t="s">
         <v>202</v>
@@ -6927,10 +7138,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B181" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C181" t="s">
         <v>202</v>
@@ -6938,10 +7149,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B182" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C182" t="s">
         <v>202</v>
@@ -6949,10 +7160,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B183" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C183" t="s">
         <v>202</v>
@@ -6960,10 +7171,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B184" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C184" t="s">
         <v>202</v>
@@ -6971,10 +7182,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B185" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C185" t="s">
         <v>202</v>
@@ -6982,10 +7193,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B186" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C186" t="s">
         <v>202</v>
@@ -6993,10 +7204,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B187" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C187" t="s">
         <v>202</v>
@@ -7004,10 +7215,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B188" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C188" t="s">
         <v>202</v>
@@ -7015,10 +7226,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B189" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C189" t="s">
         <v>202</v>
@@ -7026,10 +7237,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>847</v>
+      </c>
+      <c r="B190" t="s">
         <v>848</v>
-      </c>
-      <c r="B190" t="s">
-        <v>849</v>
       </c>
       <c r="C190" t="s">
         <v>202</v>
@@ -7037,10 +7248,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B191" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C191" t="s">
         <v>202</v>
@@ -7048,10 +7259,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>850</v>
+      </c>
+      <c r="B192" t="s">
         <v>851</v>
-      </c>
-      <c r="B192" t="s">
-        <v>852</v>
       </c>
       <c r="C192" t="s">
         <v>202</v>
@@ -7059,10 +7270,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B193" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C193" t="s">
         <v>202</v>
@@ -7070,10 +7281,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B194" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C194" t="s">
         <v>202</v>
@@ -7081,10 +7292,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B195" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -7092,10 +7303,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>858</v>
+      </c>
+      <c r="B196" t="s">
         <v>859</v>
-      </c>
-      <c r="B196" t="s">
-        <v>860</v>
       </c>
       <c r="C196" t="s">
         <v>202</v>
@@ -7103,10 +7314,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>860</v>
+      </c>
+      <c r="B197" t="s">
         <v>861</v>
-      </c>
-      <c r="B197" t="s">
-        <v>862</v>
       </c>
       <c r="C197" t="s">
         <v>202</v>
@@ -7114,10 +7325,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B198" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C198" t="s">
         <v>202</v>
@@ -7125,10 +7336,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>865</v>
+      </c>
+      <c r="B199" t="s">
         <v>866</v>
-      </c>
-      <c r="B199" t="s">
-        <v>867</v>
       </c>
       <c r="C199" t="s">
         <v>202</v>
@@ -7136,10 +7347,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>914</v>
+      </c>
+      <c r="B200" t="s">
         <v>915</v>
-      </c>
-      <c r="B200" t="s">
-        <v>916</v>
       </c>
       <c r="C200" t="s">
         <v>202</v>
@@ -7147,10 +7358,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B201" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C201" t="s">
         <v>202</v>
@@ -7158,10 +7369,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B202" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C202" t="s">
         <v>202</v>
@@ -7169,10 +7380,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B203" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C203" t="s">
         <v>202</v>
@@ -7180,10 +7391,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B204" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C204" t="s">
         <v>202</v>
@@ -7191,10 +7402,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>924</v>
+      </c>
+      <c r="B205" t="s">
         <v>925</v>
-      </c>
-      <c r="B205" t="s">
-        <v>926</v>
       </c>
       <c r="C205" t="s">
         <v>202</v>
@@ -7202,10 +7413,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>926</v>
+      </c>
+      <c r="B206" t="s">
         <v>927</v>
-      </c>
-      <c r="B206" t="s">
-        <v>928</v>
       </c>
       <c r="C206" t="s">
         <v>202</v>
@@ -7213,10 +7424,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B207" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C207" t="s">
         <v>202</v>
@@ -7224,10 +7435,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>930</v>
+      </c>
+      <c r="B208" t="s">
         <v>931</v>
-      </c>
-      <c r="B208" t="s">
-        <v>932</v>
       </c>
       <c r="C208" t="s">
         <v>202</v>
@@ -7235,10 +7446,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B209" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C209" t="s">
         <v>202</v>
@@ -7246,10 +7457,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B210" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C210" t="s">
         <v>202</v>
@@ -7257,10 +7468,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>935</v>
+      </c>
+      <c r="B211" t="s">
         <v>936</v>
-      </c>
-      <c r="B211" t="s">
-        <v>937</v>
       </c>
       <c r="C211" t="s">
         <v>202</v>
@@ -7268,10 +7479,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>937</v>
+      </c>
+      <c r="B212" t="s">
         <v>938</v>
-      </c>
-      <c r="B212" t="s">
-        <v>939</v>
       </c>
       <c r="C212" t="s">
         <v>202</v>
@@ -7279,10 +7490,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>939</v>
+      </c>
+      <c r="B213" t="s">
         <v>940</v>
-      </c>
-      <c r="B213" t="s">
-        <v>941</v>
       </c>
       <c r="C213" t="s">
         <v>202</v>
@@ -7290,10 +7501,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B214" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C214" t="s">
         <v>202</v>
@@ -7301,10 +7512,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B215" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C215" t="s">
         <v>202</v>
@@ -7312,10 +7523,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>945</v>
+      </c>
+      <c r="B216" t="s">
         <v>946</v>
-      </c>
-      <c r="B216" t="s">
-        <v>947</v>
       </c>
       <c r="C216" t="s">
         <v>202</v>
@@ -7323,10 +7534,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>947</v>
+      </c>
+      <c r="B217" t="s">
         <v>948</v>
-      </c>
-      <c r="B217" t="s">
-        <v>949</v>
       </c>
       <c r="C217" t="s">
         <v>202</v>
@@ -7334,10 +7545,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>949</v>
+      </c>
+      <c r="B218" t="s">
         <v>950</v>
-      </c>
-      <c r="B218" t="s">
-        <v>951</v>
       </c>
       <c r="C218" t="s">
         <v>202</v>
@@ -7345,10 +7556,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>953</v>
+      </c>
+      <c r="B219" t="s">
         <v>954</v>
-      </c>
-      <c r="B219" t="s">
-        <v>955</v>
       </c>
       <c r="C219" t="s">
         <v>202</v>
@@ -7356,10 +7567,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>959</v>
+      </c>
+      <c r="B220" t="s">
         <v>960</v>
-      </c>
-      <c r="B220" t="s">
-        <v>961</v>
       </c>
       <c r="C220" t="s">
         <v>202</v>
@@ -7367,10 +7578,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B221" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C221" t="s">
         <v>202</v>
@@ -7378,10 +7589,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>965</v>
+      </c>
+      <c r="B222" t="s">
         <v>966</v>
-      </c>
-      <c r="B222" t="s">
-        <v>967</v>
       </c>
       <c r="C222" t="s">
         <v>202</v>
@@ -7389,10 +7600,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B223" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C223" t="s">
         <v>202</v>
@@ -7400,10 +7611,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B224" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C224" t="s">
         <v>202</v>
@@ -7411,10 +7622,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B225" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C225" t="s">
         <v>202</v>
@@ -7422,10 +7633,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>972</v>
+      </c>
+      <c r="B226" t="s">
         <v>973</v>
-      </c>
-      <c r="B226" t="s">
-        <v>974</v>
       </c>
       <c r="C226" t="s">
         <v>202</v>
@@ -7433,10 +7644,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B227" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C227" t="s">
         <v>202</v>
@@ -7444,10 +7655,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B228" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C228" t="s">
         <v>202</v>
@@ -7455,10 +7666,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>979</v>
+      </c>
+      <c r="B229" t="s">
         <v>980</v>
-      </c>
-      <c r="B229" t="s">
-        <v>981</v>
       </c>
       <c r="C229" t="s">
         <v>202</v>
@@ -7466,10 +7677,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>981</v>
+      </c>
+      <c r="B230" t="s">
         <v>982</v>
-      </c>
-      <c r="B230" t="s">
-        <v>983</v>
       </c>
       <c r="C230" t="s">
         <v>202</v>
@@ -7477,10 +7688,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B231" t="s">
         <v>1006</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1007</v>
       </c>
       <c r="C231" t="s">
         <v>202</v>
@@ -7488,10 +7699,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B232" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C232" t="s">
         <v>202</v>
@@ -7499,10 +7710,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B233" t="s">
         <v>1013</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1014</v>
       </c>
       <c r="C233" t="s">
         <v>202</v>
@@ -7510,10 +7721,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B234" t="s">
         <v>1015</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1016</v>
       </c>
       <c r="C234" t="s">
         <v>202</v>
@@ -7521,10 +7732,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B235" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C235" t="s">
         <v>202</v>
@@ -7532,10 +7743,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B236" t="s">
         <v>1032</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1033</v>
       </c>
       <c r="C236" t="s">
         <v>202</v>
@@ -7543,10 +7754,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B237" t="s">
         <v>1034</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1035</v>
       </c>
       <c r="C237" t="s">
         <v>202</v>
@@ -7554,10 +7765,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B238" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>202</v>
@@ -7565,10 +7776,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B239" t="s">
         <v>1055</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1056</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>202</v>
@@ -7576,10 +7787,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B240" t="s">
         <v>1057</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1058</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>202</v>
@@ -7587,10 +7798,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B241" t="s">
         <v>1059</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1060</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>202</v>
@@ -7598,10 +7809,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B242" t="s">
         <v>1063</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1064</v>
       </c>
       <c r="C242" t="s">
         <v>202</v>
@@ -7609,10 +7820,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B243" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C243" t="s">
         <v>202</v>
@@ -7620,10 +7831,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B244" t="s">
         <v>1092</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1093</v>
       </c>
       <c r="C244" t="s">
         <v>202</v>
@@ -7631,10 +7842,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B245" t="s">
         <v>1094</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1095</v>
       </c>
       <c r="C245" t="s">
         <v>202</v>
@@ -7642,10 +7853,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>1096</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>1097</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>202</v>
@@ -7653,10 +7864,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>202</v>
@@ -7664,10 +7875,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B248" s="3" t="s">
         <v>1122</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>1123</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>202</v>
@@ -7675,10 +7886,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>202</v>
@@ -7686,10 +7897,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>202</v>
@@ -7697,10 +7908,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>202</v>
@@ -7708,10 +7919,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>202</v>
@@ -7719,10 +7930,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>202</v>
@@ -7730,10 +7941,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>1101</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>1102</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>202</v>
@@ -7741,10 +7952,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>1103</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>1104</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>202</v>
@@ -7752,10 +7963,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B256" s="3" t="s">
         <v>1105</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>1106</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>202</v>
@@ -7763,10 +7974,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>1107</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>1108</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>202</v>
@@ -7774,10 +7985,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>202</v>
@@ -7785,10 +7996,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>202</v>
@@ -7796,10 +8007,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>1113</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>1114</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>202</v>
@@ -7807,10 +8018,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>1115</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>1116</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>202</v>
@@ -7818,10 +8029,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B262" s="3" t="s">
         <v>1117</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>1118</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>202</v>
@@ -7829,10 +8040,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>202</v>
@@ -7840,10 +8051,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>202</v>
@@ -7851,10 +8062,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B265" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>202</v>
@@ -7862,10 +8073,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B266" t="s">
         <v>1193</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1194</v>
       </c>
       <c r="C266" t="s">
         <v>202</v>
@@ -7873,10 +8084,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B267" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C267" t="s">
         <v>202</v>
@@ -7884,10 +8095,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B268" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C268" t="s">
         <v>202</v>
@@ -7895,10 +8106,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B269" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C269" t="s">
         <v>202</v>
@@ -7906,10 +8117,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B270" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C270" t="s">
         <v>202</v>
@@ -7917,10 +8128,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B271" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C271" t="s">
         <v>202</v>
@@ -7928,10 +8139,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B272" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C272" t="s">
         <v>202</v>
@@ -7939,10 +8150,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B273" t="s">
         <v>1253</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1254</v>
       </c>
       <c r="C273" t="s">
         <v>202</v>
@@ -7950,10 +8161,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B274" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C274" t="s">
         <v>202</v>
@@ -7961,10 +8172,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B275" t="s">
         <v>1257</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1258</v>
       </c>
       <c r="C275" t="s">
         <v>202</v>
@@ -7972,10 +8183,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B276" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C276" t="s">
         <v>202</v>
@@ -7983,10 +8194,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B277" t="s">
         <v>1272</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1273</v>
       </c>
       <c r="C277" t="s">
         <v>202</v>
@@ -7994,10 +8205,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B278" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C278" t="s">
         <v>202</v>
@@ -8005,10 +8216,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B279" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C279" t="s">
         <v>202</v>
@@ -8016,10 +8227,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B280" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C280" t="s">
         <v>202</v>
@@ -8027,10 +8238,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B281" t="s">
         <v>1278</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1279</v>
       </c>
       <c r="C281" t="s">
         <v>202</v>
@@ -8038,10 +8249,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B282" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C282" t="s">
         <v>202</v>
@@ -8049,10 +8260,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B283" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C283" t="s">
         <v>202</v>
@@ -8060,10 +8271,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B284" t="s">
         <v>1288</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1289</v>
       </c>
       <c r="C284" t="s">
         <v>202</v>
@@ -8071,10 +8282,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B285" t="s">
         <v>1290</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1291</v>
       </c>
       <c r="C285" t="s">
         <v>202</v>
@@ -8082,10 +8293,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B286" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C286" t="s">
         <v>202</v>
@@ -8093,10 +8304,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B287" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C287" t="s">
         <v>202</v>
@@ -8104,10 +8315,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B288" t="s">
         <v>1313</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1314</v>
       </c>
       <c r="C288" t="s">
         <v>202</v>
@@ -8115,10 +8326,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B289" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C289" t="s">
         <v>202</v>
@@ -8126,10 +8337,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B290" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C290" t="s">
         <v>202</v>
@@ -8137,10 +8348,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B291" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C291" t="s">
         <v>202</v>
@@ -8148,10 +8359,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B292" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C292" t="s">
         <v>202</v>
@@ -8159,10 +8370,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B293" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C293" t="s">
         <v>202</v>
@@ -8170,10 +8381,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B294" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C294" t="s">
         <v>202</v>
@@ -8181,10 +8392,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B295" t="s">
         <v>1355</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1356</v>
       </c>
       <c r="C295" t="s">
         <v>202</v>
@@ -8192,10 +8403,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B296" t="s">
         <v>1359</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1360</v>
       </c>
       <c r="C296" t="s">
         <v>202</v>
@@ -8203,2298 +8414,2298 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>984</v>
+        <v>1398</v>
       </c>
       <c r="B297" t="s">
-        <v>985</v>
+        <v>1399</v>
       </c>
       <c r="C297" t="s">
-        <v>1048</v>
+        <v>202</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1374</v>
+        <v>1400</v>
       </c>
       <c r="B298" t="s">
-        <v>1294</v>
+        <v>1401</v>
       </c>
       <c r="C298" t="s">
-        <v>1048</v>
+        <v>202</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>283</v>
+        <v>1402</v>
       </c>
       <c r="B299" t="s">
-        <v>284</v>
+        <v>1403</v>
       </c>
       <c r="C299" t="s">
-        <v>1048</v>
+        <v>202</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1334</v>
+        <v>1404</v>
       </c>
       <c r="B300" t="s">
-        <v>1335</v>
+        <v>1405</v>
       </c>
       <c r="C300" t="s">
-        <v>1333</v>
+        <v>202</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1327</v>
+        <v>1407</v>
       </c>
       <c r="B301" t="s">
-        <v>1325</v>
+        <v>1406</v>
       </c>
       <c r="C301" t="s">
-        <v>1333</v>
+        <v>202</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>44</v>
+        <v>1408</v>
       </c>
       <c r="B302" t="s">
-        <v>45</v>
+        <v>1409</v>
       </c>
       <c r="C302" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>282</v>
+        <v>1412</v>
       </c>
       <c r="B303" t="s">
-        <v>281</v>
+        <v>1410</v>
       </c>
       <c r="C303" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>47</v>
+        <v>1411</v>
       </c>
       <c r="B304" t="s">
-        <v>48</v>
+        <v>1413</v>
       </c>
       <c r="C304" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1305</v>
+        <v>1415</v>
       </c>
       <c r="B305" t="s">
-        <v>1304</v>
+        <v>1414</v>
       </c>
       <c r="C305" t="s">
-        <v>1312</v>
+        <v>202</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1307</v>
+        <v>1416</v>
       </c>
       <c r="B306" t="s">
-        <v>1306</v>
+        <v>1417</v>
       </c>
       <c r="C306" t="s">
-        <v>1312</v>
+        <v>202</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>963</v>
+        <v>1419</v>
       </c>
       <c r="B307" t="s">
-        <v>965</v>
+        <v>1418</v>
       </c>
       <c r="C307" t="s">
-        <v>964</v>
+        <v>202</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1375</v>
+        <v>983</v>
       </c>
       <c r="B308" t="s">
-        <v>1376</v>
+        <v>984</v>
       </c>
       <c r="C308" t="s">
-        <v>964</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="B309" t="s">
-        <v>1378</v>
+        <v>1293</v>
       </c>
       <c r="C309" t="s">
-        <v>964</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>434</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>623</v>
+        <v>282</v>
+      </c>
+      <c r="B310" t="s">
+        <v>283</v>
       </c>
       <c r="C310" t="s">
-        <v>440</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>439</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>698</v>
+        <v>1333</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1334</v>
       </c>
       <c r="C311" t="s">
-        <v>440</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>438</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>624</v>
+        <v>1326</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1324</v>
       </c>
       <c r="C312" t="s">
-        <v>440</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>437</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>436</v>
+        <v>44</v>
+      </c>
+      <c r="B313" t="s">
+        <v>45</v>
       </c>
       <c r="C313" t="s">
-        <v>440</v>
+        <v>204</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="B314" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="C314" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>285</v>
+        <v>47</v>
       </c>
       <c r="B315" t="s">
-        <v>286</v>
+        <v>48</v>
       </c>
       <c r="C315" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>140</v>
+        <v>1304</v>
       </c>
       <c r="B316" t="s">
-        <v>141</v>
+        <v>1303</v>
       </c>
       <c r="C316" t="s">
-        <v>213</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>144</v>
+        <v>1306</v>
       </c>
       <c r="B317" t="s">
-        <v>145</v>
+        <v>1305</v>
       </c>
       <c r="C317" t="s">
-        <v>213</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>245</v>
+        <v>962</v>
       </c>
       <c r="B318" t="s">
-        <v>244</v>
+        <v>964</v>
       </c>
       <c r="C318" t="s">
-        <v>246</v>
+        <v>963</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>248</v>
+        <v>1374</v>
       </c>
       <c r="B319" t="s">
-        <v>250</v>
+        <v>1375</v>
       </c>
       <c r="C319" t="s">
-        <v>246</v>
+        <v>963</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>760</v>
+        <v>1376</v>
       </c>
       <c r="B320" t="s">
-        <v>801</v>
+        <v>1377</v>
       </c>
       <c r="C320" t="s">
-        <v>716</v>
+        <v>963</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1021</v>
+        <v>433</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="C321" t="s">
-        <v>716</v>
+        <v>439</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>123</v>
-      </c>
-      <c r="B322" t="s">
-        <v>124</v>
+        <v>438</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>697</v>
       </c>
       <c r="C322" t="s">
-        <v>210</v>
+        <v>439</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>125</v>
-      </c>
-      <c r="B323" t="s">
-        <v>126</v>
+        <v>437</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>623</v>
       </c>
       <c r="C323" t="s">
-        <v>210</v>
+        <v>439</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>212</v>
-      </c>
-      <c r="B324" t="s">
-        <v>132</v>
+        <v>436</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="C324" t="s">
-        <v>210</v>
+        <v>439</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>602</v>
+        <v>250</v>
       </c>
       <c r="B325" t="s">
-        <v>601</v>
+        <v>248</v>
       </c>
       <c r="C325" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1261</v>
+        <v>284</v>
       </c>
       <c r="B326" t="s">
-        <v>1262</v>
+        <v>285</v>
       </c>
       <c r="C326" t="s">
-        <v>1263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1265</v>
+        <v>140</v>
       </c>
       <c r="B327" t="s">
-        <v>1264</v>
+        <v>141</v>
       </c>
       <c r="C327" t="s">
-        <v>1263</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1267</v>
+        <v>144</v>
       </c>
       <c r="B328" t="s">
-        <v>1266</v>
+        <v>145</v>
       </c>
       <c r="C328" t="s">
-        <v>1263</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1269</v>
+        <v>1420</v>
       </c>
       <c r="B329" t="s">
-        <v>1268</v>
+        <v>1421</v>
       </c>
       <c r="C329" t="s">
-        <v>1263</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1271</v>
+        <v>1423</v>
       </c>
       <c r="B330" t="s">
-        <v>1270</v>
+        <v>1422</v>
       </c>
       <c r="C330" t="s">
-        <v>1263</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>265</v>
+        <v>1425</v>
       </c>
       <c r="B331" t="s">
-        <v>260</v>
+        <v>1424</v>
       </c>
       <c r="C331" t="s">
-        <v>592</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>537</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>538</v>
+        <v>1427</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1426</v>
       </c>
       <c r="C332" t="s">
-        <v>592</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>539</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>540</v>
+        <v>244</v>
+      </c>
+      <c r="B333" t="s">
+        <v>243</v>
       </c>
       <c r="C333" t="s">
-        <v>592</v>
+        <v>245</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>542</v>
-      </c>
-      <c r="B334" s="3" t="s">
-        <v>541</v>
+        <v>247</v>
+      </c>
+      <c r="B334" t="s">
+        <v>249</v>
       </c>
       <c r="C334" t="s">
-        <v>592</v>
+        <v>245</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>661</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>660</v>
+        <v>759</v>
+      </c>
+      <c r="B335" t="s">
+        <v>800</v>
       </c>
       <c r="C335" t="s">
-        <v>592</v>
+        <v>715</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>657</v>
-      </c>
-      <c r="B336" s="3" t="s">
-        <v>656</v>
+        <v>1019</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1020</v>
       </c>
       <c r="C336" t="s">
-        <v>592</v>
+        <v>715</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>658</v>
-      </c>
-      <c r="B337" s="3" t="s">
-        <v>659</v>
+        <v>123</v>
+      </c>
+      <c r="B337" t="s">
+        <v>124</v>
       </c>
       <c r="C337" t="s">
-        <v>592</v>
+        <v>210</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1285</v>
+        <v>125</v>
       </c>
       <c r="B338" t="s">
-        <v>1284</v>
+        <v>126</v>
       </c>
       <c r="C338" t="s">
-        <v>592</v>
+        <v>210</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>343</v>
+        <v>212</v>
       </c>
       <c r="B339" t="s">
-        <v>1229</v>
+        <v>132</v>
       </c>
       <c r="C339" t="s">
-        <v>1234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1236</v>
+        <v>601</v>
       </c>
       <c r="B340" t="s">
-        <v>1228</v>
+        <v>600</v>
       </c>
       <c r="C340" t="s">
-        <v>1234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
       <c r="B341" t="s">
-        <v>1232</v>
+        <v>1261</v>
       </c>
       <c r="C341" t="s">
-        <v>1234</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1237</v>
+        <v>1264</v>
       </c>
       <c r="B342" t="s">
-        <v>1230</v>
+        <v>1263</v>
       </c>
       <c r="C342" t="s">
-        <v>1234</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1235</v>
+        <v>1266</v>
       </c>
       <c r="B343" t="s">
-        <v>1231</v>
+        <v>1265</v>
       </c>
       <c r="C343" t="s">
-        <v>1234</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>959</v>
+        <v>1268</v>
       </c>
       <c r="B344" t="s">
-        <v>958</v>
+        <v>1267</v>
       </c>
       <c r="C344" t="s">
-        <v>970</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1380</v>
+        <v>1270</v>
       </c>
       <c r="B345" t="s">
-        <v>1379</v>
+        <v>1269</v>
       </c>
       <c r="C345" t="s">
-        <v>970</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1381</v>
+        <v>264</v>
       </c>
       <c r="B346" t="s">
-        <v>962</v>
+        <v>259</v>
       </c>
       <c r="C346" t="s">
-        <v>1384</v>
+        <v>591</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1382</v>
+        <v>536</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="C347" t="s">
-        <v>1384</v>
+        <v>591</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>299</v>
-      </c>
-      <c r="B348" t="s">
-        <v>827</v>
+        <v>538</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="C348" t="s">
-        <v>1049</v>
+        <v>591</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1052</v>
+        <v>541</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="C349" t="s">
-        <v>1049</v>
+        <v>591</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1062</v>
+        <v>660</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>659</v>
       </c>
       <c r="C350" t="s">
-        <v>1049</v>
+        <v>591</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1385</v>
+        <v>656</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>655</v>
       </c>
       <c r="C351" t="s">
-        <v>1387</v>
+        <v>591</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="C352" t="s">
-        <v>1387</v>
+        <v>591</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1137</v>
+        <v>1284</v>
       </c>
       <c r="B353" t="s">
-        <v>1134</v>
+        <v>1283</v>
       </c>
       <c r="C353" t="s">
-        <v>1138</v>
+        <v>591</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1135</v>
+        <v>342</v>
       </c>
       <c r="B354" t="s">
-        <v>1136</v>
+        <v>1228</v>
       </c>
       <c r="C354" t="s">
-        <v>1138</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1144</v>
+        <v>1235</v>
       </c>
       <c r="B355" t="s">
-        <v>1139</v>
+        <v>1227</v>
       </c>
       <c r="C355" t="s">
-        <v>1138</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1143</v>
+        <v>1232</v>
       </c>
       <c r="B356" t="s">
-        <v>1140</v>
+        <v>1231</v>
       </c>
       <c r="C356" t="s">
-        <v>1138</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1142</v>
+        <v>1236</v>
       </c>
       <c r="B357" t="s">
-        <v>1141</v>
+        <v>1229</v>
       </c>
       <c r="C357" t="s">
-        <v>1138</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1146</v>
+        <v>1234</v>
       </c>
       <c r="B358" t="s">
-        <v>1145</v>
+        <v>1230</v>
       </c>
       <c r="C358" t="s">
-        <v>1138</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1147</v>
+        <v>958</v>
       </c>
       <c r="B359" t="s">
-        <v>1148</v>
+        <v>957</v>
       </c>
       <c r="C359" t="s">
-        <v>1138</v>
+        <v>969</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1152</v>
+        <v>1379</v>
       </c>
       <c r="B360" t="s">
-        <v>1149</v>
+        <v>1378</v>
       </c>
       <c r="C360" t="s">
-        <v>1138</v>
+        <v>969</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1151</v>
+        <v>1380</v>
       </c>
       <c r="B361" t="s">
-        <v>1150</v>
+        <v>961</v>
       </c>
       <c r="C361" t="s">
-        <v>1138</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1154</v>
+        <v>1382</v>
       </c>
       <c r="B362" t="s">
-        <v>1153</v>
+        <v>1381</v>
       </c>
       <c r="C362" t="s">
-        <v>1138</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1174</v>
+        <v>298</v>
       </c>
       <c r="B363" t="s">
-        <v>1173</v>
+        <v>826</v>
       </c>
       <c r="C363" t="s">
-        <v>1138</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1187</v>
+        <v>1050</v>
       </c>
       <c r="B364" t="s">
-        <v>1186</v>
+        <v>1051</v>
       </c>
       <c r="C364" t="s">
-        <v>1138</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>36</v>
+        <v>1060</v>
       </c>
       <c r="B365" t="s">
-        <v>37</v>
+        <v>1061</v>
       </c>
       <c r="C365" t="s">
-        <v>552</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>280</v>
+        <v>1385</v>
       </c>
       <c r="B366" t="s">
-        <v>279</v>
+        <v>1384</v>
       </c>
       <c r="C366" t="s">
-        <v>552</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>551</v>
+        <v>684</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>632</v>
+        <v>681</v>
       </c>
       <c r="C367" t="s">
-        <v>552</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>721</v>
+        <v>1136</v>
       </c>
       <c r="B368" t="s">
-        <v>719</v>
+        <v>1133</v>
       </c>
       <c r="C368" t="s">
-        <v>552</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>766</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>508</v>
+        <v>1134</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1135</v>
       </c>
       <c r="C369" t="s">
-        <v>507</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>527</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>509</v>
+        <v>1143</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1138</v>
       </c>
       <c r="C370" t="s">
-        <v>507</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>526</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>510</v>
+        <v>1142</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1139</v>
       </c>
       <c r="C371" t="s">
-        <v>507</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>512</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>511</v>
+        <v>1141</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1140</v>
       </c>
       <c r="C372" t="s">
-        <v>507</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>767</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>768</v>
+        <v>1145</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1144</v>
       </c>
       <c r="C373" t="s">
-        <v>507</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>525</v>
+        <v>1146</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1147</v>
       </c>
       <c r="C374" t="s">
-        <v>1391</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>1389</v>
+        <v>1151</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1148</v>
       </c>
       <c r="C375" t="s">
-        <v>1391</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>499</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>498</v>
+        <v>1150</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1149</v>
       </c>
       <c r="C376" t="s">
-        <v>504</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>501</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>500</v>
+        <v>1153</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1152</v>
       </c>
       <c r="C377" t="s">
-        <v>504</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>770</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>769</v>
+        <v>1173</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1172</v>
       </c>
       <c r="C378" t="s">
-        <v>504</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>502</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>503</v>
+        <v>1186</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1185</v>
       </c>
       <c r="C379" t="s">
-        <v>504</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>532</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>533</v>
+        <v>1429</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1430</v>
       </c>
       <c r="C380" t="s">
-        <v>506</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>505</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>528</v>
+        <v>1431</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1432</v>
       </c>
       <c r="C381" t="s">
-        <v>506</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>987</v>
+        <v>1433</v>
       </c>
       <c r="B382" t="s">
-        <v>986</v>
+        <v>1434</v>
       </c>
       <c r="C382" t="s">
-        <v>990</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1004</v>
+        <v>1436</v>
       </c>
       <c r="B383" t="s">
-        <v>988</v>
+        <v>1435</v>
       </c>
       <c r="C383" t="s">
-        <v>990</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1005</v>
+        <v>1437</v>
       </c>
       <c r="B384" t="s">
-        <v>989</v>
+        <v>1438</v>
       </c>
       <c r="C384" t="s">
-        <v>990</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B385" t="s">
-        <v>835</v>
+        <v>37</v>
       </c>
       <c r="C385" t="s">
-        <v>206</v>
+        <v>551</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
       <c r="B386" t="s">
-        <v>834</v>
+        <v>278</v>
       </c>
       <c r="C386" t="s">
-        <v>206</v>
+        <v>551</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>91</v>
-      </c>
-      <c r="B387" t="s">
-        <v>92</v>
+        <v>550</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>631</v>
       </c>
       <c r="C387" t="s">
-        <v>226</v>
+        <v>551</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>101</v>
+        <v>720</v>
       </c>
       <c r="B388" t="s">
-        <v>102</v>
+        <v>718</v>
       </c>
       <c r="C388" t="s">
-        <v>226</v>
+        <v>551</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>230</v>
-      </c>
-      <c r="B389" t="s">
-        <v>831</v>
+        <v>765</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="C389" t="s">
-        <v>226</v>
+        <v>506</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>584</v>
-      </c>
-      <c r="B390" t="s">
-        <v>832</v>
+        <v>526</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>508</v>
       </c>
       <c r="C390" t="s">
-        <v>226</v>
+        <v>506</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>585</v>
-      </c>
-      <c r="B391" t="s">
-        <v>833</v>
+        <v>525</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="C391" t="s">
-        <v>226</v>
+        <v>506</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>290</v>
-      </c>
-      <c r="B392" t="s">
-        <v>291</v>
+        <v>511</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>510</v>
       </c>
       <c r="C392" t="s">
-        <v>226</v>
+        <v>506</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="C393" t="s">
-        <v>226</v>
+        <v>506</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>449</v>
+        <v>1387</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>780</v>
+        <v>524</v>
       </c>
       <c r="C394" t="s">
-        <v>226</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>453</v>
+        <v>1389</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>779</v>
+        <v>1388</v>
       </c>
       <c r="C395" t="s">
-        <v>226</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>868</v>
-      </c>
-      <c r="B396" t="s">
-        <v>869</v>
+        <v>498</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="C396" t="s">
-        <v>1337</v>
+        <v>503</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1339</v>
+        <v>500</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>499</v>
       </c>
       <c r="C397" t="s">
-        <v>1337</v>
+        <v>503</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1354</v>
+        <v>769</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>768</v>
       </c>
       <c r="C398" t="s">
-        <v>1337</v>
+        <v>503</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="3" t="s">
-        <v>429</v>
+      <c r="A399" t="s">
+        <v>501</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="C399" t="s">
-        <v>783</v>
+        <v>503</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="3" t="s">
-        <v>622</v>
+      <c r="A400" t="s">
+        <v>531</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
       <c r="C400" t="s">
-        <v>783</v>
+        <v>505</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1239</v>
+        <v>504</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>527</v>
       </c>
       <c r="C401" t="s">
-        <v>1250</v>
+        <v>505</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1240</v>
+        <v>986</v>
       </c>
       <c r="B402" t="s">
-        <v>1241</v>
+        <v>985</v>
       </c>
       <c r="C402" t="s">
-        <v>1250</v>
+        <v>989</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1243</v>
+        <v>1003</v>
       </c>
       <c r="B403" t="s">
-        <v>1242</v>
+        <v>987</v>
       </c>
       <c r="C403" t="s">
-        <v>1250</v>
+        <v>989</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1244</v>
+        <v>1004</v>
       </c>
       <c r="B404" t="s">
-        <v>1245</v>
+        <v>988</v>
       </c>
       <c r="C404" t="s">
-        <v>1250</v>
+        <v>989</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1247</v>
+        <v>85</v>
       </c>
       <c r="B405" t="s">
-        <v>1246</v>
+        <v>834</v>
       </c>
       <c r="C405" t="s">
-        <v>1250</v>
+        <v>206</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1249</v>
+        <v>86</v>
       </c>
       <c r="B406" t="s">
-        <v>1248</v>
+        <v>833</v>
       </c>
       <c r="C406" t="s">
-        <v>1250</v>
+        <v>206</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>612</v>
+        <v>91</v>
       </c>
       <c r="B407" t="s">
-        <v>797</v>
+        <v>92</v>
       </c>
       <c r="C407" t="s">
-        <v>388</v>
+        <v>225</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1393</v>
+        <v>101</v>
       </c>
       <c r="B408" t="s">
-        <v>1392</v>
+        <v>102</v>
       </c>
       <c r="C408" t="s">
-        <v>388</v>
+        <v>225</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>871</v>
+        <v>229</v>
       </c>
       <c r="B409" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="C409" t="s">
-        <v>879</v>
+        <v>225</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>873</v>
+        <v>583</v>
       </c>
       <c r="B410" t="s">
-        <v>872</v>
+        <v>831</v>
       </c>
       <c r="C410" t="s">
-        <v>879</v>
+        <v>225</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>874</v>
+        <v>584</v>
       </c>
       <c r="B411" t="s">
-        <v>875</v>
+        <v>832</v>
       </c>
       <c r="C411" t="s">
-        <v>879</v>
+        <v>225</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>880</v>
+        <v>289</v>
       </c>
       <c r="B412" t="s">
-        <v>1079</v>
+        <v>290</v>
       </c>
       <c r="C412" t="s">
-        <v>879</v>
+        <v>225</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>881</v>
-      </c>
-      <c r="B413" t="s">
-        <v>882</v>
+        <v>780</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>781</v>
       </c>
       <c r="C413" t="s">
-        <v>879</v>
+        <v>225</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>883</v>
-      </c>
-      <c r="B414" t="s">
-        <v>884</v>
+        <v>448</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>779</v>
       </c>
       <c r="C414" t="s">
-        <v>879</v>
+        <v>225</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>885</v>
-      </c>
-      <c r="B415" t="s">
-        <v>886</v>
+        <v>452</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>778</v>
       </c>
       <c r="C415" t="s">
-        <v>879</v>
+        <v>225</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="B416" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="C416" t="s">
-        <v>879</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1080</v>
+        <v>1337</v>
       </c>
       <c r="B417" t="s">
-        <v>1081</v>
+        <v>1338</v>
       </c>
       <c r="C417" t="s">
-        <v>879</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1082</v>
+        <v>1352</v>
       </c>
       <c r="B418" t="s">
-        <v>1083</v>
+        <v>1353</v>
       </c>
       <c r="C418" t="s">
-        <v>879</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B419" t="s">
-        <v>1085</v>
+      <c r="A419" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="C419" t="s">
-        <v>879</v>
+        <v>782</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1087</v>
+      <c r="A420" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="C420" t="s">
-        <v>879</v>
+        <v>782</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1088</v>
+        <v>1237</v>
       </c>
       <c r="B421" t="s">
-        <v>1089</v>
+        <v>1238</v>
       </c>
       <c r="C421" t="s">
-        <v>879</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1091</v>
+        <v>1239</v>
       </c>
       <c r="B422" t="s">
-        <v>1090</v>
+        <v>1240</v>
       </c>
       <c r="C422" t="s">
-        <v>879</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>38</v>
+        <v>1242</v>
       </c>
       <c r="B423" t="s">
-        <v>39</v>
+        <v>1241</v>
       </c>
       <c r="C423" t="s">
-        <v>1394</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1395</v>
+        <v>1243</v>
       </c>
       <c r="B424" t="s">
-        <v>1396</v>
+        <v>1244</v>
       </c>
       <c r="C424" t="s">
-        <v>1394</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1224</v>
+        <v>1246</v>
       </c>
       <c r="B425" t="s">
-        <v>1221</v>
+        <v>1245</v>
       </c>
       <c r="C425" t="s">
-        <v>1227</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1223</v>
+        <v>1248</v>
       </c>
       <c r="B426" t="s">
-        <v>1222</v>
+        <v>1247</v>
       </c>
       <c r="C426" t="s">
-        <v>1227</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1226</v>
+        <v>611</v>
       </c>
       <c r="B427" t="s">
-        <v>1225</v>
+        <v>796</v>
       </c>
       <c r="C427" t="s">
-        <v>1227</v>
+        <v>387</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>333</v>
+        <v>1392</v>
       </c>
       <c r="B428" t="s">
-        <v>334</v>
+        <v>1391</v>
       </c>
       <c r="C428" t="s">
-        <v>1043</v>
+        <v>387</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>335</v>
+        <v>870</v>
       </c>
       <c r="B429" t="s">
-        <v>594</v>
+        <v>869</v>
       </c>
       <c r="C429" t="s">
-        <v>1043</v>
+        <v>878</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>336</v>
+        <v>872</v>
       </c>
       <c r="B430" t="s">
-        <v>1301</v>
+        <v>871</v>
       </c>
       <c r="C430" t="s">
-        <v>1043</v>
+        <v>878</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>70</v>
+        <v>873</v>
       </c>
       <c r="B431" t="s">
-        <v>71</v>
+        <v>874</v>
       </c>
       <c r="C431" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>273</v>
+        <v>879</v>
       </c>
       <c r="B432" t="s">
-        <v>272</v>
+        <v>1078</v>
       </c>
       <c r="C432" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>111</v>
+        <v>880</v>
       </c>
       <c r="B433" t="s">
-        <v>112</v>
+        <v>881</v>
       </c>
       <c r="C433" t="s">
-        <v>208</v>
+        <v>878</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>113</v>
+        <v>882</v>
       </c>
       <c r="B434" t="s">
-        <v>207</v>
+        <v>883</v>
       </c>
       <c r="C434" t="s">
-        <v>208</v>
+        <v>878</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>796</v>
+        <v>884</v>
       </c>
       <c r="B435" t="s">
-        <v>114</v>
+        <v>885</v>
       </c>
       <c r="C435" t="s">
-        <v>208</v>
+        <v>878</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>115</v>
+        <v>886</v>
       </c>
       <c r="B436" t="s">
-        <v>116</v>
+        <v>887</v>
       </c>
       <c r="C436" t="s">
-        <v>208</v>
+        <v>878</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>146</v>
+        <v>1079</v>
       </c>
       <c r="B437" t="s">
-        <v>147</v>
+        <v>1080</v>
       </c>
       <c r="C437" t="s">
-        <v>208</v>
+        <v>878</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>710</v>
+        <v>1081</v>
       </c>
       <c r="B438" t="s">
-        <v>709</v>
+        <v>1082</v>
       </c>
       <c r="C438" t="s">
-        <v>208</v>
+        <v>878</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>761</v>
+        <v>1083</v>
       </c>
       <c r="B439" t="s">
-        <v>711</v>
+        <v>1084</v>
       </c>
       <c r="C439" t="s">
-        <v>208</v>
+        <v>878</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>714</v>
+        <v>1085</v>
       </c>
       <c r="B440" t="s">
-        <v>715</v>
+        <v>1086</v>
       </c>
       <c r="C440" t="s">
-        <v>208</v>
+        <v>878</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>713</v>
+        <v>1087</v>
       </c>
       <c r="B441" t="s">
-        <v>712</v>
+        <v>1088</v>
       </c>
       <c r="C441" t="s">
-        <v>208</v>
+        <v>878</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="3" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>208</v>
+      <c r="A442" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C442" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1326</v>
+        <v>38</v>
       </c>
       <c r="B443" t="s">
-        <v>1328</v>
+        <v>39</v>
       </c>
       <c r="C443" t="s">
-        <v>1350</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1332</v>
+        <v>1394</v>
       </c>
       <c r="B444" t="s">
-        <v>1336</v>
+        <v>1395</v>
       </c>
       <c r="C444" t="s">
-        <v>1350</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1340</v>
+        <v>1223</v>
       </c>
       <c r="B445" t="s">
-        <v>1341</v>
+        <v>1220</v>
       </c>
       <c r="C445" t="s">
-        <v>1350</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1342</v>
+        <v>1222</v>
       </c>
       <c r="B446" t="s">
-        <v>1343</v>
+        <v>1221</v>
       </c>
       <c r="C446" t="s">
-        <v>1350</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1344</v>
+        <v>1225</v>
       </c>
       <c r="B447" t="s">
-        <v>1345</v>
+        <v>1224</v>
       </c>
       <c r="C447" t="s">
-        <v>1350</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1346</v>
+        <v>332</v>
       </c>
       <c r="B448" t="s">
-        <v>1347</v>
+        <v>333</v>
       </c>
       <c r="C448" t="s">
-        <v>1350</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1348</v>
+        <v>334</v>
       </c>
       <c r="B449" t="s">
-        <v>1349</v>
+        <v>593</v>
       </c>
       <c r="C449" t="s">
-        <v>1350</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1351</v>
+        <v>335</v>
       </c>
       <c r="B450" t="s">
-        <v>1352</v>
+        <v>1300</v>
       </c>
       <c r="C450" t="s">
-        <v>1350</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1357</v>
+        <v>70</v>
       </c>
       <c r="B451" t="s">
-        <v>1358</v>
+        <v>71</v>
       </c>
       <c r="C451" t="s">
-        <v>1350</v>
+        <v>875</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="C452" s="4" t="s">
-        <v>626</v>
+      <c r="A452" t="s">
+        <v>272</v>
+      </c>
+      <c r="B452" t="s">
+        <v>271</v>
+      </c>
+      <c r="C452" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="C453" s="4" t="s">
-        <v>626</v>
+      <c r="A453" t="s">
+        <v>111</v>
+      </c>
+      <c r="B453" t="s">
+        <v>112</v>
+      </c>
+      <c r="C453" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="B454" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="C454" s="4" t="s">
-        <v>626</v>
+      <c r="A454" t="s">
+        <v>113</v>
+      </c>
+      <c r="B454" t="s">
+        <v>207</v>
+      </c>
+      <c r="C454" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B455" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C455" s="4" t="s">
-        <v>626</v>
+      <c r="A455" t="s">
+        <v>795</v>
+      </c>
+      <c r="B455" t="s">
+        <v>114</v>
+      </c>
+      <c r="C455" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>625</v>
-      </c>
-      <c r="B456" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C456" s="4" t="s">
-        <v>626</v>
+        <v>115</v>
+      </c>
+      <c r="B456" t="s">
+        <v>116</v>
+      </c>
+      <c r="C456" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>448</v>
-      </c>
-      <c r="B457" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C457" s="4" t="s">
-        <v>626</v>
+        <v>146</v>
+      </c>
+      <c r="B457" t="s">
+        <v>147</v>
+      </c>
+      <c r="C457" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>458</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="C458" s="4" t="s">
-        <v>626</v>
+        <v>709</v>
+      </c>
+      <c r="B458" t="s">
+        <v>708</v>
+      </c>
+      <c r="C458" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>344</v>
+        <v>760</v>
       </c>
       <c r="B459" t="s">
-        <v>345</v>
+        <v>710</v>
       </c>
       <c r="C459" t="s">
-        <v>680</v>
+        <v>208</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>604</v>
+        <v>713</v>
       </c>
       <c r="B460" t="s">
-        <v>784</v>
+        <v>714</v>
       </c>
       <c r="C460" t="s">
-        <v>680</v>
+        <v>208</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>375</v>
+        <v>712</v>
       </c>
       <c r="B461" t="s">
-        <v>372</v>
+        <v>711</v>
       </c>
       <c r="C461" t="s">
-        <v>680</v>
+        <v>208</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>377</v>
-      </c>
-      <c r="B462" t="s">
-        <v>376</v>
-      </c>
-      <c r="C462" t="s">
-        <v>680</v>
+      <c r="A462" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>378</v>
+        <v>1325</v>
       </c>
       <c r="B463" t="s">
-        <v>1300</v>
+        <v>1327</v>
       </c>
       <c r="C463" t="s">
-        <v>680</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>346</v>
+        <v>1331</v>
       </c>
       <c r="B464" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="C464" t="s">
-        <v>680</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>605</v>
+        <v>1339</v>
       </c>
       <c r="B465" t="s">
-        <v>379</v>
+        <v>1340</v>
       </c>
       <c r="C465" t="s">
-        <v>680</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>380</v>
+        <v>1341</v>
       </c>
       <c r="B466" t="s">
-        <v>606</v>
+        <v>1342</v>
       </c>
       <c r="C466" t="s">
-        <v>680</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>347</v>
+        <v>1343</v>
       </c>
       <c r="B467" t="s">
-        <v>348</v>
+        <v>1344</v>
       </c>
       <c r="C467" t="s">
-        <v>680</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>607</v>
+        <v>1345</v>
       </c>
       <c r="B468" t="s">
-        <v>381</v>
+        <v>1346</v>
       </c>
       <c r="C468" t="s">
-        <v>680</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>608</v>
+        <v>1347</v>
       </c>
       <c r="B469" t="s">
-        <v>349</v>
+        <v>1348</v>
       </c>
       <c r="C469" t="s">
-        <v>680</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>382</v>
+        <v>1350</v>
       </c>
       <c r="B470" t="s">
-        <v>699</v>
+        <v>1351</v>
       </c>
       <c r="C470" t="s">
-        <v>680</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>383</v>
+        <v>1356</v>
       </c>
       <c r="B471" t="s">
-        <v>785</v>
+        <v>1357</v>
       </c>
       <c r="C471" t="s">
-        <v>680</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>677</v>
+      <c r="A472" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C472" t="s">
-        <v>680</v>
+        <v>616</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>679</v>
+      <c r="A473" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>676</v>
+        <v>618</v>
       </c>
       <c r="C473" t="s">
-        <v>680</v>
+        <v>625</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>435</v>
+        <v>699</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C474" t="s">
-        <v>452</v>
+        <v>617</v>
+      </c>
+      <c r="C474" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>432</v>
+        <v>619</v>
       </c>
       <c r="C475" t="s">
-        <v>452</v>
+        <v>625</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476" s="3" t="s">
-        <v>451</v>
+      <c r="A476" t="s">
+        <v>624</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C476" t="s">
-        <v>452</v>
+        <v>445</v>
+      </c>
+      <c r="C476" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>686</v>
+        <v>447</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>681</v>
+        <v>446</v>
       </c>
       <c r="C477" t="s">
-        <v>452</v>
+        <v>625</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>798</v>
-      </c>
-      <c r="B478" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="C478" t="s">
-        <v>452</v>
+        <v>457</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C478" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>763</v>
+        <v>343</v>
       </c>
       <c r="B479" t="s">
-        <v>764</v>
+        <v>344</v>
       </c>
       <c r="C479" t="s">
-        <v>452</v>
+        <v>679</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>705</v>
+        <v>603</v>
       </c>
       <c r="B480" t="s">
-        <v>704</v>
+        <v>783</v>
       </c>
       <c r="C480" t="s">
-        <v>452</v>
+        <v>679</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>913</v>
+        <v>374</v>
       </c>
       <c r="B481" t="s">
-        <v>914</v>
+        <v>371</v>
       </c>
       <c r="C481" t="s">
-        <v>452</v>
+        <v>679</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1302</v>
+        <v>376</v>
       </c>
       <c r="B482" t="s">
-        <v>1303</v>
+        <v>375</v>
       </c>
       <c r="C482" t="s">
-        <v>452</v>
+        <v>679</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1309</v>
+        <v>377</v>
       </c>
       <c r="B483" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="C483" t="s">
-        <v>452</v>
+        <v>679</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>127</v>
+        <v>345</v>
       </c>
       <c r="B484" t="s">
-        <v>128</v>
+        <v>1328</v>
       </c>
       <c r="C484" t="s">
-        <v>324</v>
+        <v>679</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>129</v>
+        <v>604</v>
       </c>
       <c r="B485" t="s">
-        <v>130</v>
+        <v>378</v>
       </c>
       <c r="C485" t="s">
-        <v>324</v>
+        <v>679</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>598</v>
+        <v>379</v>
       </c>
       <c r="B486" t="s">
-        <v>790</v>
+        <v>605</v>
       </c>
       <c r="C486" t="s">
-        <v>324</v>
+        <v>679</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B487" t="s">
-        <v>789</v>
+        <v>347</v>
       </c>
       <c r="C487" t="s">
-        <v>324</v>
+        <v>679</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>363</v>
+        <v>606</v>
       </c>
       <c r="B488" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="C488" t="s">
-        <v>324</v>
+        <v>679</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B489" t="s">
-        <v>600</v>
+        <v>348</v>
       </c>
       <c r="C489" t="s">
-        <v>324</v>
+        <v>679</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B490" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="C490" t="s">
-        <v>324</v>
+        <v>679</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="B491" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C491" t="s">
-        <v>324</v>
+        <v>679</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>367</v>
-      </c>
-      <c r="B492" t="s">
-        <v>788</v>
+        <v>676</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>677</v>
       </c>
       <c r="C492" t="s">
-        <v>324</v>
+        <v>679</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>72</v>
-      </c>
-      <c r="B493" t="s">
-        <v>268</v>
+        <v>678</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>675</v>
       </c>
       <c r="C493" t="s">
-        <v>269</v>
+        <v>679</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>271</v>
-      </c>
-      <c r="B494" t="s">
-        <v>270</v>
+      <c r="A494" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="C494" t="s">
-        <v>269</v>
+        <v>451</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>121</v>
-      </c>
-      <c r="B495" t="s">
-        <v>122</v>
+      <c r="A495" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="C495" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>337</v>
-      </c>
-      <c r="B496" t="s">
-        <v>322</v>
+      <c r="A496" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="C496" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>350</v>
-      </c>
-      <c r="B497" t="s">
-        <v>595</v>
+        <v>685</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>680</v>
       </c>
       <c r="C497" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>352</v>
-      </c>
-      <c r="B498" t="s">
-        <v>351</v>
+        <v>797</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>798</v>
       </c>
       <c r="C498" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>354</v>
+        <v>762</v>
       </c>
       <c r="B499" t="s">
-        <v>353</v>
+        <v>763</v>
       </c>
       <c r="C499" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>356</v>
+        <v>704</v>
       </c>
       <c r="B500" t="s">
-        <v>355</v>
+        <v>703</v>
       </c>
       <c r="C500" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>358</v>
+        <v>912</v>
       </c>
       <c r="B501" t="s">
-        <v>357</v>
+        <v>913</v>
       </c>
       <c r="C501" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>596</v>
+        <v>1301</v>
       </c>
       <c r="B502" t="s">
-        <v>793</v>
+        <v>1302</v>
       </c>
       <c r="C502" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>597</v>
+        <v>1308</v>
       </c>
       <c r="B503" t="s">
-        <v>794</v>
+        <v>1307</v>
       </c>
       <c r="C503" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>359</v>
+        <v>1439</v>
       </c>
       <c r="B504" t="s">
-        <v>795</v>
+        <v>1440</v>
       </c>
       <c r="C504" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>360</v>
+        <v>127</v>
       </c>
       <c r="B505" t="s">
-        <v>791</v>
+        <v>128</v>
       </c>
       <c r="C505" t="s">
         <v>323</v>
@@ -10502,662 +10713,1036 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="B506" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="C506" t="s">
-        <v>792</v>
+        <v>323</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
       <c r="B507" t="s">
-        <v>276</v>
+        <v>789</v>
       </c>
       <c r="C507" t="s">
-        <v>792</v>
+        <v>323</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1029</v>
+        <v>360</v>
       </c>
       <c r="B508" t="s">
-        <v>1030</v>
+        <v>788</v>
       </c>
       <c r="C508" t="s">
-        <v>1022</v>
+        <v>323</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1024</v>
+        <v>362</v>
       </c>
       <c r="B509" t="s">
-        <v>1023</v>
+        <v>361</v>
       </c>
       <c r="C509" t="s">
-        <v>1022</v>
+        <v>323</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1026</v>
+        <v>598</v>
       </c>
       <c r="B510" t="s">
-        <v>1025</v>
+        <v>599</v>
       </c>
       <c r="C510" t="s">
-        <v>1022</v>
+        <v>323</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1028</v>
+        <v>363</v>
       </c>
       <c r="B511" t="s">
-        <v>1027</v>
+        <v>786</v>
       </c>
       <c r="C511" t="s">
-        <v>1022</v>
+        <v>323</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1031</v>
+        <v>364</v>
       </c>
       <c r="B512" t="s">
-        <v>1297</v>
+        <v>785</v>
       </c>
       <c r="C512" t="s">
-        <v>1022</v>
+        <v>323</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>956</v>
+        <v>366</v>
       </c>
       <c r="B513" t="s">
-        <v>957</v>
+        <v>787</v>
       </c>
       <c r="C513" t="s">
-        <v>969</v>
+        <v>323</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1067</v>
+        <v>72</v>
       </c>
       <c r="B514" t="s">
-        <v>1066</v>
+        <v>267</v>
       </c>
       <c r="C514" t="s">
-        <v>969</v>
+        <v>268</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>543</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>544</v>
+        <v>270</v>
+      </c>
+      <c r="B515" t="s">
+        <v>269</v>
       </c>
       <c r="C515" t="s">
-        <v>878</v>
+        <v>268</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>545</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>546</v>
+        <v>121</v>
+      </c>
+      <c r="B516" t="s">
+        <v>122</v>
       </c>
       <c r="C516" t="s">
-        <v>878</v>
+        <v>322</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>547</v>
-      </c>
-      <c r="B517" s="3" t="s">
-        <v>548</v>
+        <v>336</v>
+      </c>
+      <c r="B517" t="s">
+        <v>321</v>
       </c>
       <c r="C517" t="s">
-        <v>878</v>
+        <v>322</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>549</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>550</v>
+        <v>349</v>
+      </c>
+      <c r="B518" t="s">
+        <v>594</v>
       </c>
       <c r="C518" t="s">
-        <v>878</v>
+        <v>322</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="B519" t="s">
-        <v>1076</v>
+        <v>350</v>
       </c>
       <c r="C519" t="s">
-        <v>878</v>
+        <v>322</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="B520" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="C520" t="s">
-        <v>878</v>
+        <v>322</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="B521" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="C521" t="s">
-        <v>878</v>
+        <v>322</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="B522" t="s">
-        <v>1077</v>
+        <v>356</v>
       </c>
       <c r="C522" t="s">
-        <v>878</v>
+        <v>322</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>402</v>
-      </c>
-      <c r="B523" s="3" t="s">
-        <v>1078</v>
+        <v>595</v>
+      </c>
+      <c r="B523" t="s">
+        <v>792</v>
       </c>
       <c r="C523" t="s">
-        <v>878</v>
+        <v>322</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>403</v>
+        <v>596</v>
       </c>
       <c r="B524" t="s">
-        <v>613</v>
+        <v>793</v>
       </c>
       <c r="C524" t="s">
-        <v>878</v>
+        <v>322</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="B525" t="s">
-        <v>408</v>
+        <v>794</v>
       </c>
       <c r="C525" t="s">
-        <v>878</v>
+        <v>322</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="B526" t="s">
-        <v>614</v>
+        <v>790</v>
       </c>
       <c r="C526" t="s">
-        <v>878</v>
+        <v>322</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A527" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B527" s="3" t="s">
-        <v>404</v>
+      <c r="A527" t="s">
+        <v>51</v>
+      </c>
+      <c r="B527" t="s">
+        <v>52</v>
       </c>
       <c r="C527" t="s">
-        <v>878</v>
+        <v>791</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A528" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B528" s="3" t="s">
-        <v>405</v>
+      <c r="A528" t="s">
+        <v>516</v>
+      </c>
+      <c r="B528" t="s">
+        <v>275</v>
       </c>
       <c r="C528" t="s">
-        <v>878</v>
+        <v>791</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="B529" s="3" t="s">
-        <v>615</v>
+      <c r="A529" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1029</v>
       </c>
       <c r="C529" t="s">
-        <v>878</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A530" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B530" s="3" t="s">
-        <v>406</v>
+      <c r="A530" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1022</v>
       </c>
       <c r="C530" t="s">
-        <v>878</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>407</v>
+      <c r="A531" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1024</v>
       </c>
       <c r="C531" t="s">
-        <v>878</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1068</v>
+        <v>1027</v>
       </c>
       <c r="B532" t="s">
-        <v>1069</v>
+        <v>1026</v>
       </c>
       <c r="C532" t="s">
-        <v>1071</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1072</v>
+        <v>1030</v>
       </c>
       <c r="B533" t="s">
-        <v>1073</v>
+        <v>1296</v>
       </c>
       <c r="C533" t="s">
-        <v>1071</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1070</v>
+        <v>955</v>
       </c>
       <c r="B534" t="s">
-        <v>1298</v>
+        <v>956</v>
       </c>
       <c r="C534" t="s">
-        <v>1071</v>
+        <v>968</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="B535" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="C535" t="s">
-        <v>1071</v>
+        <v>968</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>49</v>
-      </c>
-      <c r="B536" t="s">
-        <v>50</v>
+        <v>542</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="C536" t="s">
-        <v>205</v>
+        <v>877</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>274</v>
-      </c>
-      <c r="B537" t="s">
-        <v>275</v>
+        <v>544</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="C537" t="s">
-        <v>205</v>
+        <v>877</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>148</v>
-      </c>
-      <c r="B538" t="s">
-        <v>149</v>
+        <v>546</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="C538" t="s">
-        <v>214</v>
+        <v>877</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>952</v>
-      </c>
-      <c r="B539" t="s">
-        <v>953</v>
+        <v>548</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>549</v>
       </c>
       <c r="C539" t="s">
-        <v>214</v>
+        <v>877</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>670</v>
-      </c>
-      <c r="B540" s="3" t="s">
-        <v>671</v>
+        <v>395</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1075</v>
       </c>
       <c r="C540" t="s">
-        <v>673</v>
+        <v>877</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1397</v>
-      </c>
-      <c r="B541" s="3" t="s">
-        <v>1398</v>
+        <v>396</v>
+      </c>
+      <c r="B541" t="s">
+        <v>397</v>
       </c>
       <c r="C541" t="s">
-        <v>673</v>
+        <v>877</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>289</v>
+        <v>399</v>
       </c>
       <c r="B542" t="s">
-        <v>294</v>
+        <v>398</v>
       </c>
       <c r="C542" t="s">
-        <v>691</v>
+        <v>877</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="B543" t="s">
-        <v>295</v>
+        <v>1076</v>
       </c>
       <c r="C543" t="s">
-        <v>691</v>
+        <v>877</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>320</v>
-      </c>
-      <c r="B544" t="s">
-        <v>319</v>
+        <v>401</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>1077</v>
       </c>
       <c r="C544" t="s">
-        <v>690</v>
+        <v>877</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>689</v>
+        <v>402</v>
       </c>
       <c r="B545" t="s">
-        <v>321</v>
+        <v>612</v>
       </c>
       <c r="C545" t="s">
-        <v>690</v>
+        <v>877</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>326</v>
+        <v>408</v>
       </c>
       <c r="B546" t="s">
-        <v>325</v>
+        <v>407</v>
       </c>
       <c r="C546" t="s">
-        <v>690</v>
+        <v>877</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="B547" t="s">
-        <v>327</v>
+        <v>613</v>
       </c>
       <c r="C547" t="s">
-        <v>690</v>
+        <v>877</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
-        <v>329</v>
-      </c>
-      <c r="B548" t="s">
-        <v>330</v>
+      <c r="A548" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="C548" t="s">
-        <v>690</v>
+        <v>877</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
-        <v>332</v>
-      </c>
-      <c r="B549" t="s">
-        <v>331</v>
+      <c r="A549" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="C549" t="s">
-        <v>690</v>
+        <v>877</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>701</v>
-      </c>
-      <c r="B550" t="s">
-        <v>765</v>
+      <c r="A550" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>614</v>
       </c>
       <c r="C550" t="s">
-        <v>690</v>
+        <v>877</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>12</v>
-      </c>
-      <c r="B551" t="s">
-        <v>13</v>
+      <c r="A551" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="C551" t="s">
-        <v>631</v>
+        <v>877</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
-        <v>266</v>
-      </c>
-      <c r="B552" t="s">
-        <v>267</v>
+      <c r="A552" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="C552" t="s">
-        <v>631</v>
+        <v>877</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>467</v>
-      </c>
-      <c r="B553" s="3" t="s">
-        <v>466</v>
+        <v>1067</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1068</v>
       </c>
       <c r="C553" t="s">
-        <v>631</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>662</v>
-      </c>
-      <c r="B554" s="3" t="s">
-        <v>655</v>
+        <v>1071</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1072</v>
       </c>
       <c r="C554" t="s">
-        <v>631</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1036</v>
+        <v>1069</v>
       </c>
       <c r="B555" t="s">
-        <v>1039</v>
+        <v>1297</v>
       </c>
       <c r="C555" t="s">
-        <v>1040</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1037</v>
+        <v>1074</v>
       </c>
       <c r="B556" t="s">
-        <v>1038</v>
+        <v>1073</v>
       </c>
       <c r="C556" t="s">
-        <v>1040</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1042</v>
+        <v>49</v>
       </c>
       <c r="B557" t="s">
-        <v>1041</v>
+        <v>50</v>
       </c>
       <c r="C557" t="s">
-        <v>1040</v>
+        <v>205</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1188</v>
+        <v>273</v>
       </c>
       <c r="B558" t="s">
-        <v>1189</v>
+        <v>274</v>
       </c>
       <c r="C558" t="s">
-        <v>1369</v>
+        <v>205</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1190</v>
+        <v>148</v>
       </c>
       <c r="B559" t="s">
-        <v>1191</v>
+        <v>149</v>
       </c>
       <c r="C559" t="s">
-        <v>1369</v>
+        <v>213</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1361</v>
+        <v>951</v>
       </c>
       <c r="B560" t="s">
-        <v>1365</v>
+        <v>952</v>
       </c>
       <c r="C560" t="s">
-        <v>1369</v>
+        <v>213</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B561" t="s">
-        <v>1363</v>
+        <v>669</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>670</v>
       </c>
       <c r="C561" t="s">
-        <v>1369</v>
+        <v>672</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B562" t="s">
-        <v>1367</v>
+        <v>1396</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>1397</v>
       </c>
       <c r="C562" t="s">
-        <v>1369</v>
+        <v>672</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1362</v>
+        <v>288</v>
       </c>
       <c r="B563" t="s">
-        <v>1368</v>
+        <v>293</v>
       </c>
       <c r="C563" t="s">
-        <v>1369</v>
+        <v>690</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="B564" t="s">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="C564" t="s">
-        <v>277</v>
+        <v>690</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1050</v>
+        <v>319</v>
       </c>
       <c r="B565" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C565" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>688</v>
+      </c>
+      <c r="B566" t="s">
+        <v>320</v>
+      </c>
+      <c r="C566" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>325</v>
+      </c>
+      <c r="B567" t="s">
+        <v>324</v>
+      </c>
+      <c r="C567" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>327</v>
+      </c>
+      <c r="B568" t="s">
+        <v>326</v>
+      </c>
+      <c r="C568" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>328</v>
+      </c>
+      <c r="B569" t="s">
+        <v>329</v>
+      </c>
+      <c r="C569" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>331</v>
+      </c>
+      <c r="B570" t="s">
+        <v>330</v>
+      </c>
+      <c r="C570" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>700</v>
+      </c>
+      <c r="B571" t="s">
+        <v>764</v>
+      </c>
+      <c r="C571" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>12</v>
+      </c>
+      <c r="B572" t="s">
+        <v>13</v>
+      </c>
+      <c r="C572" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>265</v>
+      </c>
+      <c r="B573" t="s">
+        <v>266</v>
+      </c>
+      <c r="C573" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>466</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C574" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>661</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C575" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>30</v>
+      </c>
+      <c r="B585" t="s">
+        <v>31</v>
+      </c>
+      <c r="C585" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B586" t="s">
         <v>277</v>
+      </c>
+      <c r="C586" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="10" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B587" s="10" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C587" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="10" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B588" s="10" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C588" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="10" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B589" s="10" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="10" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B590" s="10" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C590" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B591" s="10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C591" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B592" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C592" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="10" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B593" s="10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="10" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B594" s="10" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C594" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B595" s="10" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C595" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B596" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C596" s="10" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B597" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C597" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B598" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C598" s="10" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B599" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C599" s="10" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -11188,198 +11773,198 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D12" t="s">
         <v>482</v>
-      </c>
-      <c r="D12" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D13" t="s">
         <v>484</v>
-      </c>
-      <c r="D13" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" t="s">
+        <v>485</v>
+      </c>
+      <c r="D14" t="s">
         <v>486</v>
-      </c>
-      <c r="D14" t="s">
-        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -11404,120 +11989,120 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2" t="s">
         <v>555</v>
       </c>
-      <c r="B2" t="s">
-        <v>556</v>
-      </c>
       <c r="C2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" t="s">
         <v>557</v>
       </c>
-      <c r="B3" t="s">
-        <v>558</v>
-      </c>
       <c r="C3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" t="s">
         <v>559</v>
       </c>
-      <c r="B4" t="s">
-        <v>560</v>
-      </c>
       <c r="C4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B5" t="s">
         <v>566</v>
       </c>
-      <c r="B5" t="s">
-        <v>567</v>
-      </c>
       <c r="C5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B8" t="s">
         <v>573</v>
       </c>
-      <c r="B8" t="s">
-        <v>574</v>
-      </c>
       <c r="C8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C11" t="s">
         <v>202</v>
@@ -11525,10 +12110,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C12" t="s">
         <v>202</v>
@@ -11536,167 +12121,167 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>736</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>805</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>807</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>809</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>811</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>820</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>823</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -11720,7 +12305,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>199</v>
@@ -11728,130 +12313,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" t="s">
         <v>521</v>
-      </c>
-      <c r="B3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" t="s">
         <v>523</v>
-      </c>
-      <c r="B4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B7" t="s">
         <v>637</v>
-      </c>
-      <c r="B7" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B8" t="s">
         <v>639</v>
-      </c>
-      <c r="B8" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>692</v>
+      </c>
+      <c r="B15" t="s">
         <v>693</v>
-      </c>
-      <c r="B15" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>694</v>
+      </c>
+      <c r="B16" t="s">
         <v>695</v>
-      </c>
-      <c r="B16" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>701</v>
+      </c>
+      <c r="B17" t="s">
         <v>702</v>
-      </c>
-      <c r="B17" t="s">
-        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -11875,114 +12460,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B2" t="s">
         <v>888</v>
-      </c>
-      <c r="B2" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B3" t="s">
         <v>890</v>
-      </c>
-      <c r="B3" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B4" t="s">
         <v>892</v>
-      </c>
-      <c r="B4" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>896</v>
+      </c>
+      <c r="B7" t="s">
         <v>897</v>
-      </c>
-      <c r="B7" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>899</v>
+      </c>
+      <c r="B9" t="s">
         <v>900</v>
-      </c>
-      <c r="B9" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>901</v>
+      </c>
+      <c r="B10" t="s">
         <v>902</v>
-      </c>
-      <c r="B10" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>903</v>
+      </c>
+      <c r="B11" t="s">
         <v>904</v>
-      </c>
-      <c r="B11" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>905</v>
+      </c>
+      <c r="B12" t="s">
         <v>906</v>
-      </c>
-      <c r="B12" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>907</v>
+      </c>
+      <c r="B13" t="s">
         <v>908</v>
-      </c>
-      <c r="B13" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>909</v>
+      </c>
+      <c r="B14" t="s">
         <v>910</v>
-      </c>
-      <c r="B14" t="s">
-        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -12006,130 +12591,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B3" t="s">
         <v>1157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B4" t="s">
         <v>1159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B5" t="s">
         <v>1161</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B6" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B10" t="s">
         <v>1169</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B11" t="s">
         <v>1178</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B12" t="s">
         <v>1180</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B15" t="s">
         <v>1176</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B16" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
   </sheetData>
@@ -12156,7 +12741,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="4" spans="12:16" x14ac:dyDescent="0.25">
@@ -12164,7 +12749,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="5" spans="12:16" x14ac:dyDescent="0.25">
@@ -12172,7 +12757,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="6" spans="12:16" x14ac:dyDescent="0.25">
@@ -12180,7 +12765,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="7" spans="12:16" x14ac:dyDescent="0.25">
@@ -12188,7 +12773,7 @@
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="8" spans="12:16" x14ac:dyDescent="0.25">
@@ -12196,7 +12781,7 @@
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="9" spans="12:16" x14ac:dyDescent="0.25">
@@ -12204,7 +12789,7 @@
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="10" spans="12:16" x14ac:dyDescent="0.25">
@@ -12212,7 +12797,7 @@
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="12:16" x14ac:dyDescent="0.25">
@@ -12220,10 +12805,10 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="P11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="13" spans="12:16" x14ac:dyDescent="0.25">
@@ -12231,7 +12816,7 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="14" spans="12:16" x14ac:dyDescent="0.25">
@@ -12239,7 +12824,7 @@
         <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15" spans="12:16" x14ac:dyDescent="0.25">
@@ -12249,63 +12834,63 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D35" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D39" t="s">
         <v>1210</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D42" t="s">
         <v>1212</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D45" t="s">
         <v>1214</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E50" s="8">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D54" t="s">
         <v>1219</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1220</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99ED4E6-B47F-40F4-8C2B-F52F17E5F9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B41CEF5-D288-473C-A101-E2230A34B992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$354:$C$354</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$599</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$613</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="1469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="1527">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -4461,6 +4461,180 @@
   </si>
   <si>
     <t>We can rule out the second alternative</t>
+  </si>
+  <si>
+    <t>the harder the better</t>
+  </si>
+  <si>
+    <t>they'll come no matter what happens</t>
+  </si>
+  <si>
+    <t>The more list yo do the more you progres</t>
+  </si>
+  <si>
+    <t>the richer you are the more problems you have</t>
+  </si>
+  <si>
+    <t>the bigger the tomato is the worse it tastes</t>
+  </si>
+  <si>
+    <t>Cuanto mas dificil mejor</t>
+  </si>
+  <si>
+    <t>Vendrán pase lo que pase</t>
+  </si>
+  <si>
+    <t>The slower you drive the later you arrive</t>
+  </si>
+  <si>
+    <t>Cuanto mas despacio condices mas tarde llegas</t>
+  </si>
+  <si>
+    <t>cuantas mas listas hagas, mas aprendes</t>
+  </si>
+  <si>
+    <t>Cuantto mas rico eres, mas problemas tienes</t>
+  </si>
+  <si>
+    <t>Cunato mas grande es el tomate, menos sabe</t>
+  </si>
+  <si>
+    <t>It doesn't matter to me wether you go there or not</t>
+  </si>
+  <si>
+    <t>No me importa si vas  allí o no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No me importa/ it doesn't matter to me </t>
+  </si>
+  <si>
+    <t>estar dispuesto a/willing to</t>
+  </si>
+  <si>
+    <t>are you willing to work 16 housr a day?</t>
+  </si>
+  <si>
+    <t>are you willing to do whatever it takes to learn english?</t>
+  </si>
+  <si>
+    <t>estas dispuesto a trabajar 16 horas al día?</t>
+  </si>
+  <si>
+    <t>Estas dispuesto a hacer lo que sea para aprender ingles?</t>
+  </si>
+  <si>
+    <t>say somthing to someone</t>
+  </si>
+  <si>
+    <t>tell someone somethin</t>
+  </si>
+  <si>
+    <t>tell me the truth</t>
+  </si>
+  <si>
+    <t>say what you want</t>
+  </si>
+  <si>
+    <t>Di lo que quieras</t>
+  </si>
+  <si>
+    <t>Dime la verdad</t>
+  </si>
+  <si>
+    <t>se por tus ojos que estas enfadada</t>
+  </si>
+  <si>
+    <t>I can tell by your eyes that you are angry.</t>
+  </si>
+  <si>
+    <t>I've never told a lie</t>
+  </si>
+  <si>
+    <t>tell us what happened</t>
+  </si>
+  <si>
+    <t>se nota que/ I can tell</t>
+  </si>
+  <si>
+    <t>You need to improove your pronutaition</t>
+  </si>
+  <si>
+    <t>I broke it</t>
+  </si>
+  <si>
+    <t>Who?</t>
+  </si>
+  <si>
+    <t>who broke it?</t>
+  </si>
+  <si>
+    <t>What do I need to improve?</t>
+  </si>
+  <si>
+    <t>Why did you break it?</t>
+  </si>
+  <si>
+    <t>What did he do about it?</t>
+  </si>
+  <si>
+    <t>What?</t>
+  </si>
+  <si>
+    <t>Why?</t>
+  </si>
+  <si>
+    <t>Have you ever been to Toronto?</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>Heve you ever seen a UFO?</t>
+  </si>
+  <si>
+    <t>I broke it because it was old</t>
+  </si>
+  <si>
+    <t>Wich par of Spain visist?</t>
+  </si>
+  <si>
+    <t>I visited the south of spain</t>
+  </si>
+  <si>
+    <t>Wich?</t>
+  </si>
+  <si>
+    <t>I've never been to Toronto</t>
+  </si>
+  <si>
+    <t>I choose the red one</t>
+  </si>
+  <si>
+    <t>Wich one did you choose?</t>
+  </si>
+  <si>
+    <t>No I've never seen a UFO</t>
+  </si>
+  <si>
+    <t>I carried it for 100 metere?</t>
+  </si>
+  <si>
+    <t>How far did you carry it?</t>
+  </si>
+  <si>
+    <t>How?</t>
+  </si>
+  <si>
+    <t>Why isn't it ready?</t>
+  </si>
+  <si>
+    <t>How much of the speach did you understand?</t>
+  </si>
+  <si>
+    <t>Where do I've to sign it?</t>
+  </si>
+  <si>
+    <t>Where?</t>
   </si>
 </sst>
 </file>
@@ -4829,8 +5003,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C599" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C599" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C613" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C613" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C586">
     <sortCondition ref="C1:C586"/>
   </sortState>
@@ -5143,10 +5317,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C599"/>
+  <dimension ref="A1:C613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A552" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B611" sqref="B611"/>
+    <sheetView tabSelected="1" topLeftCell="A579" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A614" sqref="A614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11603,46 +11777,46 @@
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A587" s="10" t="s">
+      <c r="A587" t="s">
         <v>1441</v>
       </c>
-      <c r="B587" s="10" t="s">
+      <c r="B587" t="s">
         <v>1442</v>
       </c>
-      <c r="C587" s="10" t="s">
+      <c r="C587" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A588" s="10" t="s">
+      <c r="A588" t="s">
         <v>1443</v>
       </c>
-      <c r="B588" s="10" t="s">
+      <c r="B588" t="s">
         <v>1444</v>
       </c>
-      <c r="C588" s="10" t="s">
+      <c r="C588" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A589" s="10" t="s">
+      <c r="A589" t="s">
         <v>1445</v>
       </c>
-      <c r="B589" s="10" t="s">
+      <c r="B589" t="s">
         <v>1446</v>
       </c>
-      <c r="C589" s="10" t="s">
+      <c r="C589" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A590" s="10" t="s">
+      <c r="A590" t="s">
         <v>1447</v>
       </c>
-      <c r="B590" s="10" t="s">
+      <c r="B590" t="s">
         <v>1448</v>
       </c>
-      <c r="C590" s="10" t="s">
+      <c r="C590" t="s">
         <v>202</v>
       </c>
     </row>
@@ -11650,10 +11824,10 @@
       <c r="A591" t="s">
         <v>1450</v>
       </c>
-      <c r="B591" s="10" t="s">
+      <c r="B591" t="s">
         <v>1449</v>
       </c>
-      <c r="C591" s="10" t="s">
+      <c r="C591" t="s">
         <v>202</v>
       </c>
     </row>
@@ -11661,89 +11835,235 @@
       <c r="A592" t="s">
         <v>1454</v>
       </c>
-      <c r="B592" s="10" t="s">
+      <c r="B592" t="s">
         <v>1453</v>
       </c>
-      <c r="C592" s="10" t="s">
+      <c r="C592" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A593" s="10" t="s">
+      <c r="A593" t="s">
         <v>1451</v>
       </c>
-      <c r="B593" s="10" t="s">
+      <c r="B593" t="s">
         <v>1452</v>
       </c>
-      <c r="C593" s="10" t="s">
+      <c r="C593" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A594" s="10" t="s">
+      <c r="A594" t="s">
         <v>1455</v>
       </c>
-      <c r="B594" s="10" t="s">
+      <c r="B594" t="s">
         <v>1456</v>
       </c>
-      <c r="C594" s="10" t="s">
+      <c r="C594" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A595" s="10" t="s">
+      <c r="A595" t="s">
         <v>1457</v>
       </c>
-      <c r="B595" s="10" t="s">
+      <c r="B595" t="s">
         <v>1458</v>
       </c>
-      <c r="C595" s="10" t="s">
+      <c r="C595" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A596" s="10" t="s">
+      <c r="A596" t="s">
         <v>1459</v>
       </c>
-      <c r="B596" s="10" t="s">
+      <c r="B596" t="s">
         <v>1460</v>
       </c>
-      <c r="C596" s="10" t="s">
+      <c r="C596" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A597" s="10" t="s">
+      <c r="A597" t="s">
         <v>1461</v>
       </c>
-      <c r="B597" s="10" t="s">
+      <c r="B597" t="s">
         <v>1462</v>
       </c>
-      <c r="C597" s="10" t="s">
+      <c r="C597" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A598" s="10" t="s">
+      <c r="A598" t="s">
         <v>1464</v>
       </c>
-      <c r="B598" s="10" t="s">
+      <c r="B598" t="s">
         <v>1465</v>
       </c>
-      <c r="C598" s="10" t="s">
+      <c r="C598" t="s">
         <v>1463</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A599" s="10" t="s">
+      <c r="A599" t="s">
         <v>1467</v>
       </c>
-      <c r="B599" s="10" t="s">
+      <c r="B599" t="s">
         <v>1468</v>
       </c>
-      <c r="C599" s="10" t="s">
+      <c r="C599" t="s">
         <v>451</v>
       </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="10" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B600" s="10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C600" s="10" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="10" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B601" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C601" s="10" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B602" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C602" s="10" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B603" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C603" s="10" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="10" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B604" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C604" s="10" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="10" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B605" s="10" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C605" s="10" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B606" s="10" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C606" s="10" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="10" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B607" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C607" s="10" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B608" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C608" s="10" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B609" s="10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C609" s="10" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B610" s="10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C610" s="10" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B611" s="10" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C611" s="10" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="10"/>
+      <c r="B612" s="10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C612" s="10"/>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="10"/>
+      <c r="B613" s="10" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C613" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11975,10 +12295,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C83437-EC7D-4984-803E-8CC8AEE3BE11}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12282,6 +12602,126 @@
       </c>
       <c r="C27" s="6" t="s">
         <v>823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>1526</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B41CEF5-D288-473C-A101-E2230A34B992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57AFBD-5A32-4405-8B57-9B963646D4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$354:$C$354</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$613</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$611</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="1525">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -4545,12 +4545,6 @@
   </si>
   <si>
     <t>I can tell by your eyes that you are angry.</t>
-  </si>
-  <si>
-    <t>I've never told a lie</t>
-  </si>
-  <si>
-    <t>tell us what happened</t>
   </si>
   <si>
     <t>se nota que/ I can tell</t>
@@ -4721,7 +4715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4734,7 +4728,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5003,11 +4996,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C613" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C613" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C586">
-    <sortCondition ref="C1:C586"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C611" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8C2285AF-8150-4289-9017-075B5346F689}" uniqueName="1" name="esp" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{6D572D7D-E01D-4336-BDAB-AC33E47035D7}" uniqueName="2" name="eng" queryTableFieldId="2" dataDxfId="1"/>
@@ -5317,10 +5306,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C613"/>
+  <dimension ref="A1:C611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A579" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A614" sqref="A614"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C611" sqref="A1:C611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11920,150 +11909,136 @@
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A600" s="10" t="s">
+      <c r="A600" t="s">
         <v>1474</v>
       </c>
-      <c r="B600" s="10" t="s">
+      <c r="B600" t="s">
         <v>1469</v>
       </c>
-      <c r="C600" s="10" t="s">
+      <c r="C600" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A601" s="10" t="s">
+      <c r="A601" t="s">
         <v>1475</v>
       </c>
-      <c r="B601" s="10" t="s">
+      <c r="B601" t="s">
         <v>1470</v>
       </c>
-      <c r="C601" s="10" t="s">
+      <c r="C601" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A602" s="10" t="s">
+      <c r="A602" t="s">
         <v>1478</v>
       </c>
-      <c r="B602" s="10" t="s">
+      <c r="B602" t="s">
         <v>1471</v>
       </c>
-      <c r="C602" s="10" t="s">
+      <c r="C602" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A603" s="10" t="s">
+      <c r="A603" t="s">
         <v>1479</v>
       </c>
-      <c r="B603" s="10" t="s">
+      <c r="B603" t="s">
         <v>1472</v>
       </c>
-      <c r="C603" s="10" t="s">
+      <c r="C603" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A604" s="10" t="s">
+      <c r="A604" t="s">
         <v>1480</v>
       </c>
-      <c r="B604" s="10" t="s">
+      <c r="B604" t="s">
         <v>1473</v>
       </c>
-      <c r="C604" s="10" t="s">
+      <c r="C604" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A605" s="10" t="s">
+      <c r="A605" t="s">
         <v>1477</v>
       </c>
-      <c r="B605" s="10" t="s">
+      <c r="B605" t="s">
         <v>1476</v>
       </c>
-      <c r="C605" s="10" t="s">
+      <c r="C605" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A606" s="10" t="s">
+      <c r="A606" t="s">
         <v>1482</v>
       </c>
-      <c r="B606" s="10" t="s">
+      <c r="B606" t="s">
         <v>1481</v>
       </c>
-      <c r="C606" s="10" t="s">
+      <c r="C606" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A607" s="10" t="s">
+      <c r="A607" t="s">
         <v>1487</v>
       </c>
-      <c r="B607" s="10" t="s">
+      <c r="B607" t="s">
         <v>1485</v>
       </c>
-      <c r="C607" s="10" t="s">
+      <c r="C607" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A608" s="10" t="s">
+      <c r="A608" t="s">
         <v>1488</v>
       </c>
-      <c r="B608" s="10" t="s">
+      <c r="B608" t="s">
         <v>1486</v>
       </c>
-      <c r="C608" s="10" t="s">
+      <c r="C608" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A609" s="10" t="s">
+      <c r="A609" t="s">
         <v>1493</v>
       </c>
-      <c r="B609" s="10" t="s">
+      <c r="B609" t="s">
         <v>1492</v>
       </c>
-      <c r="C609" s="10" t="s">
+      <c r="C609" t="s">
         <v>1489</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A610" s="10" t="s">
+      <c r="A610" t="s">
         <v>1494</v>
       </c>
-      <c r="B610" s="10" t="s">
+      <c r="B610" t="s">
         <v>1491</v>
       </c>
-      <c r="C610" s="10" t="s">
+      <c r="C610" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611" s="10" t="s">
+      <c r="A611" t="s">
         <v>1495</v>
       </c>
-      <c r="B611" s="10" t="s">
+      <c r="B611" t="s">
         <v>1496</v>
       </c>
-      <c r="C611" s="10" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A612" s="10"/>
-      <c r="B612" s="10" t="s">
+      <c r="C611" t="s">
         <v>1497</v>
       </c>
-      <c r="C612" s="10"/>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613" s="10"/>
-      <c r="B613" s="10" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C613" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12606,122 +12581,122 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>1501</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>1503</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>1513</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>1520</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57AFBD-5A32-4405-8B57-9B963646D4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F05FFD-91CB-4249-83D2-E35ED5A3C14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$354:$C$354</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$611</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$634</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="1525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1570">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -4541,9 +4541,6 @@
     <t>Dime la verdad</t>
   </si>
   <si>
-    <t>se por tus ojos que estas enfadada</t>
-  </si>
-  <si>
     <t>I can tell by your eyes that you are angry.</t>
   </si>
   <si>
@@ -4629,6 +4626,144 @@
   </si>
   <si>
     <t>Where?</t>
+  </si>
+  <si>
+    <t>se por tus ojos que estas enfadada/ se nota que estas enfadada</t>
+  </si>
+  <si>
+    <t>se nota que estuviste levantado toda la noche</t>
+  </si>
+  <si>
+    <t>I can tell you where up all night</t>
+  </si>
+  <si>
+    <t>dame otra oportunidad</t>
+  </si>
+  <si>
+    <t>give me another chance</t>
+  </si>
+  <si>
+    <t>Cual es la otra alternativa</t>
+  </si>
+  <si>
+    <t>What's the other alternative?</t>
+  </si>
+  <si>
+    <t>is there another list after this one?</t>
+  </si>
+  <si>
+    <t>are there any other lists after this one?</t>
+  </si>
+  <si>
+    <t>Who is the other candidate?</t>
+  </si>
+  <si>
+    <t>Quien es el otro candidato?</t>
+  </si>
+  <si>
+    <t>Hay otras listas despues de esta?</t>
+  </si>
+  <si>
+    <t>Hay otras dos persosnas esperando.</t>
+  </si>
+  <si>
+    <t>Theare  another people waiting</t>
+  </si>
+  <si>
+    <t>Do you remeber that other person who was here</t>
+  </si>
+  <si>
+    <t>What other solution do you sugest?</t>
+  </si>
+  <si>
+    <t>other people use other methods?</t>
+  </si>
+  <si>
+    <t>Que otra solucion sugieres?</t>
+  </si>
+  <si>
+    <t>hay otra lista despues de esta?</t>
+  </si>
+  <si>
+    <t>Where are the others?</t>
+  </si>
+  <si>
+    <t>Donde están los otros?</t>
+  </si>
+  <si>
+    <t>te acuerdas de esa otra persona que estuvo aquí?</t>
+  </si>
+  <si>
+    <t>give another book?</t>
+  </si>
+  <si>
+    <t>sigue andando</t>
+  </si>
+  <si>
+    <t>Keep walking</t>
+  </si>
+  <si>
+    <t>ahorro dinero cada mes y lo guardo en el banco</t>
+  </si>
+  <si>
+    <t>mantén el ritmo</t>
+  </si>
+  <si>
+    <t>keep up the pace</t>
+  </si>
+  <si>
+    <t>keep up with the news</t>
+  </si>
+  <si>
+    <t>keep out stargnes out of the house</t>
+  </si>
+  <si>
+    <t>the noise keep me up allnight</t>
+  </si>
+  <si>
+    <t>sigue asi</t>
+  </si>
+  <si>
+    <t>keep it up</t>
+  </si>
+  <si>
+    <t>keep on working</t>
+  </si>
+  <si>
+    <t>sigue trabajando</t>
+  </si>
+  <si>
+    <t>I use repellent to keep the mosquitos from biting me</t>
+  </si>
+  <si>
+    <t>uso repelente para impedir que los mosquitos me piquen</t>
+  </si>
+  <si>
+    <t>Otra gente usa otros métodos</t>
+  </si>
+  <si>
+    <t>Dame otro</t>
+  </si>
+  <si>
+    <t>Dame otro libro</t>
+  </si>
+  <si>
+    <t>I save money every month and  I keep it in the bank</t>
+  </si>
+  <si>
+    <t>mantente informado con las noticias</t>
+  </si>
+  <si>
+    <t>mantener a los extraños fuera de la casa</t>
+  </si>
+  <si>
+    <t>keep people away from the crash scene</t>
+  </si>
+  <si>
+    <t>mantener a la gente lejos del lugar del accidente</t>
+  </si>
+  <si>
+    <t>El ruido me tuvo despierto toda la noche</t>
   </si>
 </sst>
 </file>
@@ -4996,7 +5131,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C611" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C634" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8C2285AF-8150-4289-9017-075B5346F689}" uniqueName="1" name="esp" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{6D572D7D-E01D-4336-BDAB-AC33E47035D7}" uniqueName="2" name="eng" queryTableFieldId="2" dataDxfId="1"/>
@@ -5306,10 +5441,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C611"/>
+  <dimension ref="A1:C634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C611" sqref="A1:C611"/>
+    <sheetView tabSelected="1" topLeftCell="A626" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12031,13 +12166,266 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B611" t="s">
         <v>1495</v>
       </c>
-      <c r="B611" t="s">
+      <c r="C611" t="s">
         <v>1496</v>
       </c>
-      <c r="C611" t="s">
-        <v>1497</v>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C613" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C614" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C615" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C616" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C617" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C618" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C619" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C620" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C621" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C622" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C623" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C624" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C625" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C626" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C627" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C628" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C629" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C630" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C631" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C632" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C633" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C634" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -12581,122 +12969,122 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>1499</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>1504</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>1507</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>1512</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>1515</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>1516</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>1518</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>1519</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>1523</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>1524</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F05FFD-91CB-4249-83D2-E35ED5A3C14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC92CADB-98F9-4C5F-8EEE-570BAD68BBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
   <sheets>
     <sheet name="warm" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$354:$C$354</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$634</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$678</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="1692">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -4764,6 +4764,372 @@
   </si>
   <si>
     <t>El ruido me tuvo despierto toda la noche</t>
+  </si>
+  <si>
+    <t>You're wrong/You're mistaken</t>
+  </si>
+  <si>
+    <t>Estas equivocado</t>
+  </si>
+  <si>
+    <t>Mi jefe es un apersona muy voluble</t>
+  </si>
+  <si>
+    <t>My boss is a very moody person</t>
+  </si>
+  <si>
+    <t>Soy un poco miope</t>
+  </si>
+  <si>
+    <t>I'm a bit near sighted</t>
+  </si>
+  <si>
+    <t>Esta es una situación extraña</t>
+  </si>
+  <si>
+    <t>You have to do it this way, otherwise I won't be hable to help you</t>
+  </si>
+  <si>
+    <t>Tienes que hacerlo así, de otro modo no te podré ayudar</t>
+  </si>
+  <si>
+    <t>Te veo pálido</t>
+  </si>
+  <si>
+    <t>You look pale</t>
+  </si>
+  <si>
+    <t>estoy muy satisfecho con los resultados</t>
+  </si>
+  <si>
+    <t>I'm very peased with the results</t>
+  </si>
+  <si>
+    <t>No te preocupes tenemos tiempo de sobra</t>
+  </si>
+  <si>
+    <t>Don't worry we've pelnty of time</t>
+  </si>
+  <si>
+    <t>Es inutil continuar , ya han tomado una decisión</t>
+  </si>
+  <si>
+    <t>It's pointless to go on, They've already made decision</t>
+  </si>
+  <si>
+    <t>This is a strange situation/odd</t>
+  </si>
+  <si>
+    <t>There is not as much wine in Nova scotia as there is in La rioja</t>
+  </si>
+  <si>
+    <t>No hay tanto vino en Nueva escocia como en La rioja</t>
+  </si>
+  <si>
+    <t>No tantos-No tanto/not as much/not as many</t>
+  </si>
+  <si>
+    <t>There are not as many birds in Spain as there are in Colombia</t>
+  </si>
+  <si>
+    <t>No hay tantos pájaros en Escaña como en Colombia</t>
+  </si>
+  <si>
+    <t>que piensas de los juegos  olimpicios</t>
+  </si>
+  <si>
+    <t>What do you think of the olimpics?</t>
+  </si>
+  <si>
+    <t>pensar de/ think of</t>
+  </si>
+  <si>
+    <t>How long did it take to look up the word?</t>
+  </si>
+  <si>
+    <t>How long?</t>
+  </si>
+  <si>
+    <t>How much time do you need?</t>
+  </si>
+  <si>
+    <t>where were you?</t>
+  </si>
+  <si>
+    <t>I was at home</t>
+  </si>
+  <si>
+    <t>It's not ready because they were late</t>
+  </si>
+  <si>
+    <t>why didn't you do it?</t>
+  </si>
+  <si>
+    <t>When will there be a meeting?</t>
+  </si>
+  <si>
+    <t>There will be a meeting next week</t>
+  </si>
+  <si>
+    <t>When?</t>
+  </si>
+  <si>
+    <t>How many meetins hac¿ve there been this week?</t>
+  </si>
+  <si>
+    <t>How many?</t>
+  </si>
+  <si>
+    <t>There've been 2 mestings</t>
+  </si>
+  <si>
+    <t>when will you be rady?</t>
+  </si>
+  <si>
+    <t>I can be there within 20 minutes</t>
+  </si>
+  <si>
+    <t>How soon can you be there?</t>
+  </si>
+  <si>
+    <t>where did you take her?</t>
+  </si>
+  <si>
+    <t>where?</t>
+  </si>
+  <si>
+    <t>Wich one?</t>
+  </si>
+  <si>
+    <t>I chose the red one</t>
+  </si>
+  <si>
+    <t>It's was transfered to a secreet account</t>
+  </si>
+  <si>
+    <t>It took them a long time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tardaron mucho </t>
+  </si>
+  <si>
+    <t>How long has it taken you up to now?/so far</t>
+  </si>
+  <si>
+    <t>Cuanto habesi tardadao hasta ahora?</t>
+  </si>
+  <si>
+    <t>How long will it take you next month?</t>
+  </si>
+  <si>
+    <t>Cuanto tardarías si tuvieras mas ayuda?</t>
+  </si>
+  <si>
+    <t>How long would it take you if you had more help?</t>
+  </si>
+  <si>
+    <t>Cuando tardadras el proximo mes?</t>
+  </si>
+  <si>
+    <t>It took them months to reach an agreement</t>
+  </si>
+  <si>
+    <t>Cualuiera tradaría menos que tu</t>
+  </si>
+  <si>
+    <t>anyone would take less than yo</t>
+  </si>
+  <si>
+    <t>It didn't take me long</t>
+  </si>
+  <si>
+    <t>No tarde mucho</t>
+  </si>
+  <si>
+    <t>Cuanto se tarda en aprender a conducir?</t>
+  </si>
+  <si>
+    <t>it would take to anyone less than you</t>
+  </si>
+  <si>
+    <t>does your company have a web page</t>
+  </si>
+  <si>
+    <t>can you send me the link?</t>
+  </si>
+  <si>
+    <t>click on the link and download the pitures</t>
+  </si>
+  <si>
+    <t>if you want to log in I have to log out first</t>
+  </si>
+  <si>
+    <t>the child kept me up all night</t>
+  </si>
+  <si>
+    <t>El niño me tuvo en vela toda la noche</t>
+  </si>
+  <si>
+    <t>we have to keep up with the times</t>
+  </si>
+  <si>
+    <t>tenemos que mantenerons al día con los tiempos actuales</t>
+  </si>
+  <si>
+    <t>He keeps on asking me about you</t>
+  </si>
+  <si>
+    <t>el está constantemente preguntandome por  ti</t>
+  </si>
+  <si>
+    <t>el comité está compuesto por 7 miemnbros</t>
+  </si>
+  <si>
+    <t>we have to make up for lost time</t>
+  </si>
+  <si>
+    <t>tenemos que recuperar el tiempo perdido</t>
+  </si>
+  <si>
+    <t>The commete is made up of  7 members</t>
+  </si>
+  <si>
+    <t>How long would it have taken you had had help?</t>
+  </si>
+  <si>
+    <t>Cuanto habrias tardado si hubieras tenido ayuda?</t>
+  </si>
+  <si>
+    <t>tardaron meses en llegar a un acuerdo</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>No creo que vayan a reconciliarse</t>
+  </si>
+  <si>
+    <t>I don't things they are going to make up</t>
+  </si>
+  <si>
+    <t>cualquiera taradaría menos que tu</t>
+  </si>
+  <si>
+    <t>Tu empresa tiene pagina web?</t>
+  </si>
+  <si>
+    <t>Me puedes enviar el link</t>
+  </si>
+  <si>
+    <t>I'm sorry how can I make it up to you?</t>
+  </si>
+  <si>
+    <t>lo sisento como puedo resarcirte</t>
+  </si>
+  <si>
+    <t>tenemos que despedir a 200 trabajadores</t>
+  </si>
+  <si>
+    <t>we have to lay of 200 workers</t>
+  </si>
+  <si>
+    <t>No atropeyes al pobre peroo</t>
+  </si>
+  <si>
+    <t>Don't run over the poor dog</t>
+  </si>
+  <si>
+    <t>El niño huyo de casa</t>
+  </si>
+  <si>
+    <t>the boy run away from home</t>
+  </si>
+  <si>
+    <t>pincha en el link y descarga las fotos</t>
+  </si>
+  <si>
+    <t>Si queres entrar tengo que salirme antes</t>
+  </si>
+  <si>
+    <t>it brokes everytime I open it</t>
+  </si>
+  <si>
+    <t>Can you give an idea of the cost</t>
+  </si>
+  <si>
+    <t>It is going to cost much more this time</t>
+  </si>
+  <si>
+    <t>they don't consider me part of the famlily</t>
+  </si>
+  <si>
+    <t>No me consideran parte de la familia</t>
+  </si>
+  <si>
+    <t>se rompe siempre que lo abro</t>
+  </si>
+  <si>
+    <t>te alegraràs de saber que juan ya no trabaja aquì</t>
+  </si>
+  <si>
+    <t>you'll be glad to know Juan doesn`t work here anymore</t>
+  </si>
+  <si>
+    <t>2 she's looking into a box</t>
+  </si>
+  <si>
+    <t>3 he's erasing the chukboard</t>
+  </si>
+  <si>
+    <t>4 he's torturing the prisionner</t>
+  </si>
+  <si>
+    <t>he's streaching</t>
+  </si>
+  <si>
+    <t>6 she's adjusting her seat</t>
+  </si>
+  <si>
+    <t>5 the postman is ringing the dorbell</t>
+  </si>
+  <si>
+    <t>7 he's withdrawing many from the bank,</t>
+  </si>
+  <si>
+    <t>8 hes making a cash deposit in the bank</t>
+  </si>
+  <si>
+    <t>9 she's feeding the fish shaking a food box, over the fish tank</t>
+  </si>
+  <si>
+    <t>10 she's hiding something from her mother</t>
+  </si>
+  <si>
+    <t>11 he's signing the letter</t>
+  </si>
+  <si>
+    <t>12 hes mixing chemicals</t>
+  </si>
+  <si>
+    <t>1-he's riding a race horse, he's a jockey</t>
+  </si>
+  <si>
+    <t>they're taking steps to reduce carbon emisons</t>
+  </si>
+  <si>
+    <t>if you don't take steps right now you'll be fired</t>
+  </si>
+  <si>
+    <t>Estan tomando medidas para reducir la emisiones de Carbono</t>
+  </si>
+  <si>
+    <t>Si no tomas medidas ahora mismo te despedirán</t>
+  </si>
+  <si>
+    <t>haciendo reformas es muy dificil encontrar a alguin que no nunca haga chapuzas</t>
+  </si>
+  <si>
+    <t>When remodeling a house it's is dificult to find the guy who never cuts corners</t>
   </si>
 </sst>
 </file>
@@ -5112,6 +5478,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>667637</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>67542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADA893F-4EF0-4153-391F-F6A5AB479310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="14049375"/>
+          <a:ext cx="6354062" cy="6211167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>410483</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>57450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5C28BE-DB72-4A49-060C-4F43C92422B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="20383500"/>
+          <a:ext cx="6506483" cy="2152950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5131,7 +5585,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C634" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C678" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8C2285AF-8150-4289-9017-075B5346F689}" uniqueName="1" name="esp" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{6D572D7D-E01D-4336-BDAB-AC33E47035D7}" uniqueName="2" name="eng" queryTableFieldId="2" dataDxfId="1"/>
@@ -5441,10 +5895,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C634"/>
+  <dimension ref="A1:C678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A667" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B682" sqref="B682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12426,6 +12880,490 @@
       </c>
       <c r="C634" t="s">
         <v>451</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C635" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C636" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C637" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C638" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C639" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C640" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C641" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C642" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C643" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C647" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C648" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C649" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C650" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C651" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C652" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C653" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C654" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C655" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C656" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C657" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C658" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C659" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C660" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C661" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C662" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C663" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C664" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C665" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C666" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C667" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C668" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C669" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C670" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C671" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>864</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C672" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>865</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C673" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C674" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C675" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C676" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C677" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C678" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -12658,10 +13596,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C83437-EC7D-4984-803E-8CC8AEE3BE11}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13064,6 +14002,9 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>1601</v>
+      </c>
       <c r="B37" s="6" t="s">
         <v>1520</v>
       </c>
@@ -13085,6 +14026,103 @@
       </c>
       <c r="C39" s="6" t="s">
         <v>1523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>574</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1614</v>
       </c>
     </row>
   </sheetData>
@@ -13527,10 +14565,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD4E3BE-CB0A-4229-93CE-4760C471BE41}">
-  <dimension ref="A3:P54"/>
+  <dimension ref="A3:P88"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13694,6 +14732,69 @@
       </c>
       <c r="D54" t="s">
         <v>1219</v>
+      </c>
+    </row>
+    <row r="76" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="77" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="78" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="79" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="80" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>1684</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC92CADB-98F9-4C5F-8EEE-570BAD68BBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B5FB84-DB87-42EA-9204-398AB5B90059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$354:$C$354</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$678</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$734</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="1692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1815">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -5130,6 +5130,375 @@
   </si>
   <si>
     <t>When remodeling a house it's is dificult to find the guy who never cuts corners</t>
+  </si>
+  <si>
+    <t>It took me an hour to solve the problem</t>
+  </si>
+  <si>
+    <t>Tardé una hora en resolver el problema</t>
+  </si>
+  <si>
+    <t>Un camionero paró para ayudarme</t>
+  </si>
+  <si>
+    <t>A cab driver stop to help me</t>
+  </si>
+  <si>
+    <t>If I hadn't stoped I would still be there</t>
+  </si>
+  <si>
+    <t>It's a good thing he stoped</t>
+  </si>
+  <si>
+    <t>Menos masl que paró el</t>
+  </si>
+  <si>
+    <t>No serías capaz de semjante cosa, yo tampoco</t>
+  </si>
+  <si>
+    <t>You wouldn't be capable of such a thing, neither would I</t>
+  </si>
+  <si>
+    <t>Me lio</t>
+  </si>
+  <si>
+    <t>I get mixed up</t>
+  </si>
+  <si>
+    <t>I can only tell bad and good wine apart</t>
+  </si>
+  <si>
+    <t>leave the room key in reception/at the reception desk</t>
+  </si>
+  <si>
+    <t>half board</t>
+  </si>
+  <si>
+    <t>mediapension</t>
+  </si>
+  <si>
+    <t>cleaning service</t>
+  </si>
+  <si>
+    <t>I want all or none</t>
+  </si>
+  <si>
+    <t>quiero todos o ninguno</t>
+  </si>
+  <si>
+    <t>You can't have either one</t>
+  </si>
+  <si>
+    <t>No puedes tener ninguno de los dos</t>
+  </si>
+  <si>
+    <t>ninguno de nostros dos fumamos</t>
+  </si>
+  <si>
+    <t>neither of us smoke</t>
+  </si>
+  <si>
+    <t>ninguno de nosostro stres fumamos</t>
+  </si>
+  <si>
+    <t>none of us smoke</t>
+  </si>
+  <si>
+    <t>denberia ser o en español o en ingles</t>
+  </si>
+  <si>
+    <t>It should be either in Spanish or English</t>
+  </si>
+  <si>
+    <t>puede ser en cualquiera de los dos idiemas</t>
+  </si>
+  <si>
+    <t>It can be in either languages</t>
+  </si>
+  <si>
+    <t>Ninguno de los dos sabemos aleman</t>
+  </si>
+  <si>
+    <t>Neither of us knows German</t>
+  </si>
+  <si>
+    <t>Both may boss and my bosse's boss are aware</t>
+  </si>
+  <si>
+    <t>ninguna de estas listas son dificiles</t>
+  </si>
+  <si>
+    <t>You can make this list or the next one</t>
+  </si>
+  <si>
+    <t>1- he's shaving with a razor, he's looking at his self, he's using shving cream</t>
+  </si>
+  <si>
+    <t>3- the camera is flashing</t>
+  </si>
+  <si>
+    <t>4-the sun is rising, or the sun is setting</t>
+  </si>
+  <si>
+    <t>5-the guys are getting into the store, they rushing</t>
+  </si>
+  <si>
+    <t>7-he's wrapping a gift</t>
+  </si>
+  <si>
+    <t>2-They're shaking hands. The guy with the blue blazer is bowing down , showing respect</t>
+  </si>
+  <si>
+    <t>6-the guys are proctecting themselves from water,6  they're sheltering themselves from water</t>
+  </si>
+  <si>
+    <t>Draw it for me</t>
+  </si>
+  <si>
+    <t>Dibujamelo</t>
+  </si>
+  <si>
+    <t>volaron sobre la ciudad</t>
+  </si>
+  <si>
+    <t>they flew over the city</t>
+  </si>
+  <si>
+    <t>I didn't say anything</t>
+  </si>
+  <si>
+    <t>Tell him what you said</t>
+  </si>
+  <si>
+    <t>Tell him the truth</t>
+  </si>
+  <si>
+    <t>dile lo que digiste</t>
+  </si>
+  <si>
+    <t>Dile la verdad</t>
+  </si>
+  <si>
+    <t>No dije nada</t>
+  </si>
+  <si>
+    <t>Puedes hacer esta lsita o la siguiente</t>
+  </si>
+  <si>
+    <t>Nono of these lists are dificult</t>
+  </si>
+  <si>
+    <t>Tanto mi jefe como el jefe the mijef estan al tantos</t>
+  </si>
+  <si>
+    <t>It doesn't matter to me wether you use the red one or the blue one</t>
+  </si>
+  <si>
+    <t>whether or not you come witthe me I'm going to the party</t>
+  </si>
+  <si>
+    <t>whether or not</t>
+  </si>
+  <si>
+    <t>te guste o no</t>
+  </si>
+  <si>
+    <t>I don't wheter is worth it for us or not</t>
+  </si>
+  <si>
+    <t>I don't mind whether he agrees with me or not</t>
+  </si>
+  <si>
+    <t>Si no hubiera parado, todavía estaría allí.</t>
+  </si>
+  <si>
+    <t>Deja la llave de la habitación en recepción</t>
+  </si>
+  <si>
+    <t>fingión una jaqueca y se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He fake a migraine an </t>
+  </si>
+  <si>
+    <t>there is a reason</t>
+  </si>
+  <si>
+    <t>hay/ha habido/ there's been /there have been</t>
+  </si>
+  <si>
+    <t>Therre are 2 of us</t>
+  </si>
+  <si>
+    <t>there is some wine left</t>
+  </si>
+  <si>
+    <t>queda lago de vino</t>
+  </si>
+  <si>
+    <t>quedan 5 libros</t>
+  </si>
+  <si>
+    <t>quedan/queda/there is ..left/there are …left</t>
+  </si>
+  <si>
+    <t>There may have been a misunderstanding</t>
+  </si>
+  <si>
+    <t>There is nothing left to do</t>
+  </si>
+  <si>
+    <t>no queda nada por hacer</t>
+  </si>
+  <si>
+    <t>solo puedo diferenciar vino malo del bueno</t>
+  </si>
+  <si>
+    <t>when I make the reservation, I'll call you</t>
+  </si>
+  <si>
+    <t>cuando+subjuntivo+future/when+presente+future</t>
+  </si>
+  <si>
+    <t>Cunando haga la reserva te llamaré</t>
+  </si>
+  <si>
+    <t>Prefieres una habitaciòn sencilla o doble</t>
+  </si>
+  <si>
+    <t>Do you prefer a single room or a doble room?</t>
+  </si>
+  <si>
+    <t>Nos abriò la puerta el portero</t>
+  </si>
+  <si>
+    <t>The doorman opened the door</t>
+  </si>
+  <si>
+    <t>Solo voy a hoteles que teanga habitaciones que tengan baño privado</t>
+  </si>
+  <si>
+    <t>I only go to hotels that have a private bathroom</t>
+  </si>
+  <si>
+    <t>la recepcionista llamo al de la maletas</t>
+  </si>
+  <si>
+    <t>The recepcionist called the porter</t>
+  </si>
+  <si>
+    <t>Me lo encontré en el hall</t>
+  </si>
+  <si>
+    <t>I ran into him in the lobby</t>
+  </si>
+  <si>
+    <t>la piscina es para uso exclusivo de nuestros huespedes</t>
+  </si>
+  <si>
+    <t>The swiming pool is for the exclusive use of our hotel guests</t>
+  </si>
+  <si>
+    <t>The room was so dirty tah we had to call the cleanning service</t>
+  </si>
+  <si>
+    <t>No me importa que uses el rojo o el azul</t>
+  </si>
+  <si>
+    <t>Whether you like it or not</t>
+  </si>
+  <si>
+    <t>Vengas o no vengas con migo, voy a ir a la fiesta</t>
+  </si>
+  <si>
+    <t>I don't know whether I can make it by 5 o'clock or not</t>
+  </si>
+  <si>
+    <t>No se si llegarè a las 5 o no</t>
+  </si>
+  <si>
+    <t>No se si nos compensa  on no</t>
+  </si>
+  <si>
+    <t>sabes si veiene o no?</t>
+  </si>
+  <si>
+    <t>do you know whether hes coming or not?</t>
+  </si>
+  <si>
+    <t>I can never tell whether he's telling the truthh or not</t>
+  </si>
+  <si>
+    <t>Nunca se si dice la verdad o no</t>
+  </si>
+  <si>
+    <t>do you know wether is a genuine or fake?</t>
+  </si>
+  <si>
+    <t>Sabes si es verdadero o falso?</t>
+  </si>
+  <si>
+    <t>no lo se si lo decía en serio o no</t>
+  </si>
+  <si>
+    <t>I couldn't tell wether she meant it or not</t>
+  </si>
+  <si>
+    <t>Preguntales si es una buena idea o no</t>
+  </si>
+  <si>
+    <t>ask them whether is a good idea or not</t>
+  </si>
+  <si>
+    <t>No me importa que estè de acuerdo conmigo o no</t>
+  </si>
+  <si>
+    <t>is this rolex real or is it fake?</t>
+  </si>
+  <si>
+    <t>este relosj es un rolex real o falso?</t>
+  </si>
+  <si>
+    <t>La pintura que robaron era falsa</t>
+  </si>
+  <si>
+    <t>the painting that they stole was fake</t>
+  </si>
+  <si>
+    <t>hay una razon</t>
+  </si>
+  <si>
+    <t>hay veces que me siento tinando la toalla</t>
+  </si>
+  <si>
+    <t>there are times when I feel throwing the towel</t>
+  </si>
+  <si>
+    <t>Thera are going to be times</t>
+  </si>
+  <si>
+    <t>Va a haber veces</t>
+  </si>
+  <si>
+    <t>Ha habido veces que penseé que no pasaría</t>
+  </si>
+  <si>
+    <t>There have been times when i touhgt it wouln't happen</t>
+  </si>
+  <si>
+    <t>Somos 2</t>
+  </si>
+  <si>
+    <t>There are 5 books left</t>
+  </si>
+  <si>
+    <t>Puede que haya habido un malenetendido</t>
+  </si>
+  <si>
+    <t>have there been any call for me?</t>
+  </si>
+  <si>
+    <t>ha habido alguna llamada para mi</t>
   </si>
 </sst>
 </file>
@@ -5165,7 +5534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5187,6 +5556,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5216,7 +5591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5229,6 +5604,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5566,6 +5942,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>686931</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>38743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5E6147-55C3-76DE-8651-6ABAE77589FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="23050500"/>
+          <a:ext cx="8106906" cy="4610743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5585,7 +6005,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C678" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C734" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8C2285AF-8150-4289-9017-075B5346F689}" uniqueName="1" name="esp" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{6D572D7D-E01D-4336-BDAB-AC33E47035D7}" uniqueName="2" name="eng" queryTableFieldId="2" dataDxfId="1"/>
@@ -5895,10 +6315,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C678"/>
+  <dimension ref="A1:D734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B682" sqref="B682"/>
+    <sheetView tabSelected="1" topLeftCell="A708" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A735" sqref="A735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7137,7 +7557,7 @@
         <v>296</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>989</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -13300,7 +13720,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>865</v>
       </c>
@@ -13311,7 +13731,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1669</v>
       </c>
@@ -13322,7 +13742,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1671</v>
       </c>
@@ -13333,7 +13753,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1688</v>
       </c>
@@ -13344,7 +13764,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1689</v>
       </c>
@@ -13355,7 +13775,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1690</v>
       </c>
@@ -13364,6 +13784,623 @@
       </c>
       <c r="C678" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C679" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C680" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C681" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C682" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C683" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C684" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C685" t="s">
+        <v>451</v>
+      </c>
+      <c r="D685" s="10"/>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C687" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C688" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C689" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C690" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C691" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C692" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C693" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C694" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C695" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C702" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C703" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C704" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C705" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C706" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C707" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C708" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C709" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C710" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C713" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C715" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C721" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C722" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C723" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C724" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C728" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C729" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C730" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C731" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C732" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C733" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
@@ -14134,7 +15171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F18CCD-EDE4-438C-B035-465124A67F64}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -14565,10 +15602,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD4E3BE-CB0A-4229-93CE-4760C471BE41}">
-  <dimension ref="A3:P88"/>
+  <dimension ref="A3:P129"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView topLeftCell="E114" workbookViewId="0">
+      <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14795,6 +15832,41 @@
     <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" t="s">
         <v>1684</v>
+      </c>
+    </row>
+    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M123" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M124" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M125" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="126" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M126" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="127" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M127" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M128" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M129" t="s">
+        <v>1729</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/the.xlsx
+++ b/src/assets/the.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalca\dash\theec7\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B5FB84-DB87-42EA-9204-398AB5B90059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D26306-35DB-481A-8518-1B9CDCCB8C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4580891D-0D4A-47D9-BD9E-0561F7E5644B}"/>
   </bookViews>
@@ -20,10 +20,11 @@
     <sheet name="tags" sheetId="9" r:id="rId5"/>
     <sheet name="never" sheetId="11" r:id="rId6"/>
     <sheet name="Hoja2" sheetId="10" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warm!$A$354:$C$354</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$734</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">warm!$A$1:$B$781</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1910">
   <si>
     <t>Correr es saludable</t>
   </si>
@@ -5240,12 +5241,6 @@
     <t>4-the sun is rising, or the sun is setting</t>
   </si>
   <si>
-    <t>5-the guys are getting into the store, they rushing</t>
-  </si>
-  <si>
-    <t>7-he's wrapping a gift</t>
-  </si>
-  <si>
     <t>2-They're shaking hands. The guy with the blue blazer is bowing down , showing respect</t>
   </si>
   <si>
@@ -5499,6 +5494,297 @@
   </si>
   <si>
     <t>ha habido alguna llamada para mi</t>
+  </si>
+  <si>
+    <t>Los adornos</t>
+  </si>
+  <si>
+    <t>no bell and wizzels</t>
+  </si>
+  <si>
+    <t>quien quiere hacerlo primero</t>
+  </si>
+  <si>
+    <t>Who wants to go first?</t>
+  </si>
+  <si>
+    <t>yo lo hare primer</t>
+  </si>
+  <si>
+    <t>I'll go first</t>
+  </si>
+  <si>
+    <t>To no eres socio d eeste club</t>
+  </si>
+  <si>
+    <t>You're not amember of this club</t>
+  </si>
+  <si>
+    <t>Quiero hacerme socio</t>
+  </si>
+  <si>
+    <t>I want to join the club/ I want to become a member</t>
+  </si>
+  <si>
+    <t>el es propenso a salirse por la tangente</t>
+  </si>
+  <si>
+    <t>He's prone to having back rpblems</t>
+  </si>
+  <si>
+    <t>He's prone to going off on a tangent</t>
+  </si>
+  <si>
+    <t>Queiro ver los datos en su estdo bruto</t>
+  </si>
+  <si>
+    <t>I want to see the raw data</t>
+  </si>
+  <si>
+    <t>talento bruto</t>
+  </si>
+  <si>
+    <t>raw talent</t>
+  </si>
+  <si>
+    <t>me austa cualquier cosa que corre por el suelo</t>
+  </si>
+  <si>
+    <t>I'm scared of anything that runs along the floor</t>
+  </si>
+  <si>
+    <t>I'm affrid of heights</t>
+  </si>
+  <si>
+    <t>tengo miedo de las alturas</t>
+  </si>
+  <si>
+    <t>I'm frigntened</t>
+  </si>
+  <si>
+    <t>estroy asustado</t>
+  </si>
+  <si>
+    <t>no seas egoista</t>
+  </si>
+  <si>
+    <t>Don be selfish</t>
+  </si>
+  <si>
+    <t>hare un ligero cambio en mis planes</t>
+  </si>
+  <si>
+    <t>I'll do a slight change in my plan</t>
+  </si>
+  <si>
+    <t>El agua llego hasta mis rodilla</t>
+  </si>
+  <si>
+    <t>hasta/until/up to</t>
+  </si>
+  <si>
+    <t>llegó hasta la cumbre sin oxigeno</t>
+  </si>
+  <si>
+    <t>Te esperaremos hasta las 5</t>
+  </si>
+  <si>
+    <t>No lo sabré hasta que se publiquen los resultados</t>
+  </si>
+  <si>
+    <t>They born in that village</t>
+  </si>
+  <si>
+    <t>mi madre tenia 35 años cuendo naci</t>
+  </si>
+  <si>
+    <t>he was killed bay the indians</t>
+  </si>
+  <si>
+    <t>he was left to die</t>
+  </si>
+  <si>
+    <t>he was saved by a missionary</t>
+  </si>
+  <si>
+    <t>fue salvado por un misionera</t>
+  </si>
+  <si>
+    <t>he was taken to the fort</t>
+  </si>
+  <si>
+    <t>he was given a medal</t>
+  </si>
+  <si>
+    <t>le fue concedidad una medalla</t>
+  </si>
+  <si>
+    <t>he was sent to the capital</t>
+  </si>
+  <si>
+    <t>he's never come back</t>
+  </si>
+  <si>
+    <t>nunca ha vuelto</t>
+  </si>
+  <si>
+    <t>I think he's forgotten about us</t>
+  </si>
+  <si>
+    <t>he did'n even thank us</t>
+  </si>
+  <si>
+    <t>When did you last break a huge window?</t>
+  </si>
+  <si>
+    <t>quiero saber cuando fue la ultima vez que llevaste lentiillas?</t>
+  </si>
+  <si>
+    <t>i want to know when the last time you wore contact lenses was.</t>
+  </si>
+  <si>
+    <t>Estaré aquí hasta las 9</t>
+  </si>
+  <si>
+    <t>I'll be here until 9</t>
+  </si>
+  <si>
+    <t>a veces tengo que esperar hasta 30 minutos</t>
+  </si>
+  <si>
+    <t>Some times I have to wait up to 30 minutes</t>
+  </si>
+  <si>
+    <t>Ni siquiera nos dio las gracias</t>
+  </si>
+  <si>
+    <t>creo que se ha olvidado de nosotro</t>
+  </si>
+  <si>
+    <t>Le mandaron a la capital</t>
+  </si>
+  <si>
+    <t>sooner or later you will regret having done it</t>
+  </si>
+  <si>
+    <t>tarde o  temprano te arrepentirás de haberlo hecho</t>
+  </si>
+  <si>
+    <t>estuve en contacto con el ayer</t>
+  </si>
+  <si>
+    <t>I was in touch with him yesterday</t>
+  </si>
+  <si>
+    <t>siempre les con fundoe</t>
+  </si>
+  <si>
+    <t>I can't get rd of this cold</t>
+  </si>
+  <si>
+    <t>no me puedo deshacer de este recuperatdo</t>
+  </si>
+  <si>
+    <t>to get over a flu</t>
+  </si>
+  <si>
+    <t>he beat cancer</t>
+  </si>
+  <si>
+    <t>I always get them mix up they look a lot alike/ they very similar</t>
+  </si>
+  <si>
+    <t>You take after your grandfather</t>
+  </si>
+  <si>
+    <t>te parces a tu padre/ forma de ser</t>
+  </si>
+  <si>
+    <t>vigilale</t>
+  </si>
+  <si>
+    <t>keep an eye on him, personally I don´t trust him</t>
+  </si>
+  <si>
+    <t>the gril is putting a book on the shelf</t>
+  </si>
+  <si>
+    <t>3 the old camera is flashing</t>
+  </si>
+  <si>
+    <t>5-the guys are getting into the store, they're rushing</t>
+  </si>
+  <si>
+    <t>7-She's wrapping a Christmas gift</t>
+  </si>
+  <si>
+    <t>podemos descartar la segunda alternativa</t>
+  </si>
+  <si>
+    <t>sigamos en contacto</t>
+  </si>
+  <si>
+    <t>vencer al cancer</t>
+  </si>
+  <si>
+    <t>they tasty alot alike</t>
+  </si>
+  <si>
+    <t>saben moy parecido</t>
+  </si>
+  <si>
+    <t>recuperarse de un resfriado</t>
+  </si>
+  <si>
+    <t>He got up to the summit without oxigen</t>
+  </si>
+  <si>
+    <t>We'll wait for yu until 5 pm</t>
+  </si>
+  <si>
+    <t>tienes hasta 6 meses para mejorar tu ingles</t>
+  </si>
+  <si>
+    <t>tuvimos que reenviar el ocumento hasta 20 veces</t>
+  </si>
+  <si>
+    <t>lets stay in touch</t>
+  </si>
+  <si>
+    <t>until they publis the resul</t>
+  </si>
+  <si>
+    <t>You have up to 6 months to inprove your english</t>
+  </si>
+  <si>
+    <t>we have to forward the document up to 20 times</t>
+  </si>
+  <si>
+    <t>La clase de hoy será tre veces mas dificil</t>
+  </si>
+  <si>
+    <t>Today clas will be 3 times as dificult as last class</t>
+  </si>
+  <si>
+    <t>Nacieron en aquell aldea</t>
+  </si>
+  <si>
+    <t>My mother was 35 years old when I was born</t>
+  </si>
+  <si>
+    <t>he  was killed by an arrow</t>
+  </si>
+  <si>
+    <t>le mataron los indios</t>
+  </si>
+  <si>
+    <t>le dejaron morir</t>
+  </si>
+  <si>
+    <t>le mató una flecha</t>
+  </si>
+  <si>
+    <t>Fue llevado al fuerte</t>
   </si>
 </sst>
 </file>
@@ -5591,7 +5877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5605,6 +5891,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5986,6 +6273,99 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30088</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>143693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43794578-6BB1-C50B-0708-B418E1EA0DEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="28003500"/>
+          <a:ext cx="10840963" cy="5858693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1064</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>143746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61009BAD-5C9C-CAD7-56E4-DD4D6EDBB19F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="381000"/>
+          <a:ext cx="7621064" cy="6239746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6005,7 +6385,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C734" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31C789EA-E6A6-49EB-B95A-CD8A64F270BF}" name="theenglish" displayName="theenglish" ref="A1:C781" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8C2285AF-8150-4289-9017-075B5346F689}" uniqueName="1" name="esp" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{6D572D7D-E01D-4336-BDAB-AC33E47035D7}" uniqueName="2" name="eng" queryTableFieldId="2" dataDxfId="1"/>
@@ -6315,17 +6695,17 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D734"/>
+  <dimension ref="A1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A708" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A735" sqref="A735"/>
+    <sheetView tabSelected="1" topLeftCell="A764" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C793" sqref="C792:C793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" customWidth="1"/>
     <col min="2" max="2" width="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -13810,7 +14190,7 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B681" t="s">
         <v>1696</v>
@@ -13854,7 +14234,7 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B685" t="s">
         <v>1703</v>
@@ -13866,18 +14246,18 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B686" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="C686" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B687" t="s">
         <v>1704</v>
@@ -13888,10 +14268,10 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="B688" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="C688" t="s">
         <v>202</v>
@@ -13899,10 +14279,10 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="B689" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="C689" t="s">
         <v>202</v>
@@ -13910,10 +14290,10 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B690" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="C690" t="s">
         <v>202</v>
@@ -13921,10 +14301,10 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B691" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="C691" t="s">
         <v>202</v>
@@ -13932,10 +14312,10 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B692" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="C692" t="s">
         <v>202</v>
@@ -13954,10 +14334,10 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B694" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="C694" t="s">
         <v>202</v>
@@ -13965,7 +14345,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B695" t="s">
         <v>1707</v>
@@ -14053,7 +14433,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B703" t="s">
         <v>1722</v>
@@ -14067,7 +14447,7 @@
         <v>1723</v>
       </c>
       <c r="B704" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C704" t="s">
         <v>202</v>
@@ -14075,7 +14455,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B705" t="s">
         <v>1724</v>
@@ -14086,10 +14466,10 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B706" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C706" t="s">
         <v>202</v>
@@ -14097,10 +14477,10 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B707" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C707" t="s">
         <v>202</v>
@@ -14108,10 +14488,10 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B708" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C708" t="s">
         <v>202</v>
@@ -14119,10 +14499,10 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B709" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C709" t="s">
         <v>202</v>
@@ -14130,10 +14510,10 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B710" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C710" t="s">
         <v>202</v>
@@ -14141,131 +14521,131 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B711" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C711" t="s">
         <v>1745</v>
-      </c>
-      <c r="C711" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B712" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="C712" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="B713" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C713" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B714" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="C714" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B715" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C715" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B716" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="C716" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B717" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="C717" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B718" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="C718" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B719" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="C719" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B720" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="C720" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B721" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C721" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B722" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C722" t="s">
         <v>202</v>
@@ -14273,10 +14653,10 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B723" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="C723" t="s">
         <v>202</v>
@@ -14284,10 +14664,10 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="B724" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C724" t="s">
         <v>202</v>
@@ -14295,112 +14675,623 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B725" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C725" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B726" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="C726" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B727" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="C727" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B728" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="C728" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B729" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="C729" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B730" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="C730" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C731" t="s">
         <v>1759</v>
-      </c>
-      <c r="B731" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C731" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B732" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C732" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B733" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C733" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B735" t="s">
         <v>1814</v>
       </c>
-      <c r="B734" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C734" t="s">
-        <v>1756</v>
+      <c r="C735" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C736" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C737" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C738" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C739" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C740" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B741" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C741" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C742" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C743" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C744" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C745" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C746" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C747" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C748" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C749" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C752" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C753" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C754" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C755" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C756" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" s="11" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B757" s="11" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C757" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" s="11" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B758" s="11" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C758" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" s="11" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B759" s="11" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C759" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" s="11" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B760" s="11" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C760" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" s="11" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B761" s="11" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C761" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" s="11" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B762" s="11" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C762" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" s="11" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B763" s="11" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C763" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" s="11" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B764" s="11" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C764" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" s="11" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B765" s="11" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C765" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" s="11" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B766" s="11" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C766" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" s="11" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B767" s="11" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C767" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" s="11" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B768" s="11" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C768" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" s="11" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B769" s="11" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C769" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" s="11" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B770" s="11" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C770" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" s="11" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B771" s="11" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C771" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B772" s="11" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C772" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" s="11" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B773" s="11" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C773" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" s="11" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B774" s="11" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C774" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" s="11" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B775" s="11" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C775" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" s="11" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B776" s="11" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C776" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" s="11" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B777" s="11" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C777" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" s="11" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B778" s="11" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C778" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" s="11" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B779" s="11" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C779" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" s="11" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B780" s="11" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C780" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" s="11" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B781" s="11" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C781" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -15455,10 +16346,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B247A4-280A-49E2-9FD5-75DE90708693}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15595,6 +16486,11 @@
         <v>1184</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15602,10 +16498,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD4E3BE-CB0A-4229-93CE-4760C471BE41}">
-  <dimension ref="A3:P129"/>
+  <dimension ref="A3:P152"/>
   <sheetViews>
-    <sheetView topLeftCell="E114" workbookViewId="0">
-      <selection activeCell="M125" sqref="M125"/>
+    <sheetView topLeftCell="A118" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15841,7 +16737,7 @@
     </row>
     <row r="124" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M124" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="125" spans="13:13" x14ac:dyDescent="0.25">
@@ -15856,20 +16752,45 @@
     </row>
     <row r="127" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M127" t="s">
-        <v>1728</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="128" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M128" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="129" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M129" t="s">
-        <v>1729</v>
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="149" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P149" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="152" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P152" t="s">
+        <v>1884</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E364FC0C-B94D-4F2E-8141-C3C89B8197C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
